--- a/DungeonShooting_Godot/excel/ActivityBase.xlsx
+++ b/DungeonShooting_Godot/excel/ActivityBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12180"/>
+    <workbookView windowWidth="24750" windowHeight="12200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -359,7 +359,7 @@
     <t>提高移动速度</t>
   </si>
   <si>
-    <t>res://prefab/effect/enemy/Effect0001.tscn</t>
+    <t>res://prefab/prop/buff/BuffProp0001.tscn</t>
   </si>
   <si>
     <t>res://resource/sprite/prop/buff/BuffProp0001.png</t>
@@ -1605,21 +1605,21 @@
   <sheetPr/>
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
+      <selection pane="bottomLeft" activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="27.5583333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5545454545455" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.6" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.8916666666667" style="1" customWidth="1"/>
-    <col min="4" max="5" width="35.5583333333333" style="2" customWidth="1"/>
-    <col min="6" max="7" width="18.8166666666667" style="1" customWidth="1"/>
-    <col min="8" max="8" width="63.3666666666667" style="3" customWidth="1"/>
-    <col min="9" max="9" width="61.9083333333333" customWidth="1"/>
+    <col min="3" max="3" width="31.8909090909091" style="1" customWidth="1"/>
+    <col min="4" max="5" width="35.5545454545455" style="2" customWidth="1"/>
+    <col min="6" max="7" width="18.8181818181818" style="1" customWidth="1"/>
+    <col min="8" max="8" width="63.3636363636364" style="3" customWidth="1"/>
+    <col min="9" max="9" width="61.9090909090909" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2495,7 +2495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" customFormat="1" ht="27" spans="1:10">
+    <row r="48" customFormat="1" ht="28" spans="1:10">
       <c r="A48" s="1" t="s">
         <v>147</v>
       </c>
@@ -2786,7 +2786,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2803,7 +2803,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DungeonShooting_Godot/excel/ActivityBase.xlsx
+++ b/DungeonShooting_Godot/excel/ActivityBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12200"/>
+    <workbookView windowWidth="18810" windowHeight="10050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="197">
   <si>
     <t>Id</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>Quality</t>
   </si>
   <si>
     <t>Intro</t>
@@ -79,6 +82,16 @@
     <t>物体名称</t>
   </si>
   <si>
+    <t>物体品质, 用于武器和道具
+通用物品: 1
+基础: 2
+普通: 3
+稀有: 4
+史诗: 5
+传说: 6
+独一无二: 7</t>
+  </si>
+  <si>
     <t>物体简介
 一句对物体简短的介绍, 比如拾起物体时弹出的描述</t>
   </si>
@@ -107,7 +120,10 @@
     <t>string</t>
   </si>
   <si>
-    <t>int</t>
+    <t>ActivityType</t>
+  </si>
+  <si>
+    <t>ActivityQuality</t>
   </si>
   <si>
     <t>boolean</t>
@@ -1603,27 +1619,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H42" sqref="H42"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="27.5545454545455" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5583333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.6" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.8909090909091" style="1" customWidth="1"/>
-    <col min="4" max="5" width="35.5545454545455" style="2" customWidth="1"/>
-    <col min="6" max="7" width="18.8181818181818" style="1" customWidth="1"/>
-    <col min="8" max="8" width="63.3636363636364" style="3" customWidth="1"/>
-    <col min="9" max="9" width="61.9090909090909" customWidth="1"/>
-    <col min="10" max="10" width="27" customWidth="1"/>
+    <col min="3" max="4" width="31.8916666666667" style="1" customWidth="1"/>
+    <col min="5" max="6" width="35.5583333333333" style="2" customWidth="1"/>
+    <col min="7" max="8" width="18.8166666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="63.3666666666667" style="3" customWidth="1"/>
+    <col min="10" max="10" width="61.9083333333333" customWidth="1"/>
+    <col min="11" max="11" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25" customHeight="1" spans="1:10">
+    <row r="1" ht="25" customHeight="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1633,1141 +1649,1234 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" ht="138" customHeight="1" spans="1:10">
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" ht="138" customHeight="1" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="G2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J2" t="s">
+      <c r="I2" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" ht="28" customHeight="1" spans="1:10">
+      <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" ht="28" customHeight="1" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="G3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="J3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" ht="35" customHeight="1" spans="8:10">
-      <c r="H4" s="1"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" ht="28" customHeight="1" spans="1:10">
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" ht="35" customHeight="1" spans="9:11">
+      <c r="I4" s="1"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" ht="28" customHeight="1" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" ht="28" customHeight="1" spans="8:10">
-      <c r="H6" s="1"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" ht="28" customHeight="1" spans="1:10">
+        <v>28</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" ht="28" customHeight="1" spans="9:11">
+      <c r="I6" s="1"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" ht="28" customHeight="1" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1">
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" ht="28" customHeight="1" spans="1:10">
+        <v>32</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="28" customHeight="1" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1">
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="28" customHeight="1" spans="8:10">
-      <c r="H9" s="1"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" ht="28" customHeight="1" spans="8:10">
-      <c r="H10" s="1"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" ht="28" customHeight="1" spans="8:10">
-      <c r="H11" s="1"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" ht="24" customHeight="1" spans="1:10">
+        <v>36</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="28" customHeight="1" spans="9:11">
+      <c r="I9" s="1"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" ht="28" customHeight="1" spans="9:11">
+      <c r="I10" s="1"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" ht="28" customHeight="1" spans="9:11">
+      <c r="I11" s="1"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" ht="24" customHeight="1" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" ht="24" customHeight="1" spans="1:10">
+        <v>40</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="24" customHeight="1" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B13" s="1">
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" t="s">
-        <v>43</v>
-      </c>
-      <c r="J13" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" ht="24" customHeight="1" spans="1:10">
+        <v>44</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="24" customHeight="1" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B14" s="1">
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" t="s">
-        <v>47</v>
-      </c>
-      <c r="J14" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" ht="24" customHeight="1" spans="1:10">
+        <v>48</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="24" customHeight="1" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B15" s="1">
         <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" t="s">
-        <v>51</v>
-      </c>
-      <c r="J15" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" ht="24" customHeight="1" spans="1:10">
+        <v>52</v>
+      </c>
+      <c r="D15" s="1">
+        <v>4</v>
+      </c>
+      <c r="G15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" t="s">
+        <v>54</v>
+      </c>
+      <c r="K15" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" ht="24" customHeight="1" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B16" s="1">
         <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I16" t="s">
-        <v>55</v>
-      </c>
-      <c r="J16" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" ht="24" customHeight="1" spans="1:10">
+        <v>56</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4</v>
+      </c>
+      <c r="G16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J16" t="s">
+        <v>58</v>
+      </c>
+      <c r="K16" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" ht="24" customHeight="1" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B17" s="1">
         <v>5</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I17" t="s">
-        <v>59</v>
-      </c>
-      <c r="J17" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" ht="24" customHeight="1" spans="1:10">
+        <v>60</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2</v>
+      </c>
+      <c r="G17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J17" t="s">
+        <v>62</v>
+      </c>
+      <c r="K17" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" ht="24" customHeight="1" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B18" s="1">
         <v>5</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I18" t="s">
-        <v>63</v>
-      </c>
-      <c r="J18" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" ht="24" customHeight="1" spans="1:10">
+        <v>64</v>
+      </c>
+      <c r="D18" s="1">
+        <v>4</v>
+      </c>
+      <c r="G18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J18" t="s">
+        <v>66</v>
+      </c>
+      <c r="K18" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" ht="24" customHeight="1" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B19" s="1">
         <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I19" t="s">
-        <v>67</v>
-      </c>
-      <c r="J19" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" ht="24" customHeight="1" spans="1:10">
+        <v>68</v>
+      </c>
+      <c r="D19" s="1">
+        <v>4</v>
+      </c>
+      <c r="G19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J19" t="s">
+        <v>70</v>
+      </c>
+      <c r="K19" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" ht="24" customHeight="1" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B20" s="1">
         <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I20" t="s">
-        <v>71</v>
-      </c>
-      <c r="J20" s="2" t="b">
+        <v>72</v>
+      </c>
+      <c r="D20" s="1">
+        <v>4</v>
+      </c>
+      <c r="G20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J20" t="s">
+        <v>74</v>
+      </c>
+      <c r="K20" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="21" ht="39" customHeight="1"/>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B22" s="1">
         <v>6</v>
       </c>
-      <c r="F22" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="G22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B23" s="1">
         <v>6</v>
       </c>
-      <c r="F23" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H23" s="3" t="s">
+      <c r="G23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="24" customFormat="1" spans="1:8">
+      <c r="I23" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B24" s="1">
         <v>6</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="2"/>
+      <c r="D24" s="1"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" customFormat="1" spans="1:8">
+      <c r="F24" s="2"/>
+      <c r="G24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B25" s="1">
         <v>6</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="D25" s="1"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" customFormat="1" spans="1:8">
+      <c r="F25" s="2"/>
+      <c r="G25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B26" s="1">
         <v>6</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="D26" s="1"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" customFormat="1" spans="1:8">
+      <c r="F26" s="2"/>
+      <c r="G26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="1:9">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="2"/>
+      <c r="D27" s="1"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="3"/>
-    </row>
-    <row r="29" customFormat="1" spans="1:8">
+      <c r="F27" s="2"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="29" customFormat="1" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B29" s="1">
         <v>7</v>
       </c>
       <c r="C29" s="1"/>
-      <c r="D29" s="2"/>
+      <c r="D29" s="1"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30" customFormat="1" spans="1:8">
+      <c r="F29" s="2"/>
+      <c r="G29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B30" s="1">
         <v>7</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="2"/>
+      <c r="D30" s="1"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H30" s="3" t="s">
+      <c r="F30" s="2"/>
+      <c r="G30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B31" s="1">
         <v>7</v>
       </c>
-      <c r="F31" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" customFormat="1" spans="1:8">
+      <c r="G31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B32" s="1">
         <v>7</v>
       </c>
       <c r="C32" s="1"/>
-      <c r="D32" s="2"/>
+      <c r="D32" s="1"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="F32" s="2"/>
+      <c r="G32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B36" s="1">
         <v>8</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F36" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="37" customFormat="1" spans="1:8">
+      <c r="E36" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B37" s="1">
         <v>8</v>
       </c>
       <c r="C37" s="1"/>
-      <c r="D37" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G37" s="1"/>
-      <c r="H37" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="D37" s="1"/>
+      <c r="E37" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1"/>
+      <c r="I37" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B39" s="1">
         <v>9</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F39" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I39" t="s">
         <v>106</v>
       </c>
-      <c r="J39" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" customFormat="1" spans="1:10">
+      <c r="D39" s="1">
+        <v>4</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J39" t="s">
+        <v>109</v>
+      </c>
+      <c r="K39" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B40" s="1">
         <v>9</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G40" s="1"/>
-      <c r="H40" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="I40" t="s">
         <v>111</v>
       </c>
-      <c r="J40" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" customFormat="1" spans="1:10">
+      <c r="D40" s="1">
+        <v>3</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J40" t="s">
+        <v>114</v>
+      </c>
+      <c r="K40" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B41" s="1">
         <v>9</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G41" s="1"/>
-      <c r="H41" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="I41" t="s">
         <v>116</v>
       </c>
-      <c r="J41" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" customFormat="1" spans="1:10">
+      <c r="D41" s="1">
+        <v>3</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="J41" t="s">
+        <v>119</v>
+      </c>
+      <c r="K41" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B42" s="1">
         <v>9</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G42" s="1"/>
-      <c r="H42" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="I42" t="s">
         <v>121</v>
       </c>
-      <c r="J42" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" customFormat="1" spans="1:10">
+      <c r="D42" s="1">
+        <v>4</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="I42" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="J42" t="s">
+        <v>124</v>
+      </c>
+      <c r="K42" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B43" s="1">
         <v>9</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G43" s="1"/>
-      <c r="H43" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="I43" t="s">
         <v>126</v>
       </c>
-      <c r="J43" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" customFormat="1" spans="1:10">
+      <c r="D43" s="1">
+        <v>4</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1"/>
+      <c r="I43" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J43" t="s">
+        <v>129</v>
+      </c>
+      <c r="K43" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" customFormat="1" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B44" s="1">
         <v>9</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G44" s="1"/>
-      <c r="H44" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I44" t="s">
         <v>131</v>
       </c>
-      <c r="J44" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" customFormat="1" spans="1:10">
+      <c r="D44" s="1">
+        <v>4</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="J44" t="s">
+        <v>134</v>
+      </c>
+      <c r="K44" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" customFormat="1" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B45" s="1">
         <v>9</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G45" s="1"/>
-      <c r="H45" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="I45" t="s">
         <v>136</v>
       </c>
-      <c r="J45" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" customFormat="1" spans="1:10">
+      <c r="D45" s="1">
+        <v>3</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J45" t="s">
+        <v>139</v>
+      </c>
+      <c r="K45" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" customFormat="1" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B46" s="1">
         <v>9</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G46" s="1"/>
-      <c r="H46" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="I46" t="s">
         <v>141</v>
       </c>
-      <c r="J46" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" customFormat="1" spans="1:10">
+      <c r="D46" s="1">
+        <v>3</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="J46" t="s">
+        <v>144</v>
+      </c>
+      <c r="K46" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" customFormat="1" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B47" s="1">
         <v>9</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G47" s="1"/>
-      <c r="H47" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="I47" t="s">
         <v>146</v>
       </c>
-      <c r="J47" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" customFormat="1" ht="28" spans="1:10">
+      <c r="D47" s="1">
+        <v>3</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1"/>
+      <c r="I47" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="J47" t="s">
+        <v>149</v>
+      </c>
+      <c r="K47" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" customFormat="1" ht="27" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B48" s="1">
         <v>9</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E48" s="2"/>
-      <c r="F48" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G48" s="1"/>
-      <c r="H48" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="I48" t="s">
         <v>151</v>
       </c>
-      <c r="J48" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" customFormat="1" spans="1:10">
+      <c r="D48" s="1">
+        <v>4</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="J48" t="s">
+        <v>154</v>
+      </c>
+      <c r="K48" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" customFormat="1" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B49" s="1">
         <v>9</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E49" s="2"/>
-      <c r="F49" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G49" s="1"/>
-      <c r="H49" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="I49" t="s">
         <v>156</v>
       </c>
-      <c r="J49" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" customFormat="1" spans="1:10">
+      <c r="D49" s="1">
+        <v>4</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="G49" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1"/>
+      <c r="I49" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J49" t="s">
+        <v>159</v>
+      </c>
+      <c r="K49" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" customFormat="1" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B50" s="1">
         <v>9</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E50" s="2"/>
-      <c r="F50" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G50" s="1"/>
-      <c r="H50" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="I50" t="s">
         <v>161</v>
       </c>
-      <c r="J50" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" customFormat="1" spans="1:10">
+      <c r="D50" s="1">
+        <v>4</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1"/>
+      <c r="I50" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="J50" t="s">
+        <v>164</v>
+      </c>
+      <c r="K50" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" customFormat="1" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B51" s="1">
         <v>9</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G51" s="1"/>
-      <c r="H51" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="I51" t="s">
         <v>166</v>
       </c>
-      <c r="J51" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" customFormat="1" spans="1:10">
+      <c r="D51" s="1">
+        <v>2</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51" s="1"/>
+      <c r="I51" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="J51" t="s">
+        <v>169</v>
+      </c>
+      <c r="K51" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" customFormat="1" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B52" s="1">
         <v>9</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G52" s="1"/>
-      <c r="H52" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="I52" t="s">
         <v>171</v>
       </c>
-      <c r="J52" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" customFormat="1" spans="1:10">
+      <c r="D52" s="1">
+        <v>2</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="G52" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1"/>
+      <c r="I52" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="J52" t="s">
+        <v>174</v>
+      </c>
+      <c r="K52" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" customFormat="1" spans="1:11">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="2"/>
+      <c r="D53" s="1"/>
       <c r="E53" s="2"/>
-      <c r="F53" s="1"/>
+      <c r="F53" s="2"/>
       <c r="G53" s="1"/>
-      <c r="H53" s="3"/>
-      <c r="J53" s="2"/>
-    </row>
-    <row r="55" customFormat="1" spans="1:10">
+      <c r="H53" s="1"/>
+      <c r="I53" s="3"/>
+      <c r="K53" s="2"/>
+    </row>
+    <row r="55" customFormat="1" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B55" s="1">
         <v>9</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G55" s="1"/>
-      <c r="H55" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="I55" t="s">
         <v>176</v>
       </c>
-      <c r="J55" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" customFormat="1" spans="1:10">
+      <c r="D55" s="1">
+        <v>1</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F55" s="2"/>
+      <c r="G55" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55" s="1"/>
+      <c r="I55" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="J55" t="s">
+        <v>179</v>
+      </c>
+      <c r="K55" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" customFormat="1" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B56" s="1">
         <v>9</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G56" s="1"/>
-      <c r="H56" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="I56" t="s">
         <v>181</v>
       </c>
-      <c r="J56" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="D56" s="1">
+        <v>1</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F56" s="2"/>
+      <c r="G56" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1"/>
+      <c r="I56" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="J56" t="s">
+        <v>184</v>
+      </c>
+      <c r="K56" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B58" s="1">
         <v>99</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F58" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="E58" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G58" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B59" s="1">
         <v>99</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F59" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="E59" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G59" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B60" s="1">
         <v>99</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F60" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="E60" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G60" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B61" s="1">
         <v>99</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="F61" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>193</v>
+      <c r="E61" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G61" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2786,7 +2895,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2803,7 +2912,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DungeonShooting_Godot/excel/ActivityBase.xlsx
+++ b/DungeonShooting_Godot/excel/ActivityBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18810" windowHeight="10050"/>
+    <workbookView windowWidth="29050" windowHeight="14130"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="206">
   <si>
     <t>Id</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>Quality</t>
+  </si>
+  <si>
+    <t>Price</t>
   </si>
   <si>
     <t>Intro</t>
@@ -92,6 +95,9 @@
 独一无二: 7</t>
   </si>
   <si>
+    <t>商店售价</t>
+  </si>
+  <si>
     <t>物体简介
 一句对物体简短的介绍, 比如拾起物体时弹出的描述</t>
   </si>
@@ -126,6 +132,9 @@
     <t>ActivityQuality</t>
   </si>
   <si>
+    <t>uint</t>
+  </si>
+  <si>
     <t>boolean</t>
   </si>
   <si>
@@ -276,6 +285,15 @@
     <t>res://resource/sprite/weapon/weapon0009/weapon0009.png</t>
   </si>
   <si>
+    <t>weapon0010</t>
+  </si>
+  <si>
+    <t>res://prefab/weapon/Weapon0010.tscn</t>
+  </si>
+  <si>
+    <t>res://resource/sprite/weapon/weapon0010/Weapon0010.png</t>
+  </si>
+  <si>
     <t>bullet0001</t>
   </si>
   <si>
@@ -319,6 +337,15 @@
   </si>
   <si>
     <t>res://prefab/bullet/normal/Bullet0005.tscn</t>
+  </si>
+  <si>
+    <t>bullet0006</t>
+  </si>
+  <si>
+    <t>拖尾子弹</t>
+  </si>
+  <si>
+    <t>res://prefab/bullet/normal/Bullet0006.tscn</t>
   </si>
   <si>
     <t>shell0001</t>
@@ -1619,27 +1646,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="27.5583333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5545454545455" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.6" style="1" customWidth="1"/>
-    <col min="3" max="4" width="31.8916666666667" style="1" customWidth="1"/>
-    <col min="5" max="6" width="35.5583333333333" style="2" customWidth="1"/>
-    <col min="7" max="8" width="18.8166666666667" style="1" customWidth="1"/>
-    <col min="9" max="9" width="63.3666666666667" style="3" customWidth="1"/>
-    <col min="10" max="10" width="61.9083333333333" customWidth="1"/>
-    <col min="11" max="11" width="27" customWidth="1"/>
+    <col min="3" max="3" width="31.8909090909091" style="1" customWidth="1"/>
+    <col min="4" max="5" width="27.3727272727273" style="1" customWidth="1"/>
+    <col min="6" max="7" width="35.5545454545455" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.8181818181818" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.1272727272727" style="1" customWidth="1"/>
+    <col min="10" max="10" width="63.3636363636364" style="3" customWidth="1"/>
+    <col min="11" max="11" width="61.9090909090909" customWidth="1"/>
+    <col min="12" max="12" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25" customHeight="1" spans="1:11">
+    <row r="1" ht="25" customHeight="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1652,1231 +1681,1302 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" ht="138" customHeight="1" spans="1:11">
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" ht="138" customHeight="1" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="G2" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="H2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K2" t="s">
+      <c r="J2" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" ht="28" customHeight="1" spans="1:11">
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" ht="28" customHeight="1" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>25</v>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" t="s">
-        <v>22</v>
+        <v>28</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" ht="35" customHeight="1" spans="9:11">
-      <c r="I4" s="1"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" ht="28" customHeight="1" spans="1:11">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" ht="35" customHeight="1" spans="10:12">
+      <c r="J4" s="1"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" ht="28" customHeight="1" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" ht="28" customHeight="1" spans="9:11">
-      <c r="I6" s="1"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" ht="28" customHeight="1" spans="1:11">
+        <v>31</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" ht="28" customHeight="1" spans="10:12">
+      <c r="J6" s="1"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" ht="28" customHeight="1" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B7" s="1">
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" ht="28" customHeight="1" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="28" customHeight="1" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B8" s="1">
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="28" customHeight="1" spans="9:11">
-      <c r="I9" s="1"/>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" ht="28" customHeight="1" spans="9:11">
-      <c r="I10" s="1"/>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" ht="28" customHeight="1" spans="9:11">
-      <c r="I11" s="1"/>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" ht="24" customHeight="1" spans="1:11">
+        <v>39</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="28" customHeight="1" spans="10:12">
+      <c r="J9" s="1"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" ht="28" customHeight="1" spans="10:12">
+      <c r="J10" s="1"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" ht="28" customHeight="1" spans="10:12">
+      <c r="J11" s="1"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" ht="24" customHeight="1" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D12" s="1">
         <v>3</v>
       </c>
-      <c r="G12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J12" t="s">
-        <v>42</v>
-      </c>
-      <c r="K12" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" ht="24" customHeight="1" spans="1:11">
+      <c r="H12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="24" customHeight="1" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1">
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D13" s="1">
         <v>3</v>
       </c>
-      <c r="G13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J13" t="s">
-        <v>46</v>
-      </c>
-      <c r="K13" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" ht="24" customHeight="1" spans="1:11">
+      <c r="H13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" t="s">
+        <v>49</v>
+      </c>
+      <c r="L13" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="24" customHeight="1" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B14" s="1">
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D14" s="1">
         <v>2</v>
       </c>
-      <c r="G14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J14" t="s">
-        <v>50</v>
-      </c>
-      <c r="K14" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" ht="24" customHeight="1" spans="1:11">
+      <c r="H14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14" t="s">
+        <v>53</v>
+      </c>
+      <c r="L14" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="24" customHeight="1" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B15" s="1">
         <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D15" s="1">
         <v>4</v>
       </c>
-      <c r="G15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J15" t="s">
-        <v>54</v>
-      </c>
-      <c r="K15" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" ht="24" customHeight="1" spans="1:11">
+      <c r="H15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" t="s">
+        <v>57</v>
+      </c>
+      <c r="L15" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" ht="24" customHeight="1" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B16" s="1">
         <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D16" s="1">
         <v>4</v>
       </c>
-      <c r="G16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J16" t="s">
-        <v>58</v>
-      </c>
-      <c r="K16" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" ht="24" customHeight="1" spans="1:11">
+      <c r="H16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K16" t="s">
+        <v>61</v>
+      </c>
+      <c r="L16" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" ht="24" customHeight="1" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B17" s="1">
         <v>5</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D17" s="1">
         <v>2</v>
       </c>
-      <c r="G17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J17" t="s">
-        <v>62</v>
-      </c>
-      <c r="K17" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" ht="24" customHeight="1" spans="1:11">
+      <c r="H17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K17" t="s">
+        <v>65</v>
+      </c>
+      <c r="L17" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" ht="24" customHeight="1" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B18" s="1">
         <v>5</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D18" s="1">
         <v>4</v>
       </c>
-      <c r="G18" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J18" t="s">
-        <v>66</v>
-      </c>
-      <c r="K18" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" ht="24" customHeight="1" spans="1:11">
+      <c r="H18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K18" t="s">
+        <v>69</v>
+      </c>
+      <c r="L18" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" ht="24" customHeight="1" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B19" s="1">
         <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D19" s="1">
-        <v>4</v>
-      </c>
-      <c r="G19" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J19" t="s">
-        <v>70</v>
-      </c>
-      <c r="K19" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" ht="24" customHeight="1" spans="1:11">
+        <v>3</v>
+      </c>
+      <c r="H19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K19" t="s">
+        <v>73</v>
+      </c>
+      <c r="L19" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" ht="24" customHeight="1" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B20" s="1">
         <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D20" s="1">
         <v>4</v>
       </c>
-      <c r="G20" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J20" t="s">
-        <v>74</v>
-      </c>
-      <c r="K20" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" ht="39" customHeight="1"/>
-    <row r="22" spans="1:9">
-      <c r="A22" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B22" s="1">
-        <v>6</v>
-      </c>
-      <c r="G22" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" s="4" t="s">
+      <c r="H20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="K20" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="L20" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" ht="24" customHeight="1" spans="1:12">
+      <c r="A21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="1">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="1">
+        <v>4</v>
+      </c>
+      <c r="H21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K21" t="s">
+        <v>80</v>
+      </c>
+      <c r="L21" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" ht="39" customHeight="1"/>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B23" s="1">
         <v>6</v>
       </c>
-      <c r="G23" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" customFormat="1" spans="1:9">
+      <c r="H23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B24" s="1">
         <v>6</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" customFormat="1" spans="1:9">
+      <c r="H24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B25" s="1">
         <v>6</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="2"/>
+      <c r="E25" s="1"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" customFormat="1" spans="1:9">
+      <c r="G25" s="2"/>
+      <c r="H25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B26" s="1">
         <v>6</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D26" s="1"/>
-      <c r="E26" s="2"/>
+      <c r="E26" s="1"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" customFormat="1" spans="1:9">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="1:10">
+      <c r="A27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="1">
+        <v>6</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="2"/>
+      <c r="E27" s="1"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="3"/>
-    </row>
-    <row r="29" customFormat="1" spans="1:9">
-      <c r="A29" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B29" s="1">
-        <v>7</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" customFormat="1" spans="1:9">
+      <c r="G27" s="2"/>
+      <c r="H27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" spans="1:10">
+      <c r="A28" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="1">
+        <v>6</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B30" s="1">
         <v>7</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="2"/>
+      <c r="E30" s="1"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="G30" s="2"/>
+      <c r="H30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B31" s="1">
         <v>7</v>
       </c>
-      <c r="G31" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="32" customFormat="1" spans="1:9">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B32" s="1">
         <v>7</v>
       </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B36" s="1">
-        <v>8</v>
-      </c>
-      <c r="E36" s="2" t="s">
+      <c r="H32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="G36" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="37" customFormat="1" spans="1:9">
+      <c r="J32" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" spans="1:10">
+      <c r="A33" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" s="1">
+        <v>7</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B37" s="1">
         <v>8</v>
       </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" s="1"/>
-      <c r="I37" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B39" s="1">
-        <v>9</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D39" s="1">
-        <v>4</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G39" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J39" t="s">
+      <c r="F37" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="K39" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" customFormat="1" spans="1:11">
+      <c r="H37" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" spans="1:10">
+      <c r="A38" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="1">
+        <v>8</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1"/>
+      <c r="J38" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B40" s="1">
         <v>9</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D40" s="1">
-        <v>3</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F40" s="2"/>
-      <c r="G40" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" s="1"/>
-      <c r="I40" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="J40" t="s">
-        <v>114</v>
-      </c>
-      <c r="K40" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" customFormat="1" spans="1:11">
+        <v>4</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="K40" t="s">
+        <v>118</v>
+      </c>
+      <c r="L40" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B41" s="1">
         <v>9</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D41" s="1">
         <v>3</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F41" s="2"/>
-      <c r="G41" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" s="1"/>
-      <c r="I41" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="J41" t="s">
-        <v>119</v>
-      </c>
-      <c r="K41" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" customFormat="1" spans="1:11">
+      <c r="E41" s="1"/>
+      <c r="F41" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1"/>
+      <c r="J41" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K41" t="s">
+        <v>123</v>
+      </c>
+      <c r="L41" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" spans="1:12">
       <c r="A42" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B42" s="1">
         <v>9</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D42" s="1">
-        <v>4</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F42" s="2"/>
-      <c r="G42" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" s="1"/>
-      <c r="I42" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J42" t="s">
-        <v>124</v>
-      </c>
-      <c r="K42" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" customFormat="1" spans="1:11">
+        <v>3</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1"/>
+      <c r="J42" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K42" t="s">
+        <v>128</v>
+      </c>
+      <c r="L42" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" spans="1:12">
       <c r="A43" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B43" s="1">
         <v>9</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D43" s="1">
         <v>4</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F43" s="2"/>
-      <c r="G43" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" s="1"/>
-      <c r="I43" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="J43" t="s">
-        <v>129</v>
-      </c>
-      <c r="K43" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" customFormat="1" spans="1:11">
+      <c r="E43" s="1"/>
+      <c r="F43" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" s="1"/>
+      <c r="J43" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="K43" t="s">
+        <v>133</v>
+      </c>
+      <c r="L43" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" customFormat="1" spans="1:12">
       <c r="A44" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B44" s="1">
         <v>9</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D44" s="1">
         <v>4</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F44" s="2"/>
-      <c r="G44" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" s="1"/>
-      <c r="I44" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="J44" t="s">
-        <v>134</v>
-      </c>
-      <c r="K44" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" customFormat="1" spans="1:11">
+      <c r="E44" s="1"/>
+      <c r="F44" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G44" s="2"/>
+      <c r="H44" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" s="1"/>
+      <c r="J44" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="K44" t="s">
+        <v>138</v>
+      </c>
+      <c r="L44" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" customFormat="1" spans="1:12">
       <c r="A45" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B45" s="1">
         <v>9</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D45" s="1">
-        <v>3</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F45" s="2"/>
-      <c r="G45" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" s="1"/>
-      <c r="I45" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J45" t="s">
-        <v>139</v>
-      </c>
-      <c r="K45" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" customFormat="1" spans="1:11">
+        <v>4</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G45" s="2"/>
+      <c r="H45" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" s="1"/>
+      <c r="J45" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="K45" t="s">
+        <v>143</v>
+      </c>
+      <c r="L45" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" customFormat="1" spans="1:12">
       <c r="A46" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B46" s="1">
         <v>9</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D46" s="1">
         <v>3</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F46" s="2"/>
-      <c r="G46" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" s="1"/>
-      <c r="I46" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="J46" t="s">
-        <v>144</v>
-      </c>
-      <c r="K46" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" customFormat="1" spans="1:11">
+      <c r="E46" s="1"/>
+      <c r="F46" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G46" s="2"/>
+      <c r="H46" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" s="1"/>
+      <c r="J46" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="K46" t="s">
+        <v>148</v>
+      </c>
+      <c r="L46" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" customFormat="1" spans="1:12">
       <c r="A47" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B47" s="1">
         <v>9</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D47" s="1">
         <v>3</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F47" s="2"/>
-      <c r="G47" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" s="1"/>
-      <c r="I47" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="J47" t="s">
-        <v>149</v>
-      </c>
-      <c r="K47" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" customFormat="1" ht="27" spans="1:11">
+      <c r="E47" s="1"/>
+      <c r="F47" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G47" s="2"/>
+      <c r="H47" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1"/>
+      <c r="J47" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="K47" t="s">
+        <v>153</v>
+      </c>
+      <c r="L47" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" customFormat="1" spans="1:12">
       <c r="A48" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B48" s="1">
         <v>9</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D48" s="1">
-        <v>4</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F48" s="2"/>
-      <c r="G48" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" s="1"/>
-      <c r="I48" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="J48" t="s">
-        <v>154</v>
-      </c>
-      <c r="K48" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" customFormat="1" spans="1:11">
+        <v>3</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G48" s="2"/>
+      <c r="H48" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1"/>
+      <c r="J48" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="K48" t="s">
+        <v>158</v>
+      </c>
+      <c r="L48" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" customFormat="1" ht="28" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B49" s="1">
         <v>9</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D49" s="1">
         <v>4</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F49" s="2"/>
-      <c r="G49" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" s="1"/>
-      <c r="I49" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="J49" t="s">
-        <v>159</v>
-      </c>
-      <c r="K49" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" customFormat="1" spans="1:11">
+      <c r="E49" s="1"/>
+      <c r="F49" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G49" s="2"/>
+      <c r="H49" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" s="1"/>
+      <c r="J49" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="K49" t="s">
+        <v>163</v>
+      </c>
+      <c r="L49" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" customFormat="1" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B50" s="1">
         <v>9</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D50" s="1">
         <v>4</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F50" s="2"/>
-      <c r="G50" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" s="1"/>
-      <c r="I50" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="J50" t="s">
-        <v>164</v>
-      </c>
-      <c r="K50" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" customFormat="1" spans="1:11">
+      <c r="E50" s="1"/>
+      <c r="F50" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G50" s="2"/>
+      <c r="H50" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" s="1"/>
+      <c r="J50" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="K50" t="s">
+        <v>168</v>
+      </c>
+      <c r="L50" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" customFormat="1" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B51" s="1">
         <v>9</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D51" s="1">
-        <v>2</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F51" s="2"/>
-      <c r="G51" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" s="1"/>
-      <c r="I51" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="J51" t="s">
-        <v>169</v>
-      </c>
-      <c r="K51" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" customFormat="1" spans="1:11">
+        <v>4</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G51" s="2"/>
+      <c r="H51" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" s="1"/>
+      <c r="J51" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="K51" t="s">
+        <v>173</v>
+      </c>
+      <c r="L51" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" customFormat="1" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B52" s="1">
         <v>9</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D52" s="1">
         <v>2</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F52" s="2"/>
-      <c r="G52" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" s="1"/>
-      <c r="I52" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="J52" t="s">
-        <v>174</v>
-      </c>
-      <c r="K52" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" customFormat="1" spans="1:11">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="3"/>
-      <c r="K53" s="2"/>
-    </row>
-    <row r="55" customFormat="1" spans="1:11">
-      <c r="A55" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B55" s="1">
+      <c r="E52" s="1"/>
+      <c r="F52" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G52" s="2"/>
+      <c r="H52" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" s="1"/>
+      <c r="J52" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="K52" t="s">
+        <v>178</v>
+      </c>
+      <c r="L52" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" customFormat="1" spans="1:12">
+      <c r="A53" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B53" s="1">
         <v>9</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D55" s="1">
-        <v>1</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F55" s="2"/>
-      <c r="G55" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" s="1"/>
-      <c r="I55" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="J55" t="s">
-        <v>179</v>
-      </c>
-      <c r="K55" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" customFormat="1" spans="1:11">
+      <c r="C53" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D53" s="1">
+        <v>2</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G53" s="2"/>
+      <c r="H53" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" s="1"/>
+      <c r="J53" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="K53" t="s">
+        <v>183</v>
+      </c>
+      <c r="L53" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" customFormat="1" spans="1:12">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="3"/>
+      <c r="L54" s="2"/>
+    </row>
+    <row r="56" customFormat="1" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B56" s="1">
         <v>9</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D56" s="1">
         <v>1</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F56" s="2"/>
-      <c r="G56" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" s="1"/>
-      <c r="I56" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="J56" t="s">
-        <v>184</v>
-      </c>
-      <c r="K56" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B58" s="1">
-        <v>99</v>
-      </c>
-      <c r="E58" s="2" t="s">
+      <c r="E56" s="1"/>
+      <c r="F56" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="G58" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I58" s="3" t="s">
+      <c r="G56" s="2"/>
+      <c r="H56" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" s="1"/>
+      <c r="J56" s="3" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="K56" t="s">
+        <v>188</v>
+      </c>
+      <c r="L56" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" customFormat="1" spans="1:12">
+      <c r="A57" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B57" s="1">
+        <v>9</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G57" s="2"/>
+      <c r="H57" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" s="1"/>
+      <c r="J57" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="K57" t="s">
+        <v>193</v>
+      </c>
+      <c r="L57" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B59" s="1">
         <v>99</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="G59" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="F59" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="H59" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B60" s="1">
         <v>99</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="G60" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+      <c r="F60" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H60" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B61" s="1">
         <v>99</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="G61" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>196</v>
+      <c r="F61" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H61" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B62" s="1">
+        <v>99</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H62" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -2895,7 +2995,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2912,7 +3012,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DungeonShooting_Godot/excel/ActivityBase.xlsx
+++ b/DungeonShooting_Godot/excel/ActivityBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29050" windowHeight="14130"/>
+    <workbookView windowWidth="24750" windowHeight="12200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="211">
   <si>
     <t>Id</t>
   </si>
@@ -667,6 +667,21 @@
   </si>
   <si>
     <t>res://prefab/map/RoomDoor_N.tscn</t>
+  </si>
+  <si>
+    <t>gold_10</t>
+  </si>
+  <si>
+    <t>金币</t>
+  </si>
+  <si>
+    <t>获得10货币</t>
+  </si>
+  <si>
+    <t>res://prefab/currency/Gold10.tscn</t>
+  </si>
+  <si>
+    <t>res://resource/sprite/ui/commonIcon/Gold_10.png</t>
   </si>
 </sst>
 </file>
@@ -1646,12 +1661,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L62"/>
+  <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
+      <selection pane="bottomLeft" activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2977,6 +2992,32 @@
       </c>
       <c r="J62" s="3" t="s">
         <v>205</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B64" s="1">
+        <v>99</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="H64" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="K64" t="s">
+        <v>210</v>
+      </c>
+      <c r="L64" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/DungeonShooting_Godot/excel/ActivityBase.xlsx
+++ b/DungeonShooting_Godot/excel/ActivityBase.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="225">
   <si>
     <t>Id</t>
   </si>
@@ -294,6 +294,18 @@
     <t>res://resource/sprite/weapon/weapon0010/Weapon0010.png</t>
   </si>
   <si>
+    <t>weapon0013</t>
+  </si>
+  <si>
+    <t>P90</t>
+  </si>
+  <si>
+    <t>res://prefab/weapon/Weapon0013.tscn</t>
+  </si>
+  <si>
+    <t>res://resource/sprite/weapon/weapon0013/Weapon0013.png</t>
+  </si>
+  <si>
     <t>bullet0001</t>
   </si>
   <si>
@@ -675,13 +687,43 @@
     <t>金币</t>
   </si>
   <si>
-    <t>获得10货币</t>
+    <t>获得10金币</t>
   </si>
   <si>
     <t>res://prefab/currency/Gold10.tscn</t>
   </si>
   <si>
     <t>res://resource/sprite/ui/commonIcon/Gold_10.png</t>
+  </si>
+  <si>
+    <t>gold_5</t>
+  </si>
+  <si>
+    <t>银币</t>
+  </si>
+  <si>
+    <t>获得5金币</t>
+  </si>
+  <si>
+    <t>res://prefab/currency/Gold5.tscn</t>
+  </si>
+  <si>
+    <t>res://resource/sprite/ui/commonIcon/Gold_5.png</t>
+  </si>
+  <si>
+    <t>gold_1</t>
+  </si>
+  <si>
+    <t>铜币</t>
+  </si>
+  <si>
+    <t>获得1金币</t>
+  </si>
+  <si>
+    <t>res://prefab/currency/Gold1.tscn</t>
+  </si>
+  <si>
+    <t>res://resource/sprite/ui/commonIcon/Gold_1.png</t>
   </si>
 </sst>
 </file>
@@ -1661,12 +1703,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L64"/>
+  <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I64" sqref="I64"/>
+      <selection pane="bottomLeft" activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2138,7 +2180,7 @@
         <v>78</v>
       </c>
       <c r="D21" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H21" s="1" t="b">
         <v>0</v>
@@ -2153,121 +2195,83 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" ht="39" customHeight="1"/>
-    <row r="23" spans="1:10">
-      <c r="A23" s="1" t="s">
+    <row r="22" ht="24" customHeight="1" spans="1:12">
+      <c r="A22" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B23" s="1">
-        <v>6</v>
-      </c>
-      <c r="H23" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" s="4" t="s">
+      <c r="B22" s="1">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="D22" s="1">
+        <v>4</v>
+      </c>
+      <c r="H22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="1" t="s">
+      <c r="K22" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="1">
-        <v>6</v>
-      </c>
-      <c r="H24" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="J24" s="3" t="s">
+      <c r="L22" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" ht="24" customHeight="1" spans="10:12">
+      <c r="J23" s="1"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" ht="24" customHeight="1" spans="10:12">
+      <c r="J24" s="1"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" ht="39" customHeight="1"/>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="25" customFormat="1" spans="1:10">
-      <c r="A25" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B25" s="1">
-        <v>6</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" customFormat="1" spans="1:10">
-      <c r="A26" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="B26" s="1">
         <v>6</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
       <c r="H26" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" customFormat="1" spans="1:10">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B27" s="1">
         <v>6</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
       <c r="H27" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B28" s="1">
         <v>6</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="2"/>
@@ -2276,20 +2280,46 @@
         <v>0</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>98</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" spans="1:10">
+      <c r="A29" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="1">
+        <v>6</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B30" s="1">
-        <v>7</v>
-      </c>
-      <c r="C30" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="2"/>
@@ -2298,20 +2328,22 @@
         <v>0</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B31" s="1">
-        <v>7</v>
-      </c>
-      <c r="C31" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="2"/>
@@ -2320,32 +2352,15 @@
         <v>0</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B32" s="1">
-        <v>7</v>
-      </c>
-      <c r="H32" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B33" s="1">
         <v>7</v>
@@ -2359,96 +2374,102 @@
         <v>0</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="J33" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" spans="1:10">
+      <c r="A34" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34" s="1">
+        <v>7</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J34" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="1" t="s">
+    <row r="35" spans="1:10">
+      <c r="A35" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B35" s="1">
+        <v>7</v>
+      </c>
+      <c r="H35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" spans="1:10">
+      <c r="A36" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36" s="1">
+        <v>7</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" s="1">
         <v>8</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="H37" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="38" customFormat="1" spans="1:10">
-      <c r="A38" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B38" s="1">
+      <c r="F40" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" spans="1:10">
+      <c r="A41" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B41" s="1">
         <v>8</v>
       </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G38" s="2"/>
-      <c r="H38" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" s="1"/>
-      <c r="J38" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B40" s="1">
-        <v>9</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D40" s="1">
-        <v>4</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H40" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="K40" t="s">
-        <v>118</v>
-      </c>
-      <c r="L40" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" customFormat="1" spans="1:12">
-      <c r="A41" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B41" s="1">
-        <v>9</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D41" s="1">
-        <v>3</v>
-      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="1" t="b">
@@ -2456,74 +2477,33 @@
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="K41" t="s">
-        <v>123</v>
-      </c>
-      <c r="L41" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" customFormat="1" spans="1:12">
-      <c r="A42" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B42" s="1">
-        <v>9</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D42" s="1">
-        <v>3</v>
-      </c>
-      <c r="E42" s="1"/>
-      <c r="F42" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" s="1"/>
-      <c r="J42" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K42" t="s">
-        <v>128</v>
-      </c>
-      <c r="L42" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" customFormat="1" spans="1:12">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B43" s="1">
         <v>9</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D43" s="1">
         <v>4</v>
       </c>
-      <c r="E43" s="1"/>
       <c r="F43" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G43" s="2"/>
+        <v>120</v>
+      </c>
       <c r="H43" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I43" s="1"/>
       <c r="J43" s="3" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="K43" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="L43" s="2" t="b">
         <v>1</v>
@@ -2531,20 +2511,20 @@
     </row>
     <row r="44" customFormat="1" spans="1:12">
       <c r="A44" s="1" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B44" s="1">
         <v>9</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="D44" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="2" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="1" t="b">
@@ -2552,10 +2532,10 @@
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="3" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="K44" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="L44" s="2" t="b">
         <v>1</v>
@@ -2563,20 +2543,20 @@
     </row>
     <row r="45" customFormat="1" spans="1:12">
       <c r="A45" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B45" s="1">
         <v>9</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="D45" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="1" t="b">
@@ -2584,10 +2564,10 @@
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="K45" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="L45" s="2" t="b">
         <v>1</v>
@@ -2595,20 +2575,20 @@
     </row>
     <row r="46" customFormat="1" spans="1:12">
       <c r="A46" s="1" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B46" s="1">
         <v>9</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D46" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="2" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="1" t="b">
@@ -2616,10 +2596,10 @@
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="3" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="K46" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="L46" s="2" t="b">
         <v>1</v>
@@ -2627,20 +2607,20 @@
     </row>
     <row r="47" customFormat="1" spans="1:12">
       <c r="A47" s="1" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="B47" s="1">
         <v>9</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D47" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="1" t="b">
@@ -2648,10 +2628,10 @@
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="K47" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="L47" s="2" t="b">
         <v>1</v>
@@ -2659,20 +2639,20 @@
     </row>
     <row r="48" customFormat="1" spans="1:12">
       <c r="A48" s="1" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B48" s="1">
         <v>9</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="D48" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="2" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="1" t="b">
@@ -2680,31 +2660,31 @@
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="3" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="K48" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="L48" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="49" customFormat="1" ht="28" spans="1:12">
+    <row r="49" customFormat="1" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="B49" s="1">
         <v>9</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="D49" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="2" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="1" t="b">
@@ -2712,10 +2692,10 @@
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="3" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="K49" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="L49" s="2" t="b">
         <v>1</v>
@@ -2723,20 +2703,20 @@
     </row>
     <row r="50" customFormat="1" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="B50" s="1">
         <v>9</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="D50" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="2" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="1" t="b">
@@ -2744,10 +2724,10 @@
       </c>
       <c r="I50" s="1"/>
       <c r="J50" s="3" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="K50" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="L50" s="2" t="b">
         <v>1</v>
@@ -2755,20 +2735,20 @@
     </row>
     <row r="51" customFormat="1" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B51" s="1">
         <v>9</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="D51" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="2" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="1" t="b">
@@ -2776,31 +2756,31 @@
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="3" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="K51" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="L51" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="52" customFormat="1" spans="1:12">
+    <row r="52" customFormat="1" ht="28" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="B52" s="1">
         <v>9</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D52" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="2" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="1" t="b">
@@ -2808,10 +2788,10 @@
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="3" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="K52" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="L52" s="2" t="b">
         <v>1</v>
@@ -2819,20 +2799,20 @@
     </row>
     <row r="53" customFormat="1" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B53" s="1">
         <v>9</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D53" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="2" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="1" t="b">
@@ -2840,44 +2820,95 @@
       </c>
       <c r="I53" s="1"/>
       <c r="J53" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K53" t="s">
+        <v>172</v>
+      </c>
+      <c r="L53" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" customFormat="1" spans="1:12">
+      <c r="A54" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B54" s="1">
+        <v>9</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D54" s="1">
+        <v>4</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G54" s="2"/>
+      <c r="H54" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" s="1"/>
+      <c r="J54" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="K54" t="s">
+        <v>177</v>
+      </c>
+      <c r="L54" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" customFormat="1" spans="1:12">
+      <c r="A55" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B55" s="1">
+        <v>9</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D55" s="1">
+        <v>2</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G55" s="2"/>
+      <c r="H55" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" s="1"/>
+      <c r="J55" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="K55" t="s">
         <v>182</v>
       </c>
-      <c r="K53" t="s">
-        <v>183</v>
-      </c>
-      <c r="L53" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" customFormat="1" spans="1:12">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="3"/>
-      <c r="L54" s="2"/>
+      <c r="L55" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" customFormat="1" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B56" s="1">
         <v>9</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D56" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="1" t="b">
@@ -2885,138 +2916,235 @@
       </c>
       <c r="I56" s="1"/>
       <c r="J56" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="K56" t="s">
         <v>187</v>
       </c>
-      <c r="K56" t="s">
+      <c r="L56" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" customFormat="1" spans="1:12">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="3"/>
+      <c r="L57" s="2"/>
+    </row>
+    <row r="59" customFormat="1" spans="1:12">
+      <c r="A59" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="L56" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" customFormat="1" spans="1:12">
-      <c r="A57" s="1" t="s">
+      <c r="B59" s="1">
+        <v>9</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B57" s="1">
+      <c r="D59" s="1">
+        <v>1</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G59" s="2"/>
+      <c r="H59" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" s="1"/>
+      <c r="J59" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="K59" t="s">
+        <v>192</v>
+      </c>
+      <c r="L59" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" customFormat="1" spans="1:12">
+      <c r="A60" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B60" s="1">
         <v>9</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D57" s="1">
-        <v>1</v>
-      </c>
-      <c r="E57" s="1"/>
-      <c r="F57" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="G57" s="2"/>
-      <c r="H57" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" s="1"/>
-      <c r="J57" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="K57" t="s">
-        <v>193</v>
-      </c>
-      <c r="L57" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B59" s="1">
-        <v>99</v>
-      </c>
-      <c r="F59" s="2" t="s">
+      <c r="D60" s="1">
+        <v>1</v>
+      </c>
+      <c r="E60" s="1"/>
+      <c r="F60" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="H59" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J59" s="3" t="s">
+      <c r="G60" s="2"/>
+      <c r="H60" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" s="1"/>
+      <c r="J60" s="3" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="1" t="s">
+      <c r="K60" t="s">
         <v>197</v>
       </c>
-      <c r="B60" s="1">
-        <v>99</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="H60" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B61" s="1">
-        <v>99</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H61" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J61" s="3" t="s">
-        <v>202</v>
+      <c r="L60" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B62" s="1">
         <v>99</v>
       </c>
       <c r="F62" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H62" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B63" s="1">
+        <v>99</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H63" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="H62" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
-      <c r="A64" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="B64" s="1">
         <v>99</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="F64" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H64" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="B65" s="1">
+        <v>99</v>
+      </c>
+      <c r="F65" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="H64" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64" s="3" t="s">
+      <c r="H65" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J65" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="K64" t="s">
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="L64" t="b">
+      <c r="B67" s="1">
+        <v>99</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="H67" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="K67" t="s">
+        <v>214</v>
+      </c>
+      <c r="L67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B68" s="1">
+        <v>99</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H68" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="K68" t="s">
+        <v>219</v>
+      </c>
+      <c r="L68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B69" s="1">
+        <v>99</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H69" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="K69" t="s">
+        <v>224</v>
+      </c>
+      <c r="L69" t="b">
         <v>1</v>
       </c>
     </row>

--- a/DungeonShooting_Godot/excel/ActivityBase.xlsx
+++ b/DungeonShooting_Godot/excel/ActivityBase.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="229">
   <si>
     <t>Id</t>
   </si>
@@ -724,6 +724,18 @@
   </si>
   <si>
     <t>res://resource/sprite/ui/commonIcon/Gold_1.png</t>
+  </si>
+  <si>
+    <t>treasure_box0001</t>
+  </si>
+  <si>
+    <t>木质宝箱</t>
+  </si>
+  <si>
+    <t>res://prefab/box/TreasureBox0001.tscn</t>
+  </si>
+  <si>
+    <t>res://resource/sprite/box/TreasureBox0001.png</t>
   </si>
 </sst>
 </file>
@@ -1703,12 +1715,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L69"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F69" sqref="F69"/>
+      <selection pane="bottomLeft" activeCell="B71" sqref="A71:B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3145,6 +3157,32 @@
         <v>224</v>
       </c>
       <c r="L69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B71" s="1">
+        <v>99</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H71" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="K71" t="s">
+        <v>228</v>
+      </c>
+      <c r="L71" t="b">
         <v>1</v>
       </c>
     </row>

--- a/DungeonShooting_Godot/excel/ActivityBase.xlsx
+++ b/DungeonShooting_Godot/excel/ActivityBase.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="230">
   <si>
     <t>Id</t>
   </si>
@@ -79,6 +79,7 @@
 Shell(弹壳): 7
 Effect(特效): 8
 Prop(道具): 9
+Treasure(宝箱): 10
 Other(其它类型): 99</t>
   </si>
   <si>
@@ -288,6 +289,9 @@
     <t>weapon0010</t>
   </si>
   <si>
+    <t>M1型热能狙击枪</t>
+  </si>
+  <si>
     <t>res://prefab/weapon/Weapon0010.tscn</t>
   </si>
   <si>
@@ -645,6 +649,18 @@
     <t>res://resource/sprite/prop/active/ActiveProp5001.png</t>
   </si>
   <si>
+    <t>treasure_box0001</t>
+  </si>
+  <si>
+    <t>木质宝箱</t>
+  </si>
+  <si>
+    <t>res://prefab/box/TreasureBox0001.tscn</t>
+  </si>
+  <si>
+    <t>res://resource/sprite/box/TreasureBox0001.png</t>
+  </si>
+  <si>
     <t>other_door_e</t>
   </si>
   <si>
@@ -724,18 +740,6 @@
   </si>
   <si>
     <t>res://resource/sprite/ui/commonIcon/Gold_1.png</t>
-  </si>
-  <si>
-    <t>treasure_box0001</t>
-  </si>
-  <si>
-    <t>木质宝箱</t>
-  </si>
-  <si>
-    <t>res://prefab/box/TreasureBox0001.tscn</t>
-  </si>
-  <si>
-    <t>res://resource/sprite/box/TreasureBox0001.png</t>
   </si>
 </sst>
 </file>
@@ -1715,12 +1719,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:L73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B71" sqref="A71:B71"/>
+      <selection pane="bottomLeft" activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2189,7 +2193,7 @@
         <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D21" s="1">
         <v>5</v>
@@ -2198,10 +2202,10 @@
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L21" s="2" t="b">
         <v>1</v>
@@ -2209,13 +2213,13 @@
     </row>
     <row r="22" ht="24" customHeight="1" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B22" s="1">
         <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D22" s="1">
         <v>4</v>
@@ -2224,10 +2228,10 @@
         <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L22" s="2" t="b">
         <v>1</v>
@@ -2244,7 +2248,7 @@
     <row r="25" ht="39" customHeight="1"/>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B26" s="1">
         <v>6</v>
@@ -2253,15 +2257,15 @@
         <v>0</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B27" s="1">
         <v>6</v>
@@ -2270,15 +2274,15 @@
         <v>0</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B28" s="1">
         <v>6</v>
@@ -2292,21 +2296,21 @@
         <v>0</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B29" s="1">
         <v>6</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -2316,21 +2320,21 @@
         <v>0</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B30" s="1">
         <v>6</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -2340,21 +2344,21 @@
         <v>0</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B31" s="1">
         <v>6</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -2364,15 +2368,15 @@
         <v>0</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B33" s="1">
         <v>7</v>
@@ -2386,15 +2390,15 @@
         <v>0</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" customFormat="1" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B34" s="1">
         <v>7</v>
@@ -2408,15 +2412,15 @@
         <v>0</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B35" s="1">
         <v>7</v>
@@ -2425,15 +2429,15 @@
         <v>0</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" customFormat="1" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B36" s="1">
         <v>7</v>
@@ -2447,32 +2451,32 @@
         <v>0</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B40" s="1">
         <v>8</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H40" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" customFormat="1" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B41" s="1">
         <v>8</v>
@@ -2481,7 +2485,7 @@
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="1" t="b">
@@ -2489,33 +2493,33 @@
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B43" s="1">
         <v>9</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D43" s="1">
         <v>4</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H43" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K43" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L43" s="2" t="b">
         <v>1</v>
@@ -2523,20 +2527,20 @@
     </row>
     <row r="44" customFormat="1" spans="1:12">
       <c r="A44" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B44" s="1">
         <v>9</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D44" s="1">
         <v>3</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="1" t="b">
@@ -2544,10 +2548,10 @@
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K44" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L44" s="2" t="b">
         <v>1</v>
@@ -2555,20 +2559,20 @@
     </row>
     <row r="45" customFormat="1" spans="1:12">
       <c r="A45" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B45" s="1">
         <v>9</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D45" s="1">
         <v>3</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="1" t="b">
@@ -2576,10 +2580,10 @@
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K45" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L45" s="2" t="b">
         <v>1</v>
@@ -2587,20 +2591,20 @@
     </row>
     <row r="46" customFormat="1" spans="1:12">
       <c r="A46" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B46" s="1">
         <v>9</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D46" s="1">
         <v>4</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="1" t="b">
@@ -2608,10 +2612,10 @@
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K46" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L46" s="2" t="b">
         <v>1</v>
@@ -2619,20 +2623,20 @@
     </row>
     <row r="47" customFormat="1" spans="1:12">
       <c r="A47" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B47" s="1">
         <v>9</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D47" s="1">
         <v>4</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="1" t="b">
@@ -2640,10 +2644,10 @@
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K47" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L47" s="2" t="b">
         <v>1</v>
@@ -2651,20 +2655,20 @@
     </row>
     <row r="48" customFormat="1" spans="1:12">
       <c r="A48" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B48" s="1">
         <v>9</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="1">
         <v>4</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="1" t="b">
@@ -2672,10 +2676,10 @@
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K48" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L48" s="2" t="b">
         <v>1</v>
@@ -2683,20 +2687,20 @@
     </row>
     <row r="49" customFormat="1" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B49" s="1">
         <v>9</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="1">
         <v>3</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="1" t="b">
@@ -2704,10 +2708,10 @@
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K49" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L49" s="2" t="b">
         <v>1</v>
@@ -2715,20 +2719,20 @@
     </row>
     <row r="50" customFormat="1" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B50" s="1">
         <v>9</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D50" s="1">
         <v>3</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="1" t="b">
@@ -2736,10 +2740,10 @@
       </c>
       <c r="I50" s="1"/>
       <c r="J50" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K50" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L50" s="2" t="b">
         <v>1</v>
@@ -2747,20 +2751,20 @@
     </row>
     <row r="51" customFormat="1" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B51" s="1">
         <v>9</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D51" s="1">
         <v>3</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="1" t="b">
@@ -2768,10 +2772,10 @@
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K51" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L51" s="2" t="b">
         <v>1</v>
@@ -2779,20 +2783,20 @@
     </row>
     <row r="52" customFormat="1" ht="28" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B52" s="1">
         <v>9</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D52" s="1">
         <v>4</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="1" t="b">
@@ -2800,10 +2804,10 @@
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K52" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L52" s="2" t="b">
         <v>1</v>
@@ -2811,20 +2815,20 @@
     </row>
     <row r="53" customFormat="1" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B53" s="1">
         <v>9</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D53" s="1">
         <v>4</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="1" t="b">
@@ -2832,10 +2836,10 @@
       </c>
       <c r="I53" s="1"/>
       <c r="J53" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K53" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L53" s="2" t="b">
         <v>1</v>
@@ -2843,20 +2847,20 @@
     </row>
     <row r="54" customFormat="1" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B54" s="1">
         <v>9</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D54" s="1">
         <v>4</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="1" t="b">
@@ -2864,10 +2868,10 @@
       </c>
       <c r="I54" s="1"/>
       <c r="J54" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K54" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L54" s="2" t="b">
         <v>1</v>
@@ -2875,20 +2879,20 @@
     </row>
     <row r="55" customFormat="1" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B55" s="1">
         <v>9</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D55" s="1">
         <v>2</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="1" t="b">
@@ -2896,10 +2900,10 @@
       </c>
       <c r="I55" s="1"/>
       <c r="J55" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K55" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L55" s="2" t="b">
         <v>1</v>
@@ -2907,20 +2911,20 @@
     </row>
     <row r="56" customFormat="1" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B56" s="1">
         <v>9</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D56" s="1">
         <v>2</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="1" t="b">
@@ -2928,10 +2932,10 @@
       </c>
       <c r="I56" s="1"/>
       <c r="J56" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K56" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L56" s="2" t="b">
         <v>1</v>
@@ -2952,20 +2956,20 @@
     </row>
     <row r="59" customFormat="1" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B59" s="1">
         <v>9</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D59" s="1">
         <v>1</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="1" t="b">
@@ -2973,10 +2977,10 @@
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K59" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L59" s="2" t="b">
         <v>1</v>
@@ -2984,20 +2988,20 @@
     </row>
     <row r="60" customFormat="1" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B60" s="1">
         <v>9</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D60" s="1">
         <v>1</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="1" t="b">
@@ -3005,184 +3009,223 @@
       </c>
       <c r="I60" s="1"/>
       <c r="J60" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K60" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L60" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B62" s="1">
+    <row r="61" customFormat="1" spans="1:12">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="3"/>
+      <c r="L61" s="2"/>
+    </row>
+    <row r="62" customFormat="1" spans="1:12">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="3"/>
+      <c r="L62" s="2"/>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B63" s="1">
+        <v>10</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="H63" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="K63" t="s">
+        <v>202</v>
+      </c>
+      <c r="L63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" customFormat="1" spans="1:12">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="3"/>
+      <c r="L64" s="2"/>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B66" s="1">
         <v>99</v>
       </c>
-      <c r="F62" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="H62" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="A63" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B63" s="1">
-        <v>99</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="H63" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J63" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
-      <c r="A64" s="1" t="s">
+      <c r="F66" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B64" s="1">
-        <v>99</v>
-      </c>
-      <c r="F64" s="2" t="s">
+      <c r="H66" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J66" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="H64" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J64" s="3" t="s">
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="1" t="s">
         <v>206</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
-      <c r="A65" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B65" s="1">
-        <v>99</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="H65" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J65" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12">
-      <c r="A67" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="B67" s="1">
         <v>99</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="F67" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H67" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="K67" t="s">
-        <v>214</v>
-      </c>
-      <c r="L67" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B68" s="1">
         <v>99</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>216</v>
-      </c>
       <c r="F68" s="2" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H68" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="K68" t="s">
-        <v>219</v>
-      </c>
-      <c r="L68" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B69" s="1">
         <v>99</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="F69" s="2" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="H69" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="K69" t="s">
-        <v>224</v>
-      </c>
-      <c r="L69" t="b">
-        <v>1</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B71" s="1">
         <v>99</v>
       </c>
       <c r="C71" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H71" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="K71" t="s">
+        <v>219</v>
+      </c>
+      <c r="L71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B72" s="1">
+        <v>99</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H72" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="K72" t="s">
+        <v>224</v>
+      </c>
+      <c r="L72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B73" s="1">
+        <v>99</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="F71" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="H71" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J71" s="3" t="s">
+      <c r="F73" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="K71" t="s">
+      <c r="H73" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J73" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="L71" t="b">
+      <c r="K73" t="s">
+        <v>229</v>
+      </c>
+      <c r="L73" t="b">
         <v>1</v>
       </c>
     </row>

--- a/DungeonShooting_Godot/excel/ActivityBase.xlsx
+++ b/DungeonShooting_Godot/excel/ActivityBase.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="236">
   <si>
     <t>Id</t>
   </si>
@@ -310,6 +310,18 @@
     <t>res://resource/sprite/weapon/weapon0013/Weapon0013.png</t>
   </si>
   <si>
+    <t>weapon0014</t>
+  </si>
+  <si>
+    <t>左轮</t>
+  </si>
+  <si>
+    <t>res://prefab/weapon/Weapon0014.tscn</t>
+  </si>
+  <si>
+    <t>res://resource/sprite/weapon/weapon0014/Weapon0014.png</t>
+  </si>
+  <si>
     <t>bullet0001</t>
   </si>
   <si>
@@ -362,6 +374,12 @@
   </si>
   <si>
     <t>res://prefab/bullet/normal/Bullet0006.tscn</t>
+  </si>
+  <si>
+    <t>bullet0007</t>
+  </si>
+  <si>
+    <t>res://prefab/bullet/normal/Bullet0007.tscn</t>
   </si>
   <si>
     <t>shell0001</t>
@@ -1719,12 +1737,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L73"/>
+  <dimension ref="A1:L81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D64" sqref="D64"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2237,9 +2255,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" ht="24" customHeight="1" spans="10:12">
-      <c r="J23" s="1"/>
-      <c r="L23" s="2"/>
+    <row r="23" ht="24" customHeight="1" spans="1:12">
+      <c r="A23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="1">
+        <v>5</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="1">
+        <v>4</v>
+      </c>
+      <c r="H23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K23" t="s">
+        <v>89</v>
+      </c>
+      <c r="L23" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" ht="24" customHeight="1" spans="10:12">
       <c r="J24" s="1"/>
@@ -2248,7 +2288,7 @@
     <row r="25" ht="39" customHeight="1"/>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B26" s="1">
         <v>6</v>
@@ -2257,15 +2297,15 @@
         <v>0</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B27" s="1">
         <v>6</v>
@@ -2274,15 +2314,15 @@
         <v>0</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B28" s="1">
         <v>6</v>
@@ -2296,21 +2336,21 @@
         <v>0</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B29" s="1">
         <v>6</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -2320,21 +2360,21 @@
         <v>0</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B30" s="1">
         <v>6</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -2344,21 +2384,21 @@
         <v>0</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B31" s="1">
         <v>6</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -2368,275 +2408,206 @@
         <v>0</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" spans="1:10">
+      <c r="A32" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" s="1">
+        <v>6</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="1:10">
-      <c r="A33" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B33" s="1">
-        <v>7</v>
-      </c>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>106</v>
-      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="3"/>
     </row>
     <row r="34" customFormat="1" spans="1:10">
-      <c r="A34" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B34" s="1">
-        <v>7</v>
-      </c>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B35" s="1">
-        <v>7</v>
-      </c>
-      <c r="H35" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>110</v>
-      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" customFormat="1" spans="1:10">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="3"/>
     </row>
     <row r="36" customFormat="1" spans="1:10">
-      <c r="A36" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B36" s="1">
-        <v>7</v>
-      </c>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-      <c r="H36" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="J36" s="3" t="s">
+      <c r="H36" s="1"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" customFormat="1" spans="1:10">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="3"/>
+    </row>
+    <row r="39" customFormat="1" spans="1:10">
+      <c r="A39" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" s="1">
+        <v>7</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J39" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" customFormat="1" spans="1:10">
       <c r="A40" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B40" s="1">
+        <v>7</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B41" s="1">
+        <v>7</v>
+      </c>
+      <c r="H41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" spans="1:10">
+      <c r="A42" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" s="1">
+        <v>7</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B46" s="1">
         <v>8</v>
       </c>
-      <c r="F40" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H40" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="41" customFormat="1" spans="1:10">
-      <c r="A41" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B41" s="1">
+      <c r="F46" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H46" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" customFormat="1" spans="1:10">
+      <c r="A47" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B47" s="1">
         <v>8</v>
       </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" s="1"/>
-      <c r="J41" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B43" s="1">
-        <v>9</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D43" s="1">
-        <v>4</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="H43" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="K43" t="s">
-        <v>123</v>
-      </c>
-      <c r="L43" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" customFormat="1" spans="1:12">
-      <c r="A44" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B44" s="1">
-        <v>9</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D44" s="1">
-        <v>3</v>
-      </c>
-      <c r="E44" s="1"/>
-      <c r="F44" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G44" s="2"/>
-      <c r="H44" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" s="1"/>
-      <c r="J44" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K44" t="s">
-        <v>128</v>
-      </c>
-      <c r="L44" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" customFormat="1" spans="1:12">
-      <c r="A45" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B45" s="1">
-        <v>9</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D45" s="1">
-        <v>3</v>
-      </c>
-      <c r="E45" s="1"/>
-      <c r="F45" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G45" s="2"/>
-      <c r="H45" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" s="1"/>
-      <c r="J45" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="K45" t="s">
-        <v>133</v>
-      </c>
-      <c r="L45" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" customFormat="1" spans="1:12">
-      <c r="A46" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B46" s="1">
-        <v>9</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D46" s="1">
-        <v>4</v>
-      </c>
-      <c r="E46" s="1"/>
-      <c r="F46" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G46" s="2"/>
-      <c r="H46" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" s="1"/>
-      <c r="J46" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="K46" t="s">
-        <v>138</v>
-      </c>
-      <c r="L46" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" customFormat="1" spans="1:12">
-      <c r="A47" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B47" s="1">
-        <v>9</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D47" s="1">
-        <v>4</v>
-      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="2" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="1" t="b">
@@ -2644,74 +2615,33 @@
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K47" t="s">
-        <v>143</v>
-      </c>
-      <c r="L47" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" customFormat="1" spans="1:12">
-      <c r="A48" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B48" s="1">
-        <v>9</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D48" s="1">
-        <v>4</v>
-      </c>
-      <c r="E48" s="1"/>
-      <c r="F48" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G48" s="2"/>
-      <c r="H48" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" s="1"/>
-      <c r="J48" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="K48" t="s">
-        <v>148</v>
-      </c>
-      <c r="L48" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" customFormat="1" spans="1:12">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="B49" s="1">
         <v>9</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="D49" s="1">
-        <v>3</v>
-      </c>
-      <c r="E49" s="1"/>
+        <v>4</v>
+      </c>
       <c r="F49" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G49" s="2"/>
+        <v>127</v>
+      </c>
       <c r="H49" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I49" s="1"/>
       <c r="J49" s="3" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="K49" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="L49" s="2" t="b">
         <v>1</v>
@@ -2719,20 +2649,20 @@
     </row>
     <row r="50" customFormat="1" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="B50" s="1">
         <v>9</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="D50" s="1">
         <v>3</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="2" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="1" t="b">
@@ -2740,10 +2670,10 @@
       </c>
       <c r="I50" s="1"/>
       <c r="J50" s="3" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="K50" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="L50" s="2" t="b">
         <v>1</v>
@@ -2751,20 +2681,20 @@
     </row>
     <row r="51" customFormat="1" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="B51" s="1">
         <v>9</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="D51" s="1">
         <v>3</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="2" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="1" t="b">
@@ -2772,31 +2702,31 @@
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="3" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="K51" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="L51" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="52" customFormat="1" ht="28" spans="1:12">
+    <row r="52" customFormat="1" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="B52" s="1">
         <v>9</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="D52" s="1">
         <v>4</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="2" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="1" t="b">
@@ -2804,10 +2734,10 @@
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="3" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="K52" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="L52" s="2" t="b">
         <v>1</v>
@@ -2815,20 +2745,20 @@
     </row>
     <row r="53" customFormat="1" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="B53" s="1">
         <v>9</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="D53" s="1">
         <v>4</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="2" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="1" t="b">
@@ -2836,10 +2766,10 @@
       </c>
       <c r="I53" s="1"/>
       <c r="J53" s="3" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="K53" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="L53" s="2" t="b">
         <v>1</v>
@@ -2847,20 +2777,20 @@
     </row>
     <row r="54" customFormat="1" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="B54" s="1">
         <v>9</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="D54" s="1">
         <v>4</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="2" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="1" t="b">
@@ -2868,10 +2798,10 @@
       </c>
       <c r="I54" s="1"/>
       <c r="J54" s="3" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="K54" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="L54" s="2" t="b">
         <v>1</v>
@@ -2879,20 +2809,20 @@
     </row>
     <row r="55" customFormat="1" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="B55" s="1">
         <v>9</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="D55" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="2" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="1" t="b">
@@ -2900,10 +2830,10 @@
       </c>
       <c r="I55" s="1"/>
       <c r="J55" s="3" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="K55" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="L55" s="2" t="b">
         <v>1</v>
@@ -2911,20 +2841,20 @@
     </row>
     <row r="56" customFormat="1" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="B56" s="1">
         <v>9</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="D56" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="2" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="1" t="b">
@@ -2932,44 +2862,95 @@
       </c>
       <c r="I56" s="1"/>
       <c r="J56" s="3" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="K56" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="L56" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="57" customFormat="1" spans="1:12">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
+      <c r="A57" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B57" s="1">
+        <v>9</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D57" s="1">
+        <v>3</v>
+      </c>
       <c r="E57" s="1"/>
-      <c r="F57" s="2"/>
+      <c r="F57" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="G57" s="2"/>
-      <c r="H57" s="1"/>
+      <c r="H57" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="I57" s="1"/>
-      <c r="J57" s="3"/>
-      <c r="L57" s="2"/>
+      <c r="J57" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="K57" t="s">
+        <v>169</v>
+      </c>
+      <c r="L57" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" customFormat="1" ht="28" spans="1:12">
+      <c r="A58" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B58" s="1">
+        <v>9</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D58" s="1">
+        <v>4</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G58" s="2"/>
+      <c r="H58" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" s="1"/>
+      <c r="J58" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="K58" t="s">
+        <v>174</v>
+      </c>
+      <c r="L58" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="59" customFormat="1" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="B59" s="1">
         <v>9</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="D59" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="2" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="1" t="b">
@@ -2977,10 +2958,10 @@
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="3" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="K59" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="L59" s="2" t="b">
         <v>1</v>
@@ -2988,20 +2969,20 @@
     </row>
     <row r="60" customFormat="1" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B60" s="1">
         <v>9</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="D60" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="2" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="1" t="b">
@@ -3009,66 +2990,91 @@
       </c>
       <c r="I60" s="1"/>
       <c r="J60" s="3" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="K60" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="L60" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="61" customFormat="1" spans="1:12">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
+      <c r="A61" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B61" s="1">
+        <v>9</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D61" s="1">
+        <v>2</v>
+      </c>
       <c r="E61" s="1"/>
-      <c r="F61" s="2"/>
+      <c r="F61" s="2" t="s">
+        <v>187</v>
+      </c>
       <c r="G61" s="2"/>
-      <c r="H61" s="1"/>
+      <c r="H61" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="I61" s="1"/>
-      <c r="J61" s="3"/>
-      <c r="L61" s="2"/>
+      <c r="J61" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="K61" t="s">
+        <v>189</v>
+      </c>
+      <c r="L61" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" customFormat="1" spans="1:12">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
+      <c r="A62" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B62" s="1">
+        <v>9</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D62" s="1">
+        <v>2</v>
+      </c>
       <c r="E62" s="1"/>
-      <c r="F62" s="2"/>
+      <c r="F62" s="2" t="s">
+        <v>192</v>
+      </c>
       <c r="G62" s="2"/>
-      <c r="H62" s="1"/>
+      <c r="H62" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="I62" s="1"/>
-      <c r="J62" s="3"/>
-      <c r="L62" s="2"/>
-    </row>
-    <row r="63" spans="1:12">
-      <c r="A63" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B63" s="1">
-        <v>10</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="H63" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J63" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="K63" t="s">
-        <v>202</v>
-      </c>
-      <c r="L63" t="b">
-        <v>1</v>
-      </c>
+      <c r="J62" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="K62" t="s">
+        <v>194</v>
+      </c>
+      <c r="L62" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" customFormat="1" spans="1:12">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="3"/>
+      <c r="L63" s="2"/>
     </row>
     <row r="64" customFormat="1" spans="1:12">
       <c r="A64" s="1"/>
@@ -3083,149 +3089,291 @@
       <c r="J64" s="3"/>
       <c r="L64" s="2"/>
     </row>
-    <row r="66" spans="1:10">
-      <c r="A66" s="1" t="s">
+    <row r="65" customFormat="1" spans="1:12">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="3"/>
+      <c r="L65" s="2"/>
+    </row>
+    <row r="67" customFormat="1" spans="1:12">
+      <c r="A67" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B67" s="1">
+        <v>9</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D67" s="1">
+        <v>1</v>
+      </c>
+      <c r="E67" s="1"/>
+      <c r="F67" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G67" s="2"/>
+      <c r="H67" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" s="1"/>
+      <c r="J67" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="K67" t="s">
+        <v>199</v>
+      </c>
+      <c r="L67" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" customFormat="1" spans="1:12">
+      <c r="A68" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B68" s="1">
+        <v>9</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D68" s="1">
+        <v>1</v>
+      </c>
+      <c r="E68" s="1"/>
+      <c r="F68" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G68" s="2"/>
+      <c r="H68" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" s="1"/>
+      <c r="J68" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B66" s="1">
-        <v>99</v>
-      </c>
-      <c r="F66" s="2" t="s">
+      <c r="K68" t="s">
         <v>204</v>
       </c>
-      <c r="H66" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10">
-      <c r="A67" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B67" s="1">
-        <v>99</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="H67" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J67" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
-      <c r="A68" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B68" s="1">
-        <v>99</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="H68" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J68" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
-      <c r="A69" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B69" s="1">
-        <v>99</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="H69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J69" s="3" t="s">
-        <v>214</v>
-      </c>
+      <c r="L68" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" customFormat="1" spans="1:12">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="3"/>
+      <c r="L69" s="2"/>
+    </row>
+    <row r="70" customFormat="1" spans="1:12">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="3"/>
+      <c r="L70" s="2"/>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B71" s="1">
+        <v>10</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H71" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="K71" t="s">
+        <v>208</v>
+      </c>
+      <c r="L71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" customFormat="1" spans="1:12">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="3"/>
+      <c r="L72" s="2"/>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B74" s="1">
+        <v>99</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H74" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B75" s="1">
+        <v>99</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="H75" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B76" s="1">
         <v>99</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="F76" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="H76" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J76" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="H71" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J71" s="3" t="s">
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="K71" t="s">
+      <c r="B77" s="1">
+        <v>99</v>
+      </c>
+      <c r="F77" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="L71" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12">
-      <c r="A72" s="1" t="s">
+      <c r="H77" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J77" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B72" s="1">
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B79" s="1">
         <v>99</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="F72" s="2" t="s">
+      <c r="C79" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H72" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J72" s="3" t="s">
+      <c r="F79" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="K72" t="s">
+      <c r="H79" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="L72" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12">
-      <c r="A73" s="1" t="s">
+      <c r="K79" t="s">
         <v>225</v>
       </c>
-      <c r="B73" s="1">
+      <c r="L79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B80" s="1">
         <v>99</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="F73" s="2" t="s">
+      <c r="C80" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="H73" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J73" s="3" t="s">
+      <c r="F80" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="K73" t="s">
+      <c r="H80" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="L73" t="b">
+      <c r="K80" t="s">
+        <v>230</v>
+      </c>
+      <c r="L80" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B81" s="1">
+        <v>99</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="H81" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="K81" t="s">
+        <v>235</v>
+      </c>
+      <c r="L81" t="b">
         <v>1</v>
       </c>
     </row>

--- a/DungeonShooting_Godot/excel/ActivityBase.xlsx
+++ b/DungeonShooting_Godot/excel/ActivityBase.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="241">
   <si>
     <t>Id</t>
   </si>
@@ -298,6 +298,15 @@
     <t>res://resource/sprite/weapon/weapon0010/Weapon0010.png</t>
   </si>
   <si>
+    <t>weapon0011</t>
+  </si>
+  <si>
+    <t>res://prefab/weapon/Weapon0011.tscn</t>
+  </si>
+  <si>
+    <t>res://resource/sprite/weapon/weapon0011/Weapon0011.png</t>
+  </si>
+  <si>
     <t>weapon0013</t>
   </si>
   <si>
@@ -380,6 +389,12 @@
   </si>
   <si>
     <t>res://prefab/bullet/normal/Bullet0007.tscn</t>
+  </si>
+  <si>
+    <t>bullet0008</t>
+  </si>
+  <si>
+    <t>res://prefab/bullet/normal/Bullet0008.tscn</t>
   </si>
   <si>
     <t>shell0001</t>
@@ -1737,12 +1752,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L81"/>
+  <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
+      <selection pane="bottomLeft" activeCell="H34" sqref="H34:J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2237,19 +2252,19 @@
         <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="1">
+        <v>5</v>
+      </c>
+      <c r="H22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="1">
-        <v>4</v>
-      </c>
-      <c r="H22" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" s="1" t="s">
+      <c r="K22" t="s">
         <v>84</v>
-      </c>
-      <c r="K22" t="s">
-        <v>85</v>
       </c>
       <c r="L22" s="2" t="b">
         <v>1</v>
@@ -2257,13 +2272,13 @@
     </row>
     <row r="23" ht="24" customHeight="1" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B23" s="1">
         <v>5</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D23" s="1">
         <v>4</v>
@@ -2272,37 +2287,46 @@
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K23" t="s">
         <v>88</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" ht="24" customHeight="1" spans="1:12">
+      <c r="A24" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="L23" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" ht="24" customHeight="1" spans="10:12">
-      <c r="J24" s="1"/>
-      <c r="L24" s="2"/>
-    </row>
-    <row r="25" ht="39" customHeight="1"/>
-    <row r="26" spans="1:10">
-      <c r="A26" s="1" t="s">
+      <c r="B24" s="1">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B26" s="1">
-        <v>6</v>
-      </c>
-      <c r="H26" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" s="4" t="s">
+      <c r="D24" s="1">
+        <v>4</v>
+      </c>
+      <c r="H24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="K24" t="s">
         <v>92</v>
       </c>
-    </row>
+      <c r="L24" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" ht="24" customHeight="1" spans="10:12">
+      <c r="J25" s="1"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" ht="39" customHeight="1"/>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
         <v>93</v>
@@ -2314,44 +2338,37 @@
         <v>0</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" customFormat="1" spans="1:10">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B28" s="1">
         <v>6</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
       <c r="H28" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B29" s="1">
         <v>6</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="2"/>
@@ -2360,21 +2377,21 @@
         <v>0</v>
       </c>
       <c r="I29" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J29" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B30" s="1">
         <v>6</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -2384,21 +2401,21 @@
         <v>0</v>
       </c>
       <c r="I30" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J30" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B31" s="1">
         <v>6</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -2408,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>107</v>
@@ -2421,7 +2438,9 @@
       <c r="B32" s="1">
         <v>6</v>
       </c>
-      <c r="C32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="2"/>
@@ -2430,35 +2449,55 @@
         <v>0</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="1:10">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
+      <c r="A33" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33" s="1">
+        <v>6</v>
+      </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="3"/>
+      <c r="H33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="34" customFormat="1" spans="1:10">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
+      <c r="A34" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34" s="1">
+        <v>6</v>
+      </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="3"/>
+      <c r="H34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="35" customFormat="1" spans="1:10">
       <c r="A35" s="1"/>
@@ -2496,31 +2535,21 @@
       <c r="I37" s="4"/>
       <c r="J37" s="3"/>
     </row>
-    <row r="39" customFormat="1" spans="1:10">
-      <c r="A39" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B39" s="1">
-        <v>7</v>
-      </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>112</v>
-      </c>
+    <row r="38" customFormat="1" spans="1:10">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="3"/>
     </row>
     <row r="40" customFormat="1" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B40" s="1">
         <v>7</v>
@@ -2534,120 +2563,113 @@
         <v>0</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B41" s="1">
         <v>7</v>
       </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
       <c r="H41" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="42" customFormat="1" spans="1:10">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B42" s="1">
         <v>7</v>
       </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
       <c r="H42" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B46" s="1">
-        <v>8</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H46" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="47" customFormat="1" spans="1:10">
+    <row r="43" customFormat="1" spans="1:10">
+      <c r="A43" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43" s="1">
+        <v>7</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B47" s="1">
         <v>8</v>
       </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
       <c r="F47" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G47" s="2"/>
+        <v>125</v>
+      </c>
       <c r="H47" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I47" s="1"/>
       <c r="J47" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
-      <c r="A49" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B49" s="1">
-        <v>9</v>
-      </c>
-      <c r="C49" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D49" s="1">
-        <v>4</v>
-      </c>
-      <c r="F49" s="2" t="s">
+    </row>
+    <row r="48" customFormat="1" spans="1:10">
+      <c r="A48" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H49" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3" t="s">
+      <c r="B48" s="1">
+        <v>8</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="K49" t="s">
+      <c r="G48" s="2"/>
+      <c r="H48" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1"/>
+      <c r="J48" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="L49" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" customFormat="1" spans="1:12">
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
         <v>130</v>
       </c>
@@ -2658,17 +2680,14 @@
         <v>131</v>
       </c>
       <c r="D50" s="1">
-        <v>3</v>
-      </c>
-      <c r="E50" s="1"/>
+        <v>4</v>
+      </c>
       <c r="F50" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G50" s="2"/>
       <c r="H50" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I50" s="1"/>
       <c r="J50" s="3" t="s">
         <v>133</v>
       </c>
@@ -2722,7 +2741,7 @@
         <v>141</v>
       </c>
       <c r="D52" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="2" t="s">
@@ -2818,7 +2837,7 @@
         <v>156</v>
       </c>
       <c r="D55" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="2" t="s">
@@ -2903,7 +2922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" customFormat="1" ht="28" spans="1:12">
+    <row r="58" customFormat="1" spans="1:12">
       <c r="A58" s="1" t="s">
         <v>170</v>
       </c>
@@ -2914,7 +2933,7 @@
         <v>171</v>
       </c>
       <c r="D58" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="2" t="s">
@@ -2935,7 +2954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" customFormat="1" spans="1:12">
+    <row r="59" customFormat="1" ht="28" spans="1:12">
       <c r="A59" s="1" t="s">
         <v>175</v>
       </c>
@@ -3010,7 +3029,7 @@
         <v>186</v>
       </c>
       <c r="D61" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="2" t="s">
@@ -3064,17 +3083,36 @@
       </c>
     </row>
     <row r="63" customFormat="1" spans="1:12">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
+      <c r="A63" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B63" s="1">
+        <v>9</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D63" s="1">
+        <v>2</v>
+      </c>
       <c r="E63" s="1"/>
-      <c r="F63" s="2"/>
+      <c r="F63" s="2" t="s">
+        <v>197</v>
+      </c>
       <c r="G63" s="2"/>
-      <c r="H63" s="1"/>
+      <c r="H63" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="I63" s="1"/>
-      <c r="J63" s="3"/>
-      <c r="L63" s="2"/>
+      <c r="J63" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="K63" t="s">
+        <v>199</v>
+      </c>
+      <c r="L63" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="64" customFormat="1" spans="1:12">
       <c r="A64" s="1"/>
@@ -3102,37 +3140,18 @@
       <c r="J65" s="3"/>
       <c r="L65" s="2"/>
     </row>
-    <row r="67" customFormat="1" spans="1:12">
-      <c r="A67" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B67" s="1">
-        <v>9</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D67" s="1">
-        <v>1</v>
-      </c>
-      <c r="E67" s="1"/>
-      <c r="F67" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="G67" s="2"/>
-      <c r="H67" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" s="1"/>
-      <c r="J67" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="K67" t="s">
-        <v>199</v>
-      </c>
-      <c r="L67" s="2" t="b">
-        <v>1</v>
-      </c>
+    <row r="66" customFormat="1" spans="1:12">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="3"/>
+      <c r="L66" s="2"/>
     </row>
     <row r="68" customFormat="1" spans="1:12">
       <c r="A68" s="1" t="s">
@@ -3167,17 +3186,36 @@
       </c>
     </row>
     <row r="69" customFormat="1" spans="1:12">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
+      <c r="A69" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B69" s="1">
+        <v>9</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D69" s="1">
+        <v>1</v>
+      </c>
       <c r="E69" s="1"/>
-      <c r="F69" s="2"/>
+      <c r="F69" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="G69" s="2"/>
-      <c r="H69" s="1"/>
+      <c r="H69" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="I69" s="1"/>
-      <c r="J69" s="3"/>
-      <c r="L69" s="2"/>
+      <c r="J69" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="K69" t="s">
+        <v>209</v>
+      </c>
+      <c r="L69" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="70" customFormat="1" spans="1:12">
       <c r="A70" s="1"/>
@@ -3192,137 +3230,124 @@
       <c r="J70" s="3"/>
       <c r="L70" s="2"/>
     </row>
-    <row r="71" spans="1:12">
-      <c r="A71" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B71" s="1">
+    <row r="71" customFormat="1" spans="1:12">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="3"/>
+      <c r="L71" s="2"/>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B72" s="1">
         <v>10</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="H71" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J71" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="K71" t="s">
-        <v>208</v>
-      </c>
-      <c r="L71" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" customFormat="1" spans="1:12">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="3"/>
-      <c r="L72" s="2"/>
-    </row>
-    <row r="74" spans="1:10">
-      <c r="A74" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B74" s="1">
-        <v>99</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="H74" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J74" s="3" t="s">
+      <c r="C72" s="1" t="s">
         <v>211</v>
       </c>
+      <c r="F72" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="H72" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="K72" t="s">
+        <v>213</v>
+      </c>
+      <c r="L72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" customFormat="1" spans="1:12">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="3"/>
+      <c r="L73" s="2"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B75" s="1">
         <v>99</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H75" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B76" s="1">
         <v>99</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H76" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B77" s="1">
         <v>99</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H77" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12">
-      <c r="A79" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B79" s="1">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B78" s="1">
         <v>99</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H79" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J79" s="3" t="s">
+      <c r="F78" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="K79" t="s">
+      <c r="H78" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J78" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="L79" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -3374,6 +3399,32 @@
         <v>235</v>
       </c>
       <c r="L81" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B82" s="1">
+        <v>99</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="H82" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="K82" t="s">
+        <v>240</v>
+      </c>
+      <c r="L82" t="b">
         <v>1</v>
       </c>
     </row>

--- a/DungeonShooting_Godot/excel/ActivityBase.xlsx
+++ b/DungeonShooting_Godot/excel/ActivityBase.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="248">
   <si>
     <t>Id</t>
   </si>
@@ -331,6 +331,18 @@
     <t>res://resource/sprite/weapon/weapon0014/Weapon0014.png</t>
   </si>
   <si>
+    <t>weapon0016</t>
+  </si>
+  <si>
+    <t>木质短弓</t>
+  </si>
+  <si>
+    <t>res://prefab/weapon/Weapon0016.tscn</t>
+  </si>
+  <si>
+    <t>res://resource/sprite/weapon/weapon0016/weapon0016.png</t>
+  </si>
+  <si>
     <t>bullet0001</t>
   </si>
   <si>
@@ -395,6 +407,15 @@
   </si>
   <si>
     <t>res://prefab/bullet/normal/Bullet0008.tscn</t>
+  </si>
+  <si>
+    <t>bullet0009</t>
+  </si>
+  <si>
+    <t>弓箭</t>
+  </si>
+  <si>
+    <t>res://prefab/bullet/normal/Bullet0009.tscn</t>
   </si>
   <si>
     <t>shell0001</t>
@@ -1754,10 +1775,10 @@
   <sheetPr/>
   <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H34" sqref="H34:J34"/>
+      <selection pane="bottomLeft" activeCell="H35" sqref="H34:J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2307,7 +2328,7 @@
         <v>90</v>
       </c>
       <c r="D24" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H24" s="1" t="b">
         <v>0</v>
@@ -2322,14 +2343,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" ht="24" customHeight="1" spans="10:12">
-      <c r="J25" s="1"/>
-      <c r="L25" s="2"/>
+    <row r="25" ht="24" customHeight="1" spans="1:12">
+      <c r="A25" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="1">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2</v>
+      </c>
+      <c r="H25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K25" t="s">
+        <v>96</v>
+      </c>
+      <c r="L25" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" ht="39" customHeight="1"/>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B27" s="1">
         <v>6</v>
@@ -2338,15 +2381,15 @@
         <v>0</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B28" s="1">
         <v>6</v>
@@ -2355,15 +2398,15 @@
         <v>0</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B29" s="1">
         <v>6</v>
@@ -2377,21 +2420,21 @@
         <v>0</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B30" s="1">
         <v>6</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -2401,21 +2444,21 @@
         <v>0</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B31" s="1">
         <v>6</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -2425,21 +2468,21 @@
         <v>0</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B32" s="1">
         <v>6</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -2449,15 +2492,15 @@
         <v>0</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B33" s="1">
         <v>6</v>
@@ -2471,15 +2514,15 @@
         <v>0</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" customFormat="1" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B34" s="1">
         <v>6</v>
@@ -2493,23 +2536,35 @@
         <v>0</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" customFormat="1" spans="1:10">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
+      <c r="A35" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B35" s="1">
+        <v>6</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="3"/>
+      <c r="H35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="36" customFormat="1" spans="1:10">
       <c r="A36" s="1"/>
@@ -2549,7 +2604,7 @@
     </row>
     <row r="40" customFormat="1" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B40" s="1">
         <v>7</v>
@@ -2563,15 +2618,15 @@
         <v>0</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" customFormat="1" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B41" s="1">
         <v>7</v>
@@ -2585,15 +2640,15 @@
         <v>0</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B42" s="1">
         <v>7</v>
@@ -2602,15 +2657,15 @@
         <v>0</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" customFormat="1" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B43" s="1">
         <v>7</v>
@@ -2624,32 +2679,32 @@
         <v>0</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B47" s="1">
         <v>8</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="H47" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" customFormat="1" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B48" s="1">
         <v>8</v>
@@ -2658,7 +2713,7 @@
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="1" t="b">
@@ -2666,33 +2721,33 @@
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="3" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B50" s="1">
         <v>9</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D50" s="1">
         <v>4</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="H50" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="K50" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="L50" s="2" t="b">
         <v>1</v>
@@ -2700,20 +2755,20 @@
     </row>
     <row r="51" customFormat="1" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B51" s="1">
         <v>9</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D51" s="1">
         <v>3</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="1" t="b">
@@ -2721,10 +2776,10 @@
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="3" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="K51" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="L51" s="2" t="b">
         <v>1</v>
@@ -2732,20 +2787,20 @@
     </row>
     <row r="52" customFormat="1" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B52" s="1">
         <v>9</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D52" s="1">
         <v>3</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="1" t="b">
@@ -2753,10 +2808,10 @@
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="3" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="K52" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="L52" s="2" t="b">
         <v>1</v>
@@ -2764,20 +2819,20 @@
     </row>
     <row r="53" customFormat="1" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B53" s="1">
         <v>9</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D53" s="1">
         <v>4</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="1" t="b">
@@ -2785,10 +2840,10 @@
       </c>
       <c r="I53" s="1"/>
       <c r="J53" s="3" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="K53" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="L53" s="2" t="b">
         <v>1</v>
@@ -2796,20 +2851,20 @@
     </row>
     <row r="54" customFormat="1" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B54" s="1">
         <v>9</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D54" s="1">
         <v>4</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="1" t="b">
@@ -2817,10 +2872,10 @@
       </c>
       <c r="I54" s="1"/>
       <c r="J54" s="3" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="K54" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="L54" s="2" t="b">
         <v>1</v>
@@ -2828,20 +2883,20 @@
     </row>
     <row r="55" customFormat="1" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B55" s="1">
         <v>9</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="D55" s="1">
         <v>4</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="2" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="1" t="b">
@@ -2849,10 +2904,10 @@
       </c>
       <c r="I55" s="1"/>
       <c r="J55" s="3" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="K55" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="L55" s="2" t="b">
         <v>1</v>
@@ -2860,20 +2915,20 @@
     </row>
     <row r="56" customFormat="1" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="B56" s="1">
         <v>9</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D56" s="1">
         <v>3</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="1" t="b">
@@ -2881,10 +2936,10 @@
       </c>
       <c r="I56" s="1"/>
       <c r="J56" s="3" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="K56" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="L56" s="2" t="b">
         <v>1</v>
@@ -2892,20 +2947,20 @@
     </row>
     <row r="57" customFormat="1" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B57" s="1">
         <v>9</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="D57" s="1">
         <v>3</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="2" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="1" t="b">
@@ -2913,10 +2968,10 @@
       </c>
       <c r="I57" s="1"/>
       <c r="J57" s="3" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="K57" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="L57" s="2" t="b">
         <v>1</v>
@@ -2924,20 +2979,20 @@
     </row>
     <row r="58" customFormat="1" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="B58" s="1">
         <v>9</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D58" s="1">
         <v>3</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="1" t="b">
@@ -2945,10 +3000,10 @@
       </c>
       <c r="I58" s="1"/>
       <c r="J58" s="3" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="K58" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="L58" s="2" t="b">
         <v>1</v>
@@ -2956,20 +3011,20 @@
     </row>
     <row r="59" customFormat="1" ht="28" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="B59" s="1">
         <v>9</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D59" s="1">
         <v>4</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="1" t="b">
@@ -2977,10 +3032,10 @@
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="3" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="K59" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L59" s="2" t="b">
         <v>1</v>
@@ -2988,20 +3043,20 @@
     </row>
     <row r="60" customFormat="1" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="B60" s="1">
         <v>9</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="D60" s="1">
         <v>4</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="2" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="1" t="b">
@@ -3009,10 +3064,10 @@
       </c>
       <c r="I60" s="1"/>
       <c r="J60" s="3" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="K60" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="L60" s="2" t="b">
         <v>1</v>
@@ -3020,20 +3075,20 @@
     </row>
     <row r="61" customFormat="1" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="B61" s="1">
         <v>9</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="D61" s="1">
         <v>4</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="2" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="1" t="b">
@@ -3041,10 +3096,10 @@
       </c>
       <c r="I61" s="1"/>
       <c r="J61" s="3" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="K61" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="L61" s="2" t="b">
         <v>1</v>
@@ -3052,20 +3107,20 @@
     </row>
     <row r="62" customFormat="1" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="B62" s="1">
         <v>9</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="D62" s="1">
         <v>2</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="2" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="1" t="b">
@@ -3073,10 +3128,10 @@
       </c>
       <c r="I62" s="1"/>
       <c r="J62" s="3" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="K62" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="L62" s="2" t="b">
         <v>1</v>
@@ -3084,20 +3139,20 @@
     </row>
     <row r="63" customFormat="1" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="B63" s="1">
         <v>9</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="D63" s="1">
         <v>2</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="1" t="b">
@@ -3105,10 +3160,10 @@
       </c>
       <c r="I63" s="1"/>
       <c r="J63" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="K63" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="L63" s="2" t="b">
         <v>1</v>
@@ -3155,20 +3210,20 @@
     </row>
     <row r="68" customFormat="1" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="B68" s="1">
         <v>9</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D68" s="1">
         <v>1</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="2" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="G68" s="2"/>
       <c r="H68" s="1" t="b">
@@ -3176,10 +3231,10 @@
       </c>
       <c r="I68" s="1"/>
       <c r="J68" s="3" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="K68" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="L68" s="2" t="b">
         <v>1</v>
@@ -3187,20 +3242,20 @@
     </row>
     <row r="69" customFormat="1" spans="1:12">
       <c r="A69" s="1" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="B69" s="1">
         <v>9</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="D69" s="1">
         <v>1</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="2" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="1" t="b">
@@ -3208,10 +3263,10 @@
       </c>
       <c r="I69" s="1"/>
       <c r="J69" s="3" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="K69" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="L69" s="2" t="b">
         <v>1</v>
@@ -3245,25 +3300,25 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B72" s="1">
         <v>10</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="H72" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="K72" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="L72" t="b">
         <v>1</v>
@@ -3284,93 +3339,93 @@
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="B75" s="1">
         <v>99</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="H75" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="B76" s="1">
         <v>99</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="H76" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="B77" s="1">
         <v>99</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="H77" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="B78" s="1">
         <v>99</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="H78" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="1" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="B80" s="1">
         <v>99</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="H80" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="K80" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="L80" t="b">
         <v>1</v>
@@ -3378,25 +3433,25 @@
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="1" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="B81" s="1">
         <v>99</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="H81" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="K81" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="L81" t="b">
         <v>1</v>
@@ -3404,25 +3459,25 @@
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="1" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="B82" s="1">
         <v>99</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="H82" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="K82" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="L82" t="b">
         <v>1</v>

--- a/DungeonShooting_Godot/excel/ActivityBase.xlsx
+++ b/DungeonShooting_Godot/excel/ActivityBase.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="248">
   <si>
     <t>Id</t>
   </si>
@@ -1778,7 +1778,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H35" sqref="H34:J35"/>
+      <selection pane="bottomLeft" activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2559,9 +2559,7 @@
       <c r="H35" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I35" s="4" t="s">
-        <v>98</v>
-      </c>
+      <c r="I35" s="4"/>
       <c r="J35" s="3" t="s">
         <v>121</v>
       </c>

--- a/DungeonShooting_Godot/excel/ActivityBase.xlsx
+++ b/DungeonShooting_Godot/excel/ActivityBase.xlsx
@@ -4,32 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12200"/>
+    <workbookView windowWidth="29400" windowHeight="14040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="256">
   <si>
     <t>Id</t>
   </si>
@@ -794,6 +781,30 @@
   </si>
   <si>
     <t>res://resource/sprite/ui/commonIcon/Gold_1.png</t>
+  </si>
+  <si>
+    <t>item_0012</t>
+  </si>
+  <si>
+    <t>大厅沙发</t>
+  </si>
+  <si>
+    <t>res://prefab/item/Item0012.tscn</t>
+  </si>
+  <si>
+    <t>item_0013</t>
+  </si>
+  <si>
+    <t>res://prefab/item/Item0013.tscn</t>
+  </si>
+  <si>
+    <t>item_0017</t>
+  </si>
+  <si>
+    <t>大厅桌子</t>
+  </si>
+  <si>
+    <t>res://prefab/item/Item0017.tscn</t>
   </si>
 </sst>
 </file>
@@ -1773,25 +1784,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L82"/>
+  <dimension ref="A1:L90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I35" sqref="I35"/>
+      <selection pane="bottomLeft" activeCell="J90" sqref="J90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="27.5545454545455" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.8909090909091" style="1" customWidth="1"/>
-    <col min="4" max="5" width="27.3727272727273" style="1" customWidth="1"/>
-    <col min="6" max="7" width="35.5545454545455" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18.8181818181818" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.1272727272727" style="1" customWidth="1"/>
-    <col min="10" max="10" width="63.3636363636364" style="3" customWidth="1"/>
-    <col min="11" max="11" width="61.9090909090909" customWidth="1"/>
+    <col min="1" max="1" width="27.5576923076923" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5961538461538" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.8942307692308" style="1" customWidth="1"/>
+    <col min="4" max="5" width="27.375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="35.5576923076923" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.8173076923077" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="63.3653846153846" style="3" customWidth="1"/>
+    <col min="11" max="11" width="61.9134615384615" customWidth="1"/>
     <col min="12" max="12" width="27" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2370,7 +2381,7 @@
       </c>
     </row>
     <row r="26" ht="39" customHeight="1"/>
-    <row r="27" spans="1:10">
+    <row r="27" ht="17" spans="1:10">
       <c r="A27" s="1" t="s">
         <v>97</v>
       </c>
@@ -2387,7 +2398,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" ht="17" spans="1:10">
       <c r="A28" s="1" t="s">
         <v>100</v>
       </c>
@@ -2404,7 +2415,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="29" customFormat="1" spans="1:10">
+    <row r="29" customFormat="1" ht="17" spans="1:10">
       <c r="A29" s="1" t="s">
         <v>102</v>
       </c>
@@ -2426,7 +2437,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" customFormat="1" spans="1:10">
+    <row r="30" customFormat="1" ht="17" spans="1:10">
       <c r="A30" s="1" t="s">
         <v>104</v>
       </c>
@@ -2450,7 +2461,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="31" customFormat="1" spans="1:10">
+    <row r="31" customFormat="1" ht="17" spans="1:10">
       <c r="A31" s="1" t="s">
         <v>108</v>
       </c>
@@ -2474,7 +2485,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="32" customFormat="1" spans="1:10">
+    <row r="32" customFormat="1" ht="17" spans="1:10">
       <c r="A32" s="1" t="s">
         <v>112</v>
       </c>
@@ -2498,7 +2509,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" customFormat="1" spans="1:10">
+    <row r="33" customFormat="1" ht="17" spans="1:10">
       <c r="A33" s="1" t="s">
         <v>115</v>
       </c>
@@ -2520,7 +2531,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" customFormat="1" spans="1:10">
+    <row r="34" customFormat="1" ht="17" spans="1:10">
       <c r="A34" s="1" t="s">
         <v>117</v>
       </c>
@@ -2542,7 +2553,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="35" customFormat="1" spans="1:10">
+    <row r="35" customFormat="1" ht="17" spans="1:10">
       <c r="A35" s="1" t="s">
         <v>119</v>
       </c>
@@ -2600,7 +2611,7 @@
       <c r="I38" s="4"/>
       <c r="J38" s="3"/>
     </row>
-    <row r="40" customFormat="1" spans="1:10">
+    <row r="40" customFormat="1" ht="17" spans="1:10">
       <c r="A40" s="1" t="s">
         <v>122</v>
       </c>
@@ -2622,7 +2633,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="41" customFormat="1" spans="1:10">
+    <row r="41" customFormat="1" ht="17" spans="1:10">
       <c r="A41" s="1" t="s">
         <v>125</v>
       </c>
@@ -2644,7 +2655,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" ht="17" spans="1:10">
       <c r="A42" s="1" t="s">
         <v>127</v>
       </c>
@@ -2661,7 +2672,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="43" customFormat="1" spans="1:10">
+    <row r="43" customFormat="1" ht="17" spans="1:10">
       <c r="A43" s="1" t="s">
         <v>129</v>
       </c>
@@ -2683,7 +2694,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" ht="17" spans="1:10">
       <c r="A47" s="1" t="s">
         <v>131</v>
       </c>
@@ -2700,7 +2711,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="48" customFormat="1" spans="1:10">
+    <row r="48" customFormat="1" ht="17" spans="1:10">
       <c r="A48" s="1" t="s">
         <v>134</v>
       </c>
@@ -2722,7 +2733,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" ht="17" spans="1:12">
       <c r="A50" s="1" t="s">
         <v>137</v>
       </c>
@@ -2751,7 +2762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" customFormat="1" spans="1:12">
+    <row r="51" customFormat="1" ht="17" spans="1:12">
       <c r="A51" s="1" t="s">
         <v>142</v>
       </c>
@@ -2783,7 +2794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" customFormat="1" spans="1:12">
+    <row r="52" customFormat="1" ht="17" spans="1:12">
       <c r="A52" s="1" t="s">
         <v>147</v>
       </c>
@@ -2815,7 +2826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" customFormat="1" spans="1:12">
+    <row r="53" customFormat="1" ht="17" spans="1:12">
       <c r="A53" s="1" t="s">
         <v>152</v>
       </c>
@@ -2847,7 +2858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" customFormat="1" spans="1:12">
+    <row r="54" customFormat="1" ht="17" spans="1:12">
       <c r="A54" s="1" t="s">
         <v>157</v>
       </c>
@@ -2879,7 +2890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" customFormat="1" spans="1:12">
+    <row r="55" customFormat="1" ht="17" spans="1:12">
       <c r="A55" s="1" t="s">
         <v>162</v>
       </c>
@@ -2911,7 +2922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" customFormat="1" spans="1:12">
+    <row r="56" customFormat="1" ht="17" spans="1:12">
       <c r="A56" s="1" t="s">
         <v>167</v>
       </c>
@@ -2943,7 +2954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" customFormat="1" spans="1:12">
+    <row r="57" customFormat="1" ht="17" spans="1:12">
       <c r="A57" s="1" t="s">
         <v>172</v>
       </c>
@@ -2975,7 +2986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" customFormat="1" spans="1:12">
+    <row r="58" customFormat="1" ht="17" spans="1:12">
       <c r="A58" s="1" t="s">
         <v>177</v>
       </c>
@@ -3007,7 +3018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" customFormat="1" ht="28" spans="1:12">
+    <row r="59" customFormat="1" ht="34" spans="1:12">
       <c r="A59" s="1" t="s">
         <v>182</v>
       </c>
@@ -3039,7 +3050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" customFormat="1" spans="1:12">
+    <row r="60" customFormat="1" ht="17" spans="1:12">
       <c r="A60" s="1" t="s">
         <v>187</v>
       </c>
@@ -3071,7 +3082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" customFormat="1" spans="1:12">
+    <row r="61" customFormat="1" ht="17" spans="1:12">
       <c r="A61" s="1" t="s">
         <v>192</v>
       </c>
@@ -3103,7 +3114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" customFormat="1" spans="1:12">
+    <row r="62" customFormat="1" ht="17" spans="1:12">
       <c r="A62" s="1" t="s">
         <v>197</v>
       </c>
@@ -3135,7 +3146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" customFormat="1" spans="1:12">
+    <row r="63" customFormat="1" ht="17" spans="1:12">
       <c r="A63" s="1" t="s">
         <v>202</v>
       </c>
@@ -3206,7 +3217,7 @@
       <c r="J66" s="3"/>
       <c r="L66" s="2"/>
     </row>
-    <row r="68" customFormat="1" spans="1:12">
+    <row r="68" customFormat="1" ht="17" spans="1:12">
       <c r="A68" s="1" t="s">
         <v>207</v>
       </c>
@@ -3238,7 +3249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" customFormat="1" spans="1:12">
+    <row r="69" customFormat="1" ht="17" spans="1:12">
       <c r="A69" s="1" t="s">
         <v>212</v>
       </c>
@@ -3296,7 +3307,7 @@
       <c r="J71" s="3"/>
       <c r="L71" s="2"/>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" ht="17" spans="1:12">
       <c r="A72" s="1" t="s">
         <v>217</v>
       </c>
@@ -3335,7 +3346,7 @@
       <c r="J73" s="3"/>
       <c r="L73" s="2"/>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" ht="17" spans="1:10">
       <c r="A75" s="1" t="s">
         <v>221</v>
       </c>
@@ -3352,7 +3363,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" ht="17" spans="1:10">
       <c r="A76" s="1" t="s">
         <v>224</v>
       </c>
@@ -3369,7 +3380,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" ht="17" spans="1:10">
       <c r="A77" s="1" t="s">
         <v>227</v>
       </c>
@@ -3386,7 +3397,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" ht="17" spans="1:10">
       <c r="A78" s="1" t="s">
         <v>230</v>
       </c>
@@ -3403,7 +3414,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" ht="17" spans="1:12">
       <c r="A80" s="1" t="s">
         <v>233</v>
       </c>
@@ -3429,7 +3440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" ht="17" spans="1:12">
       <c r="A81" s="1" t="s">
         <v>238</v>
       </c>
@@ -3455,7 +3466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" ht="17" spans="1:12">
       <c r="A82" s="1" t="s">
         <v>243</v>
       </c>
@@ -3479,6 +3490,67 @@
       </c>
       <c r="L82" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="88" ht="17" spans="1:10">
+      <c r="A88" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B88" s="1">
+        <v>99</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H88" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="89" customFormat="1" ht="17" spans="1:10">
+      <c r="A89" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B89" s="1">
+        <v>99</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I89" s="1"/>
+      <c r="J89" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="90" customFormat="1" ht="17" spans="1:10">
+      <c r="A90" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B90" s="1">
+        <v>99</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I90" s="1"/>
+      <c r="J90" s="3" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -3497,7 +3569,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3514,7 +3586,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DungeonShooting_Godot/excel/ActivityBase.xlsx
+++ b/DungeonShooting_Godot/excel/ActivityBase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="266">
   <si>
     <t>Id</t>
   </si>
@@ -783,10 +783,28 @@
     <t>res://resource/sprite/ui/commonIcon/Gold_1.png</t>
   </si>
   <si>
+    <t>item_0006</t>
+  </si>
+  <si>
+    <t>电视桌</t>
+  </si>
+  <si>
+    <t>res://prefab/item/Item0006.tscn</t>
+  </si>
+  <si>
+    <t>item_0008</t>
+  </si>
+  <si>
+    <t>沙发旁柜子</t>
+  </si>
+  <si>
+    <t>res://prefab/item/Item0008.tscn</t>
+  </si>
+  <si>
     <t>item_0012</t>
   </si>
   <si>
-    <t>大厅沙发</t>
+    <t>沙发竖</t>
   </si>
   <si>
     <t>res://prefab/item/Item0012.tscn</t>
@@ -795,13 +813,25 @@
     <t>item_0013</t>
   </si>
   <si>
+    <t>沙发横着</t>
+  </si>
+  <si>
     <t>res://prefab/item/Item0013.tscn</t>
   </si>
   <si>
+    <t>item_0014</t>
+  </si>
+  <si>
+    <t>懒人沙发</t>
+  </si>
+  <si>
+    <t>res://prefab/item/Item0014.tscn</t>
+  </si>
+  <si>
     <t>item_0017</t>
   </si>
   <si>
-    <t>大厅桌子</t>
+    <t>中间桌子</t>
   </si>
   <si>
     <t>res://prefab/item/Item0017.tscn</t>
@@ -1784,10 +1814,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L90"/>
+  <dimension ref="A1:L91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="J90" sqref="J90"/>
     </sheetView>
@@ -3492,32 +3522,76 @@
         <v>1</v>
       </c>
     </row>
+    <row r="86" customFormat="1" ht="17" spans="1:10">
+      <c r="A86" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B86" s="1">
+        <v>99</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I86" s="1"/>
+      <c r="J86" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="87" customFormat="1" ht="17" spans="1:10">
+      <c r="A87" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B87" s="1">
+        <v>99</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I87" s="1"/>
+      <c r="J87" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
     <row r="88" ht="17" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B88" s="1">
         <v>99</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="H88" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="89" customFormat="1" ht="17" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="B89" s="1">
         <v>99</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -3528,18 +3602,18 @@
       </c>
       <c r="I89" s="1"/>
       <c r="J89" s="3" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
     </row>
     <row r="90" customFormat="1" ht="17" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="B90" s="1">
         <v>99</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -3550,7 +3624,29 @@
       </c>
       <c r="I90" s="1"/>
       <c r="J90" s="3" t="s">
-        <v>255</v>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="91" customFormat="1" ht="17" spans="1:10">
+      <c r="A91" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B91" s="1">
+        <v>99</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I91" s="1"/>
+      <c r="J91" s="3" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>

--- a/DungeonShooting_Godot/excel/ActivityBase.xlsx
+++ b/DungeonShooting_Godot/excel/ActivityBase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="272">
   <si>
     <t>Id</t>
   </si>
@@ -835,6 +835,78 @@
   </si>
   <si>
     <t>res://prefab/item/Item0017.tscn</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>item_0031</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>台灯</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>res://prefab/item/Item0031.tscn</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>item_0057</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>卡带盒子</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>res://prefab/item/Item0057.tscn</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -847,10 +919,17 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1320,137 +1399,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1465,6 +1544,18 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1814,12 +1905,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L91"/>
+  <dimension ref="A1:L93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J90" sqref="J90"/>
+      <selection pane="bottomLeft" activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -3647,6 +3738,50 @@
       <c r="I91" s="1"/>
       <c r="J91" s="3" t="s">
         <v>265</v>
+      </c>
+    </row>
+    <row r="92" ht="17" spans="1:10">
+      <c r="A92" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B92" s="5">
+        <v>99</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I92" s="5"/>
+      <c r="J92" s="8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="93" ht="17" spans="1:10">
+      <c r="A93" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B93" s="5">
+        <v>99</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I93" s="5"/>
+      <c r="J93" s="8" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/DungeonShooting_Godot/excel/ActivityBase.xlsx
+++ b/DungeonShooting_Godot/excel/ActivityBase.xlsx
@@ -1907,10 +1907,10 @@
   <sheetPr/>
   <dimension ref="A1:L93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A92" sqref="A92"/>
+      <selection pane="bottomLeft" activeCell="J93" sqref="J93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>

--- a/DungeonShooting_Godot/excel/ActivityBase.xlsx
+++ b/DungeonShooting_Godot/excel/ActivityBase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="277">
   <si>
     <t>Id</t>
   </si>
@@ -781,6 +781,21 @@
   </si>
   <si>
     <t>res://resource/sprite/ui/commonIcon/Gold_1.png</t>
+  </si>
+  <si>
+    <t>item_0001</t>
+  </si>
+  <si>
+    <t>电脑桌</t>
+  </si>
+  <si>
+    <t>res://prefab/item/Item0001.tscn</t>
+  </si>
+  <si>
+    <t>item_0002</t>
+  </si>
+  <si>
+    <t>res://prefab/item/Item0002.tscn</t>
   </si>
   <si>
     <t>item_0006</t>
@@ -1907,10 +1922,10 @@
   <sheetPr/>
   <dimension ref="A1:L93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J93" sqref="J93"/>
+      <selection pane="bottomLeft" activeCell="J86" sqref="J86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -3613,15 +3628,57 @@
         <v>1</v>
       </c>
     </row>
+    <row r="84" customFormat="1" ht="17" spans="1:10">
+      <c r="A84" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B84" s="1">
+        <v>99</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I84" s="1"/>
+      <c r="J84" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="85" customFormat="1" ht="17" spans="1:10">
+      <c r="A85" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B85" s="1">
+        <v>99</v>
+      </c>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I85" s="1"/>
+      <c r="J85" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
     <row r="86" customFormat="1" ht="17" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B86" s="1">
         <v>99</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -3632,18 +3689,18 @@
       </c>
       <c r="I86" s="1"/>
       <c r="J86" s="3" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="87" customFormat="1" ht="17" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B87" s="1">
         <v>99</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -3654,35 +3711,35 @@
       </c>
       <c r="I87" s="1"/>
       <c r="J87" s="3" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="88" ht="17" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B88" s="1">
         <v>99</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="H88" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="89" customFormat="1" ht="17" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B89" s="1">
         <v>99</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -3693,18 +3750,18 @@
       </c>
       <c r="I89" s="1"/>
       <c r="J89" s="3" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="90" customFormat="1" ht="17" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B90" s="1">
         <v>99</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -3715,18 +3772,18 @@
       </c>
       <c r="I90" s="1"/>
       <c r="J90" s="3" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="91" customFormat="1" ht="17" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B91" s="1">
         <v>99</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -3737,18 +3794,18 @@
       </c>
       <c r="I91" s="1"/>
       <c r="J91" s="3" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="92" ht="17" spans="1:10">
       <c r="A92" s="5" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B92" s="5">
         <v>99</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -3759,18 +3816,18 @@
       </c>
       <c r="I92" s="5"/>
       <c r="J92" s="8" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="93" ht="17" spans="1:10">
       <c r="A93" s="5" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B93" s="5">
         <v>99</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
@@ -3781,7 +3838,7 @@
       </c>
       <c r="I93" s="5"/>
       <c r="J93" s="8" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>

--- a/DungeonShooting_Godot/excel/ActivityBase.xlsx
+++ b/DungeonShooting_Godot/excel/ActivityBase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="283">
   <si>
     <t>Id</t>
   </si>
@@ -796,6 +796,24 @@
   </si>
   <si>
     <t>res://prefab/item/Item0002.tscn</t>
+  </si>
+  <si>
+    <t>item_0003</t>
+  </si>
+  <si>
+    <t>res://prefab/item/Item0003.tscn</t>
+  </si>
+  <si>
+    <t>item_0004</t>
+  </si>
+  <si>
+    <t>res://prefab/item/Item0004.tscn</t>
+  </si>
+  <si>
+    <t>item_0005</t>
+  </si>
+  <si>
+    <t>res://prefab/item/Item0005.tscn</t>
   </si>
   <si>
     <t>item_0006</t>
@@ -1920,12 +1938,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L93"/>
+  <dimension ref="A1:L96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J86" sqref="J86"/>
+      <selection pane="bottomLeft" activeCell="J88" sqref="J88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -3677,9 +3695,7 @@
       <c r="B86" s="1">
         <v>99</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>254</v>
-      </c>
+      <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="2"/>
@@ -3689,19 +3705,17 @@
       </c>
       <c r="I86" s="1"/>
       <c r="J86" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="87" customFormat="1" ht="17" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B87" s="1">
         <v>99</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>257</v>
-      </c>
+      <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="2"/>
@@ -3711,35 +3725,38 @@
       </c>
       <c r="I87" s="1"/>
       <c r="J87" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="88" ht="17" spans="1:10">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="88" customFormat="1" ht="17" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B88" s="1">
         <v>99</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>260</v>
-      </c>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
       <c r="H88" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="I88" s="1"/>
       <c r="J88" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="89" customFormat="1" ht="17" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B89" s="1">
         <v>99</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -3750,18 +3767,18 @@
       </c>
       <c r="I89" s="1"/>
       <c r="J89" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="90" customFormat="1" ht="17" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B90" s="1">
         <v>99</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -3772,73 +3789,134 @@
       </c>
       <c r="I90" s="1"/>
       <c r="J90" s="3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="91" customFormat="1" ht="17" spans="1:10">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="91" ht="17" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B91" s="1">
         <v>99</v>
       </c>
       <c r="C91" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H91" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="92" customFormat="1" ht="17" spans="1:10">
+      <c r="A92" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B92" s="1">
+        <v>99</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I91" s="1"/>
-      <c r="J91" s="3" t="s">
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I92" s="1"/>
+      <c r="J92" s="3" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="92" ht="17" spans="1:10">
-      <c r="A92" s="5" t="s">
+    <row r="93" customFormat="1" ht="17" spans="1:10">
+      <c r="A93" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B92" s="5">
+      <c r="B93" s="1">
         <v>99</v>
       </c>
-      <c r="C92" s="6" t="s">
+      <c r="C93" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" s="5"/>
-      <c r="J92" s="8" t="s">
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I93" s="1"/>
+      <c r="J93" s="3" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="93" ht="17" spans="1:10">
-      <c r="A93" s="5" t="s">
+    <row r="94" customFormat="1" ht="17" spans="1:10">
+      <c r="A94" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B93" s="5">
+      <c r="B94" s="1">
         <v>99</v>
       </c>
-      <c r="C93" s="6" t="s">
+      <c r="C94" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" s="5"/>
-      <c r="J93" s="8" t="s">
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I94" s="1"/>
+      <c r="J94" s="3" t="s">
         <v>276</v>
+      </c>
+    </row>
+    <row r="95" ht="17" spans="1:10">
+      <c r="A95" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B95" s="5">
+        <v>99</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I95" s="5"/>
+      <c r="J95" s="8" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="96" ht="17" spans="1:10">
+      <c r="A96" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B96" s="5">
+        <v>99</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I96" s="5"/>
+      <c r="J96" s="8" t="s">
+        <v>282</v>
       </c>
     </row>
   </sheetData>

--- a/DungeonShooting_Godot/excel/ActivityBase.xlsx
+++ b/DungeonShooting_Godot/excel/ActivityBase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="289">
   <si>
     <t>Id</t>
   </si>
@@ -904,6 +904,24 @@
       </rPr>
       <t>res://prefab/item/Item0031.tscn</t>
     </r>
+  </si>
+  <si>
+    <t>item_0036</t>
+  </si>
+  <si>
+    <t>台球桌</t>
+  </si>
+  <si>
+    <t>res://prefab/item/Item0036.tscn</t>
+  </si>
+  <si>
+    <t>item_0054</t>
+  </si>
+  <si>
+    <t>贩卖机</t>
+  </si>
+  <si>
+    <t>res://prefab/item/Item0054.tscn</t>
   </si>
   <si>
     <r>
@@ -1938,12 +1956,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L96"/>
+  <dimension ref="A1:L98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J88" sqref="J88"/>
+      <selection pane="bottomLeft" activeCell="J97" sqref="J97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -3897,7 +3915,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="96" ht="17" spans="1:10">
+    <row r="96" customFormat="1" ht="17" spans="1:10">
       <c r="A96" s="5" t="s">
         <v>280</v>
       </c>
@@ -3917,6 +3935,50 @@
       <c r="I96" s="5"/>
       <c r="J96" s="8" t="s">
         <v>282</v>
+      </c>
+    </row>
+    <row r="97" customFormat="1" ht="17" spans="1:10">
+      <c r="A97" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B97" s="5">
+        <v>99</v>
+      </c>
+      <c r="C97" t="s">
+        <v>284</v>
+      </c>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I97" s="5"/>
+      <c r="J97" s="8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="98" ht="17" spans="1:10">
+      <c r="A98" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B98" s="5">
+        <v>99</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I98" s="5"/>
+      <c r="J98" s="8" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>

--- a/DungeonShooting_Godot/excel/ActivityBase.xlsx
+++ b/DungeonShooting_Godot/excel/ActivityBase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="306">
   <si>
     <t>Id</t>
   </si>
@@ -825,6 +825,15 @@
     <t>res://prefab/item/Item0006.tscn</t>
   </si>
   <si>
+    <t>item_0007</t>
+  </si>
+  <si>
+    <t>酒柜</t>
+  </si>
+  <si>
+    <t>res://prefab/item/Item0007.tscn</t>
+  </si>
+  <si>
     <t>item_0008</t>
   </si>
   <si>
@@ -834,6 +843,33 @@
     <t>res://prefab/item/Item0008.tscn</t>
   </si>
   <si>
+    <t>item_0009</t>
+  </si>
+  <si>
+    <t>吧台</t>
+  </si>
+  <si>
+    <t>res://prefab/item/Item0009.tscn</t>
+  </si>
+  <si>
+    <t>item_0010</t>
+  </si>
+  <si>
+    <t>告示牌</t>
+  </si>
+  <si>
+    <t>res://prefab/item/Item0010.tscn</t>
+  </si>
+  <si>
+    <t>item_0011</t>
+  </si>
+  <si>
+    <t>绿木凳</t>
+  </si>
+  <si>
+    <t>res://prefab/item/Item0011.tscn</t>
+  </si>
+  <si>
     <t>item_0012</t>
   </si>
   <si>
@@ -859,6 +895,15 @@
   </si>
   <si>
     <t>res://prefab/item/Item0014.tscn</t>
+  </si>
+  <si>
+    <t>item_0015</t>
+  </si>
+  <si>
+    <t>左下角桌子</t>
+  </si>
+  <si>
+    <t>res://prefab/item/Item0015.tscn</t>
   </si>
   <si>
     <t>item_0017</t>
@@ -904,6 +949,12 @@
       </rPr>
       <t>res://prefab/item/Item0031.tscn</t>
     </r>
+  </si>
+  <si>
+    <t>item_0033</t>
+  </si>
+  <si>
+    <t>res://prefab/item/Item0033.tscn</t>
   </si>
   <si>
     <t>item_0036</t>
@@ -1956,12 +2007,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L98"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J97" sqref="J97"/>
+      <selection pane="bottomLeft" activeCell="J93" sqref="J93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -3810,7 +3861,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="91" ht="17" spans="1:10">
+    <row r="91" customFormat="1" ht="17" spans="1:10">
       <c r="A91" s="1" t="s">
         <v>265</v>
       </c>
@@ -3820,165 +3871,297 @@
       <c r="C91" s="1" t="s">
         <v>266</v>
       </c>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
       <c r="H91" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="I91" s="1"/>
       <c r="J91" s="3" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="92" customFormat="1" ht="17" spans="1:10">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B92" s="5">
         <v>99</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
-      <c r="H92" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" s="1"/>
-      <c r="J92" s="3" t="s">
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I92" s="5"/>
+      <c r="J92" s="8" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="93" customFormat="1" ht="17" spans="1:10">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B93" s="5">
         <v>99</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" t="s">
         <v>272</v>
       </c>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
-      <c r="H93" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" s="1"/>
-      <c r="J93" s="3" t="s">
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I93" s="5"/>
+      <c r="J93" s="8" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="94" customFormat="1" ht="17" spans="1:10">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="B94" s="1">
+      <c r="B94" s="5">
         <v>99</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" t="s">
         <v>275</v>
       </c>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="2"/>
-      <c r="G94" s="2"/>
-      <c r="H94" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I94" s="1"/>
-      <c r="J94" s="3" t="s">
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I94" s="5"/>
+      <c r="J94" s="8" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="95" ht="17" spans="1:10">
-      <c r="A95" s="5" t="s">
+      <c r="A95" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B95" s="5">
+      <c r="B95" s="1">
         <v>99</v>
       </c>
-      <c r="C95" s="6" t="s">
+      <c r="C95" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" s="5"/>
-      <c r="J95" s="8" t="s">
+      <c r="H95" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J95" s="3" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="96" customFormat="1" ht="17" spans="1:10">
-      <c r="A96" s="5" t="s">
+      <c r="A96" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B96" s="5">
+      <c r="B96" s="1">
         <v>99</v>
       </c>
-      <c r="C96" s="6" t="s">
+      <c r="C96" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="7"/>
-      <c r="H96" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I96" s="5"/>
-      <c r="J96" s="8" t="s">
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I96" s="1"/>
+      <c r="J96" s="3" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="97" customFormat="1" ht="17" spans="1:10">
-      <c r="A97" s="5" t="s">
+      <c r="A97" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B97" s="5">
+      <c r="B97" s="1">
         <v>99</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="7"/>
-      <c r="H97" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" s="5"/>
-      <c r="J97" s="8" t="s">
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I97" s="1"/>
+      <c r="J97" s="3" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="98" ht="17" spans="1:10">
-      <c r="A98" s="5" t="s">
+    <row r="98" customFormat="1" ht="17" spans="1:10">
+      <c r="A98" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B98" s="5">
+      <c r="B98" s="1">
         <v>99</v>
       </c>
-      <c r="C98" s="6" t="s">
+      <c r="C98" t="s">
         <v>287</v>
       </c>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="7"/>
-      <c r="H98" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" s="5"/>
-      <c r="J98" s="8" t="s">
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I98" s="1"/>
+      <c r="J98" s="3" t="s">
         <v>288</v>
+      </c>
+    </row>
+    <row r="99" customFormat="1" ht="17" spans="1:10">
+      <c r="A99" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B99" s="1">
+        <v>99</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I99" s="1"/>
+      <c r="J99" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="100" ht="17" spans="1:10">
+      <c r="A100" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B100" s="5">
+        <v>99</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I100" s="5"/>
+      <c r="J100" s="8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="101" customFormat="1" ht="17" spans="1:10">
+      <c r="A101" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B101" s="5">
+        <v>99</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I101" s="5"/>
+      <c r="J101" s="8" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="102" customFormat="1" ht="17" spans="1:10">
+      <c r="A102" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B102" s="5">
+        <v>99</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I102" s="5"/>
+      <c r="J102" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="103" customFormat="1" ht="17" spans="1:10">
+      <c r="A103" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B103" s="5">
+        <v>99</v>
+      </c>
+      <c r="C103" t="s">
+        <v>301</v>
+      </c>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I103" s="5"/>
+      <c r="J103" s="8" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="104" ht="17" spans="1:10">
+      <c r="A104" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B104" s="5">
+        <v>99</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I104" s="5"/>
+      <c r="J104" s="8" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>

--- a/DungeonShooting_Godot/excel/ActivityBase.xlsx
+++ b/DungeonShooting_Godot/excel/ActivityBase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="321">
   <si>
     <t>Id</t>
   </si>
@@ -906,6 +906,15 @@
     <t>res://prefab/item/Item0015.tscn</t>
   </si>
   <si>
+    <t>item_0016</t>
+  </si>
+  <si>
+    <t>左下角短沙发</t>
+  </si>
+  <si>
+    <t>res://prefab/item/Item0016.tscn</t>
+  </si>
+  <si>
     <t>item_0017</t>
   </si>
   <si>
@@ -913,6 +922,42 @@
   </si>
   <si>
     <t>res://prefab/item/Item0017.tscn</t>
+  </si>
+  <si>
+    <t>item_0018</t>
+  </si>
+  <si>
+    <t>左下角长沙发</t>
+  </si>
+  <si>
+    <t>res://prefab/item/Item0018.tscn</t>
+  </si>
+  <si>
+    <t>item_0019</t>
+  </si>
+  <si>
+    <t>右下角桌子</t>
+  </si>
+  <si>
+    <t>res://prefab/item/Item0019.tscn</t>
+  </si>
+  <si>
+    <t>item_0020</t>
+  </si>
+  <si>
+    <t>转椅</t>
+  </si>
+  <si>
+    <t>res://prefab/item/Item0020.tscn</t>
+  </si>
+  <si>
+    <t>item_0021</t>
+  </si>
+  <si>
+    <t>右下角长沙发</t>
+  </si>
+  <si>
+    <t>res://prefab/item/Item0021.tscn</t>
   </si>
   <si>
     <r>
@@ -2007,12 +2052,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L104"/>
+  <dimension ref="A1:L109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J93" sqref="J93"/>
+      <selection pane="bottomLeft" activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -4039,7 +4084,7 @@
       <c r="B99" s="1">
         <v>99</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" t="s">
         <v>290</v>
       </c>
       <c r="D99" s="1"/>
@@ -4054,114 +4099,224 @@
         <v>291</v>
       </c>
     </row>
-    <row r="100" ht="17" spans="1:10">
-      <c r="A100" s="5" t="s">
+    <row r="100" customFormat="1" ht="17" spans="1:10">
+      <c r="A100" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B100" s="5">
+      <c r="B100" s="1">
         <v>99</v>
       </c>
-      <c r="C100" s="6" t="s">
+      <c r="C100" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="7"/>
-      <c r="G100" s="7"/>
-      <c r="H100" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" s="5"/>
-      <c r="J100" s="8" t="s">
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I100" s="1"/>
+      <c r="J100" s="3" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="101" customFormat="1" ht="17" spans="1:10">
-      <c r="A101" s="5" t="s">
+      <c r="A101" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B101" s="5">
+      <c r="B101" s="1">
         <v>99</v>
       </c>
-      <c r="C101" s="6" t="s">
+      <c r="C101" t="s">
+        <v>296</v>
+      </c>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I101" s="1"/>
+      <c r="J101" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="102" customFormat="1" ht="17" spans="1:10">
+      <c r="A102" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B102" s="1">
+        <v>99</v>
+      </c>
+      <c r="C102" t="s">
+        <v>299</v>
+      </c>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I102" s="1"/>
+      <c r="J102" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="103" customFormat="1" ht="17" spans="1:10">
+      <c r="A103" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B103" s="1">
+        <v>99</v>
+      </c>
+      <c r="C103" t="s">
+        <v>302</v>
+      </c>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I103" s="1"/>
+      <c r="J103" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="104" customFormat="1" ht="17" spans="1:10">
+      <c r="A104" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B104" s="1">
+        <v>99</v>
+      </c>
+      <c r="C104" t="s">
+        <v>305</v>
+      </c>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I104" s="1"/>
+      <c r="J104" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="105" ht="17" spans="1:10">
+      <c r="A105" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B105" s="5">
+        <v>99</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I105" s="5"/>
+      <c r="J105" s="8" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="106" customFormat="1" ht="17" spans="1:10">
+      <c r="A106" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B106" s="5">
+        <v>99</v>
+      </c>
+      <c r="C106" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="7"/>
-      <c r="H101" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" s="5"/>
-      <c r="J101" s="8" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="102" customFormat="1" ht="17" spans="1:10">
-      <c r="A102" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="B102" s="5">
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I106" s="5"/>
+      <c r="J106" s="8" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="107" customFormat="1" ht="17" spans="1:10">
+      <c r="A107" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B107" s="5">
         <v>99</v>
       </c>
-      <c r="C102" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="7"/>
-      <c r="G102" s="7"/>
-      <c r="H102" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I102" s="5"/>
-      <c r="J102" s="8" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="103" customFormat="1" ht="17" spans="1:10">
-      <c r="A103" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="B103" s="5">
+      <c r="C107" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I107" s="5"/>
+      <c r="J107" s="8" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="108" customFormat="1" ht="17" spans="1:10">
+      <c r="A108" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B108" s="5">
         <v>99</v>
       </c>
-      <c r="C103" t="s">
-        <v>301</v>
-      </c>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="7"/>
-      <c r="G103" s="7"/>
-      <c r="H103" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I103" s="5"/>
-      <c r="J103" s="8" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="104" ht="17" spans="1:10">
-      <c r="A104" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="B104" s="5">
+      <c r="C108" t="s">
+        <v>316</v>
+      </c>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I108" s="5"/>
+      <c r="J108" s="8" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="109" ht="17" spans="1:10">
+      <c r="A109" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B109" s="5">
         <v>99</v>
       </c>
-      <c r="C104" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="7"/>
-      <c r="G104" s="7"/>
-      <c r="H104" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I104" s="5"/>
-      <c r="J104" s="8" t="s">
-        <v>305</v>
+      <c r="C109" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I109" s="5"/>
+      <c r="J109" s="8" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>

--- a/DungeonShooting_Godot/excel/ActivityBase.xlsx
+++ b/DungeonShooting_Godot/excel/ActivityBase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="336">
   <si>
     <t>Id</t>
   </si>
@@ -960,6 +960,42 @@
     <t>res://prefab/item/Item0021.tscn</t>
   </si>
   <si>
+    <t>item_0022</t>
+  </si>
+  <si>
+    <t>衣架</t>
+  </si>
+  <si>
+    <t>res://prefab/item/Item0022.tscn</t>
+  </si>
+  <si>
+    <t>item_0023</t>
+  </si>
+  <si>
+    <t>绿植</t>
+  </si>
+  <si>
+    <t>res://prefab/item/Item0023.tscn</t>
+  </si>
+  <si>
+    <t>item_0024</t>
+  </si>
+  <si>
+    <t>新手教学关卡</t>
+  </si>
+  <si>
+    <t>res://prefab/item/Item0024.tscn</t>
+  </si>
+  <si>
+    <t>item_0025</t>
+  </si>
+  <si>
+    <t>茂盛花盆</t>
+  </si>
+  <si>
+    <t>res://prefab/item/Item0025.tscn</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1018,6 +1054,15 @@
   </si>
   <si>
     <t>res://prefab/item/Item0054.tscn</t>
+  </si>
+  <si>
+    <t>item_0056</t>
+  </si>
+  <si>
+    <t>长凳子</t>
+  </si>
+  <si>
+    <t>res://prefab/item/Item0056.tscn</t>
   </si>
   <si>
     <r>
@@ -2052,12 +2097,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L109"/>
+  <dimension ref="A1:L114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C103" sqref="C103"/>
+      <selection pane="bottomLeft" activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -4209,103 +4254,103 @@
         <v>306</v>
       </c>
     </row>
-    <row r="105" ht="17" spans="1:10">
-      <c r="A105" s="5" t="s">
+    <row r="105" customFormat="1" ht="17" spans="1:10">
+      <c r="A105" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B105" s="5">
+      <c r="B105" s="1">
         <v>99</v>
       </c>
-      <c r="C105" s="6" t="s">
+      <c r="C105" t="s">
         <v>308</v>
       </c>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="7"/>
-      <c r="G105" s="7"/>
-      <c r="H105" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I105" s="5"/>
-      <c r="J105" s="8" t="s">
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I105" s="1"/>
+      <c r="J105" s="3" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="106" customFormat="1" ht="17" spans="1:10">
-      <c r="A106" s="5" t="s">
+      <c r="A106" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B106" s="5">
+      <c r="B106" s="1">
         <v>99</v>
       </c>
-      <c r="C106" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
-      <c r="F106" s="7"/>
-      <c r="G106" s="7"/>
-      <c r="H106" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I106" s="5"/>
-      <c r="J106" s="8" t="s">
+      <c r="C106" t="s">
         <v>311</v>
       </c>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I106" s="1"/>
+      <c r="J106" s="3" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="107" customFormat="1" ht="17" spans="1:10">
-      <c r="A107" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B107" s="5">
+      <c r="A107" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B107" s="1">
         <v>99</v>
       </c>
-      <c r="C107" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="D107" s="5"/>
-      <c r="E107" s="5"/>
-      <c r="F107" s="7"/>
-      <c r="G107" s="7"/>
-      <c r="H107" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I107" s="5"/>
-      <c r="J107" s="8" t="s">
+      <c r="C107" t="s">
         <v>314</v>
       </c>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I107" s="1"/>
+      <c r="J107" s="3" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="108" customFormat="1" ht="17" spans="1:10">
-      <c r="A108" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="B108" s="5">
+      <c r="A108" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B108" s="1">
         <v>99</v>
       </c>
       <c r="C108" t="s">
-        <v>316</v>
-      </c>
-      <c r="D108" s="5"/>
-      <c r="E108" s="5"/>
-      <c r="F108" s="7"/>
-      <c r="G108" s="7"/>
-      <c r="H108" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I108" s="5"/>
-      <c r="J108" s="8" t="s">
         <v>317</v>
+      </c>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I108" s="1"/>
+      <c r="J108" s="3" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="109" ht="17" spans="1:10">
       <c r="A109" s="5" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B109" s="5">
         <v>99</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
@@ -4316,7 +4361,117 @@
       </c>
       <c r="I109" s="5"/>
       <c r="J109" s="8" t="s">
-        <v>320</v>
+        <v>321</v>
+      </c>
+    </row>
+    <row r="110" customFormat="1" ht="17" spans="1:10">
+      <c r="A110" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B110" s="5">
+        <v>99</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I110" s="5"/>
+      <c r="J110" s="8" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="111" customFormat="1" ht="17" spans="1:10">
+      <c r="A111" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B111" s="5">
+        <v>99</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I111" s="5"/>
+      <c r="J111" s="8" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="112" customFormat="1" ht="17" spans="1:10">
+      <c r="A112" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B112" s="5">
+        <v>99</v>
+      </c>
+      <c r="C112" t="s">
+        <v>328</v>
+      </c>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I112" s="5"/>
+      <c r="J112" s="8" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="113" customFormat="1" ht="17" spans="1:10">
+      <c r="A113" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B113" s="5">
+        <v>99</v>
+      </c>
+      <c r="C113" t="s">
+        <v>331</v>
+      </c>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I113" s="5"/>
+      <c r="J113" s="8" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="114" ht="17" spans="1:10">
+      <c r="A114" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B114" s="5">
+        <v>99</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="7"/>
+      <c r="H114" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I114" s="5"/>
+      <c r="J114" s="8" t="s">
+        <v>335</v>
       </c>
     </row>
   </sheetData>

--- a/DungeonShooting_Godot/excel/ActivityBase.xlsx
+++ b/DungeonShooting_Godot/excel/ActivityBase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="339">
   <si>
     <t>Id</t>
   </si>
@@ -994,6 +994,15 @@
   </si>
   <si>
     <t>res://prefab/item/Item0025.tscn</t>
+  </si>
+  <si>
+    <t>item_0026</t>
+  </si>
+  <si>
+    <t>告示版</t>
+  </si>
+  <si>
+    <t>res://prefab/item/Item0026.tscn</t>
   </si>
   <si>
     <r>
@@ -2097,12 +2106,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L114"/>
+  <dimension ref="A1:L115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F96" sqref="F96"/>
+      <selection pane="bottomLeft" activeCell="J109" sqref="J109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -4342,29 +4351,29 @@
         <v>318</v>
       </c>
     </row>
-    <row r="109" ht="17" spans="1:10">
-      <c r="A109" s="5" t="s">
+    <row r="109" customFormat="1" ht="17" spans="1:10">
+      <c r="A109" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B109" s="5">
+      <c r="B109" s="1">
         <v>99</v>
       </c>
-      <c r="C109" s="6" t="s">
+      <c r="C109" t="s">
         <v>320</v>
       </c>
-      <c r="D109" s="5"/>
-      <c r="E109" s="5"/>
-      <c r="F109" s="7"/>
-      <c r="G109" s="7"/>
-      <c r="H109" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I109" s="5"/>
-      <c r="J109" s="8" t="s">
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I109" s="1"/>
+      <c r="J109" s="3" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="110" customFormat="1" ht="17" spans="1:10">
+    <row r="110" ht="17" spans="1:10">
       <c r="A110" s="5" t="s">
         <v>322</v>
       </c>
@@ -4372,7 +4381,7 @@
         <v>99</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>269</v>
+        <v>323</v>
       </c>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
@@ -4383,18 +4392,18 @@
       </c>
       <c r="I110" s="5"/>
       <c r="J110" s="8" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="111" customFormat="1" ht="17" spans="1:10">
       <c r="A111" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B111" s="5">
         <v>99</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>325</v>
+        <v>269</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
@@ -4415,7 +4424,7 @@
       <c r="B112" s="5">
         <v>99</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="6" t="s">
         <v>328</v>
       </c>
       <c r="D112" s="5"/>
@@ -4452,14 +4461,14 @@
         <v>332</v>
       </c>
     </row>
-    <row r="114" ht="17" spans="1:10">
+    <row r="114" customFormat="1" ht="17" spans="1:10">
       <c r="A114" s="5" t="s">
         <v>333</v>
       </c>
       <c r="B114" s="5">
         <v>99</v>
       </c>
-      <c r="C114" s="6" t="s">
+      <c r="C114" t="s">
         <v>334</v>
       </c>
       <c r="D114" s="5"/>
@@ -4472,6 +4481,28 @@
       <c r="I114" s="5"/>
       <c r="J114" s="8" t="s">
         <v>335</v>
+      </c>
+    </row>
+    <row r="115" ht="17" spans="1:10">
+      <c r="A115" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B115" s="5">
+        <v>99</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="7"/>
+      <c r="G115" s="7"/>
+      <c r="H115" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I115" s="5"/>
+      <c r="J115" s="8" t="s">
+        <v>338</v>
       </c>
     </row>
   </sheetData>

--- a/DungeonShooting_Godot/excel/ActivityBase.xlsx
+++ b/DungeonShooting_Godot/excel/ActivityBase.xlsx
@@ -16,15 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="340">
   <si>
     <t>Id</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
     <t>Type</t>
-  </si>
-  <si>
-    <t>Name</t>
   </si>
   <si>
     <t>Quality</t>
@@ -56,6 +56,9 @@
   <si>
     <t>物体唯一id
 需要添加类型前缀</t>
+  </si>
+  <si>
+    <t>物体名称</t>
   </si>
   <si>
     <t>Test(测试对象): 2
@@ -70,9 +73,6 @@
 Other(其它类型): 99</t>
   </si>
   <si>
-    <t>物体名称</t>
-  </si>
-  <si>
     <t>物体品质, 用于武器和道具
 通用物品: 1
 基础: 2
@@ -459,7 +459,10 @@
     <t>提高移动速度</t>
   </si>
   <si>
-    <t>res://prefab/prop/buff/BuffProp0001.tscn</t>
+    <t>提高角色的基础移动速度</t>
+  </si>
+  <si>
+    <t>res://prefab/prop/BuffActivity.tscn</t>
   </si>
   <si>
     <t>res://resource/sprite/prop/buff/BuffProp0001.png</t>
@@ -2108,24 +2111,26 @@
   <sheetPr/>
   <dimension ref="A1:L115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="H36" activePane="bottomRight" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J109" sqref="J109"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="27.5576923076923" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5961538461538" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.8942307692308" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.4230769230769" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.4326923076923" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5961538461538" style="1" customWidth="1"/>
     <col min="4" max="5" width="27.375" style="1" customWidth="1"/>
     <col min="6" max="7" width="35.5576923076923" style="2" customWidth="1"/>
     <col min="8" max="8" width="18.8173076923077" style="1" customWidth="1"/>
     <col min="9" max="9" width="22.125" style="1" customWidth="1"/>
     <col min="10" max="10" width="63.3653846153846" style="3" customWidth="1"/>
     <col min="11" max="11" width="61.9134615384615" customWidth="1"/>
-    <col min="12" max="12" width="27" customWidth="1"/>
+    <col min="12" max="12" width="32.4230769230769" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:12">
@@ -2209,10 +2214,10 @@
         <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>26</v>
@@ -2250,11 +2255,11 @@
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1">
         <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>31</v>
@@ -2278,11 +2283,11 @@
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1">
         <v>4</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>35</v>
@@ -2304,11 +2309,11 @@
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="1">
         <v>4</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>39</v>
@@ -2342,11 +2347,11 @@
       <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="1">
         <v>5</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="D12" s="1">
         <v>3</v>
@@ -2368,11 +2373,11 @@
       <c r="A13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="1">
         <v>5</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="D13" s="1">
         <v>3</v>
@@ -2394,11 +2399,11 @@
       <c r="A14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="1">
         <v>5</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="D14" s="1">
         <v>2</v>
@@ -2420,11 +2425,11 @@
       <c r="A15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="1">
         <v>5</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="D15" s="1">
         <v>4</v>
@@ -2446,11 +2451,11 @@
       <c r="A16" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="1">
         <v>5</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="D16" s="1">
         <v>4</v>
@@ -2472,11 +2477,11 @@
       <c r="A17" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="1">
         <v>5</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="D17" s="1">
         <v>2</v>
@@ -2498,11 +2503,11 @@
       <c r="A18" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="1">
         <v>5</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="D18" s="1">
         <v>4</v>
@@ -2524,11 +2529,11 @@
       <c r="A19" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="1">
         <v>5</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="D19" s="1">
         <v>3</v>
@@ -2550,11 +2555,11 @@
       <c r="A20" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="1">
         <v>5</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="D20" s="1">
         <v>4</v>
@@ -2576,11 +2581,11 @@
       <c r="A21" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="1">
         <v>5</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="D21" s="1">
         <v>5</v>
@@ -2602,11 +2607,11 @@
       <c r="A22" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="1">
         <v>5</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D22" s="1">
         <v>5</v>
@@ -2628,11 +2633,11 @@
       <c r="A23" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="1">
         <v>5</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="D23" s="1">
         <v>4</v>
@@ -2654,11 +2659,11 @@
       <c r="A24" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="1">
         <v>5</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="D24" s="1">
         <v>2</v>
@@ -2680,11 +2685,11 @@
       <c r="A25" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="1">
         <v>5</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="D25" s="1">
         <v>2</v>
@@ -2707,7 +2712,8 @@
       <c r="A27" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1">
         <v>6</v>
       </c>
       <c r="H27" s="1" t="b">
@@ -2724,7 +2730,8 @@
       <c r="A28" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1">
         <v>6</v>
       </c>
       <c r="H28" s="1" t="b">
@@ -2741,10 +2748,10 @@
       <c r="A29" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1">
         <v>6</v>
       </c>
-      <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="2"/>
@@ -2763,11 +2770,11 @@
       <c r="A30" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="1">
         <v>6</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -2787,11 +2794,11 @@
       <c r="A31" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="1">
         <v>6</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -2811,11 +2818,11 @@
       <c r="A32" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" s="1">
         <v>6</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -2835,10 +2842,10 @@
       <c r="A33" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1">
         <v>6</v>
       </c>
-      <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="2"/>
@@ -2857,10 +2864,10 @@
       <c r="A34" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1">
         <v>6</v>
       </c>
-      <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="2"/>
@@ -2879,11 +2886,11 @@
       <c r="A35" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35" s="1">
         <v>6</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -2937,10 +2944,10 @@
       <c r="A40" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1">
         <v>7</v>
       </c>
-      <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="2"/>
@@ -2959,10 +2966,10 @@
       <c r="A41" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1">
         <v>7</v>
       </c>
-      <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="2"/>
@@ -2981,7 +2988,8 @@
       <c r="A42" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1">
         <v>7</v>
       </c>
       <c r="H42" s="1" t="b">
@@ -2998,10 +3006,10 @@
       <c r="A43" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1">
         <v>7</v>
       </c>
-      <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="2"/>
@@ -3020,7 +3028,8 @@
       <c r="A47" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1">
         <v>8</v>
       </c>
       <c r="F47" s="2" t="s">
@@ -3037,10 +3046,10 @@
       <c r="A48" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1">
         <v>8</v>
       </c>
-      <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="2" t="s">
@@ -3059,11 +3068,11 @@
       <c r="A50" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C50" s="1">
         <v>9</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="D50" s="1">
         <v>4</v>
@@ -3071,14 +3080,17 @@
       <c r="F50" s="2" t="s">
         <v>139</v>
       </c>
+      <c r="G50" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="H50" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K50" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L50" s="2" t="b">
         <v>1</v>
@@ -3086,20 +3098,20 @@
     </row>
     <row r="51" customFormat="1" ht="17" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B51" s="1">
+        <v>143</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C51" s="1">
         <v>9</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="D51" s="1">
         <v>3</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="1" t="b">
@@ -3107,10 +3119,10 @@
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K51" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L51" s="2" t="b">
         <v>1</v>
@@ -3118,20 +3130,20 @@
     </row>
     <row r="52" customFormat="1" ht="17" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B52" s="1">
+        <v>148</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C52" s="1">
         <v>9</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="D52" s="1">
         <v>3</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="1" t="b">
@@ -3139,10 +3151,10 @@
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K52" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L52" s="2" t="b">
         <v>1</v>
@@ -3150,20 +3162,20 @@
     </row>
     <row r="53" customFormat="1" ht="17" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B53" s="1">
+        <v>153</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C53" s="1">
         <v>9</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="D53" s="1">
         <v>4</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="1" t="b">
@@ -3171,10 +3183,10 @@
       </c>
       <c r="I53" s="1"/>
       <c r="J53" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K53" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L53" s="2" t="b">
         <v>1</v>
@@ -3182,20 +3194,20 @@
     </row>
     <row r="54" customFormat="1" ht="17" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B54" s="1">
+        <v>158</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C54" s="1">
         <v>9</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="D54" s="1">
         <v>4</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="1" t="b">
@@ -3203,10 +3215,10 @@
       </c>
       <c r="I54" s="1"/>
       <c r="J54" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K54" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L54" s="2" t="b">
         <v>1</v>
@@ -3214,20 +3226,20 @@
     </row>
     <row r="55" customFormat="1" ht="17" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B55" s="1">
+        <v>163</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C55" s="1">
         <v>9</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="D55" s="1">
         <v>4</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="1" t="b">
@@ -3235,10 +3247,10 @@
       </c>
       <c r="I55" s="1"/>
       <c r="J55" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K55" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L55" s="2" t="b">
         <v>1</v>
@@ -3246,20 +3258,20 @@
     </row>
     <row r="56" customFormat="1" ht="17" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B56" s="1">
+        <v>168</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C56" s="1">
         <v>9</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="D56" s="1">
         <v>3</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="1" t="b">
@@ -3267,10 +3279,10 @@
       </c>
       <c r="I56" s="1"/>
       <c r="J56" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K56" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L56" s="2" t="b">
         <v>1</v>
@@ -3278,20 +3290,20 @@
     </row>
     <row r="57" customFormat="1" ht="17" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B57" s="1">
+        <v>173</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C57" s="1">
         <v>9</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="D57" s="1">
         <v>3</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="1" t="b">
@@ -3299,10 +3311,10 @@
       </c>
       <c r="I57" s="1"/>
       <c r="J57" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K57" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L57" s="2" t="b">
         <v>1</v>
@@ -3310,20 +3322,20 @@
     </row>
     <row r="58" customFormat="1" ht="17" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B58" s="1">
+        <v>178</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C58" s="1">
         <v>9</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="D58" s="1">
         <v>3</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="1" t="b">
@@ -3331,10 +3343,10 @@
       </c>
       <c r="I58" s="1"/>
       <c r="J58" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K58" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L58" s="2" t="b">
         <v>1</v>
@@ -3342,20 +3354,20 @@
     </row>
     <row r="59" customFormat="1" ht="34" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B59" s="1">
+        <v>183</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C59" s="1">
         <v>9</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="D59" s="1">
         <v>4</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="1" t="b">
@@ -3363,10 +3375,10 @@
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K59" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L59" s="2" t="b">
         <v>1</v>
@@ -3374,20 +3386,20 @@
     </row>
     <row r="60" customFormat="1" ht="17" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B60" s="1">
+        <v>188</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C60" s="1">
         <v>9</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="D60" s="1">
         <v>4</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="1" t="b">
@@ -3395,10 +3407,10 @@
       </c>
       <c r="I60" s="1"/>
       <c r="J60" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K60" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L60" s="2" t="b">
         <v>1</v>
@@ -3406,20 +3418,20 @@
     </row>
     <row r="61" customFormat="1" ht="17" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B61" s="1">
+        <v>193</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C61" s="1">
         <v>9</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="D61" s="1">
         <v>4</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="1" t="b">
@@ -3427,10 +3439,10 @@
       </c>
       <c r="I61" s="1"/>
       <c r="J61" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K61" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L61" s="2" t="b">
         <v>1</v>
@@ -3438,20 +3450,20 @@
     </row>
     <row r="62" customFormat="1" ht="17" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B62" s="1">
+        <v>198</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C62" s="1">
         <v>9</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="D62" s="1">
         <v>2</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="1" t="b">
@@ -3459,10 +3471,10 @@
       </c>
       <c r="I62" s="1"/>
       <c r="J62" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K62" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L62" s="2" t="b">
         <v>1</v>
@@ -3470,20 +3482,20 @@
     </row>
     <row r="63" customFormat="1" ht="17" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B63" s="1">
+        <v>203</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C63" s="1">
         <v>9</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="D63" s="1">
         <v>2</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="1" t="b">
@@ -3491,10 +3503,10 @@
       </c>
       <c r="I63" s="1"/>
       <c r="J63" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K63" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L63" s="2" t="b">
         <v>1</v>
@@ -3541,20 +3553,20 @@
     </row>
     <row r="68" customFormat="1" ht="17" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B68" s="1">
+        <v>208</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C68" s="1">
         <v>9</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="D68" s="1">
         <v>1</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G68" s="2"/>
       <c r="H68" s="1" t="b">
@@ -3562,10 +3574,10 @@
       </c>
       <c r="I68" s="1"/>
       <c r="J68" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K68" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L68" s="2" t="b">
         <v>1</v>
@@ -3573,20 +3585,20 @@
     </row>
     <row r="69" customFormat="1" ht="17" spans="1:12">
       <c r="A69" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B69" s="1">
+        <v>213</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C69" s="1">
         <v>9</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="D69" s="1">
         <v>1</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="1" t="b">
@@ -3594,10 +3606,10 @@
       </c>
       <c r="I69" s="1"/>
       <c r="J69" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K69" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L69" s="2" t="b">
         <v>1</v>
@@ -3631,25 +3643,25 @@
     </row>
     <row r="72" ht="17" spans="1:12">
       <c r="A72" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B72" s="1">
+        <v>218</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C72" s="1">
         <v>10</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="F72" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H72" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K72" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L72" t="b">
         <v>1</v>
@@ -3670,93 +3682,97 @@
     </row>
     <row r="75" ht="17" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B75" s="1">
+        <v>222</v>
+      </c>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1">
         <v>99</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H75" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="76" ht="17" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B76" s="1">
+        <v>225</v>
+      </c>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1">
         <v>99</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H76" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="77" ht="17" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B77" s="1">
+        <v>228</v>
+      </c>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1">
         <v>99</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H77" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="78" ht="17" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B78" s="1">
+        <v>231</v>
+      </c>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1">
         <v>99</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H78" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="80" ht="17" spans="1:12">
       <c r="A80" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B80" s="1">
+        <v>234</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C80" s="1">
         <v>99</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="F80" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H80" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K80" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L80" t="b">
         <v>1</v>
@@ -3764,25 +3780,25 @@
     </row>
     <row r="81" ht="17" spans="1:12">
       <c r="A81" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B81" s="1">
+        <v>239</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C81" s="1">
         <v>99</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>239</v>
-      </c>
       <c r="F81" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H81" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K81" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L81" t="b">
         <v>1</v>
@@ -3790,25 +3806,25 @@
     </row>
     <row r="82" ht="17" spans="1:12">
       <c r="A82" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B82" s="1">
+        <v>244</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C82" s="1">
         <v>99</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="F82" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H82" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K82" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L82" t="b">
         <v>1</v>
@@ -3816,13 +3832,13 @@
     </row>
     <row r="84" customFormat="1" ht="17" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B84" s="1">
+        <v>249</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C84" s="1">
         <v>99</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -3833,17 +3849,17 @@
       </c>
       <c r="I84" s="1"/>
       <c r="J84" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="85" customFormat="1" ht="17" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B85" s="1">
+        <v>252</v>
+      </c>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1">
         <v>99</v>
       </c>
-      <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="2"/>
@@ -3853,17 +3869,17 @@
       </c>
       <c r="I85" s="1"/>
       <c r="J85" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="86" customFormat="1" ht="17" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B86" s="1">
+        <v>254</v>
+      </c>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1">
         <v>99</v>
       </c>
-      <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="2"/>
@@ -3873,17 +3889,17 @@
       </c>
       <c r="I86" s="1"/>
       <c r="J86" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="87" customFormat="1" ht="17" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B87" s="1">
+        <v>256</v>
+      </c>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1">
         <v>99</v>
       </c>
-      <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="2"/>
@@ -3893,17 +3909,17 @@
       </c>
       <c r="I87" s="1"/>
       <c r="J87" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="88" customFormat="1" ht="17" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B88" s="1">
+        <v>258</v>
+      </c>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1">
         <v>99</v>
       </c>
-      <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="2"/>
@@ -3913,18 +3929,18 @@
       </c>
       <c r="I88" s="1"/>
       <c r="J88" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="89" customFormat="1" ht="17" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B89" s="1">
+        <v>260</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C89" s="1">
         <v>99</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -3935,18 +3951,18 @@
       </c>
       <c r="I89" s="1"/>
       <c r="J89" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="90" customFormat="1" ht="17" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B90" s="1">
+        <v>263</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C90" s="1">
         <v>99</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -3957,18 +3973,18 @@
       </c>
       <c r="I90" s="1"/>
       <c r="J90" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="91" customFormat="1" ht="17" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B91" s="1">
+        <v>266</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C91" s="1">
         <v>99</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -3979,18 +3995,18 @@
       </c>
       <c r="I91" s="1"/>
       <c r="J91" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="92" customFormat="1" ht="17" spans="1:10">
       <c r="A92" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="B92" s="5">
+        <v>269</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C92" s="5">
         <v>99</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>269</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -4001,18 +4017,18 @@
       </c>
       <c r="I92" s="5"/>
       <c r="J92" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="93" customFormat="1" ht="17" spans="1:10">
       <c r="A93" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="B93" s="5">
+        <v>272</v>
+      </c>
+      <c r="B93" t="s">
+        <v>273</v>
+      </c>
+      <c r="C93" s="5">
         <v>99</v>
-      </c>
-      <c r="C93" t="s">
-        <v>272</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
@@ -4023,18 +4039,18 @@
       </c>
       <c r="I93" s="5"/>
       <c r="J93" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="94" customFormat="1" ht="17" spans="1:10">
       <c r="A94" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B94" s="5">
+        <v>275</v>
+      </c>
+      <c r="B94" t="s">
+        <v>276</v>
+      </c>
+      <c r="C94" s="5">
         <v>99</v>
-      </c>
-      <c r="C94" t="s">
-        <v>275</v>
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
@@ -4045,35 +4061,35 @@
       </c>
       <c r="I94" s="5"/>
       <c r="J94" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="95" ht="17" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B95" s="1">
+        <v>278</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C95" s="1">
         <v>99</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="H95" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="96" customFormat="1" ht="17" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B96" s="1">
+        <v>281</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C96" s="1">
         <v>99</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>281</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -4084,18 +4100,18 @@
       </c>
       <c r="I96" s="1"/>
       <c r="J96" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="97" customFormat="1" ht="17" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B97" s="1">
+        <v>284</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C97" s="1">
         <v>99</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>284</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -4106,18 +4122,18 @@
       </c>
       <c r="I97" s="1"/>
       <c r="J97" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="98" customFormat="1" ht="17" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B98" s="1">
+        <v>287</v>
+      </c>
+      <c r="B98" t="s">
+        <v>288</v>
+      </c>
+      <c r="C98" s="1">
         <v>99</v>
-      </c>
-      <c r="C98" t="s">
-        <v>287</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -4128,18 +4144,18 @@
       </c>
       <c r="I98" s="1"/>
       <c r="J98" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="99" customFormat="1" ht="17" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B99" s="1">
+        <v>290</v>
+      </c>
+      <c r="B99" t="s">
+        <v>291</v>
+      </c>
+      <c r="C99" s="1">
         <v>99</v>
-      </c>
-      <c r="C99" t="s">
-        <v>290</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -4150,18 +4166,18 @@
       </c>
       <c r="I99" s="1"/>
       <c r="J99" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="100" customFormat="1" ht="17" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B100" s="1">
+        <v>293</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C100" s="1">
         <v>99</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -4172,18 +4188,18 @@
       </c>
       <c r="I100" s="1"/>
       <c r="J100" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="101" customFormat="1" ht="17" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B101" s="1">
+        <v>296</v>
+      </c>
+      <c r="B101" t="s">
+        <v>297</v>
+      </c>
+      <c r="C101" s="1">
         <v>99</v>
-      </c>
-      <c r="C101" t="s">
-        <v>296</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -4194,18 +4210,18 @@
       </c>
       <c r="I101" s="1"/>
       <c r="J101" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="102" customFormat="1" ht="17" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B102" s="1">
+        <v>299</v>
+      </c>
+      <c r="B102" t="s">
+        <v>300</v>
+      </c>
+      <c r="C102" s="1">
         <v>99</v>
-      </c>
-      <c r="C102" t="s">
-        <v>299</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -4216,18 +4232,18 @@
       </c>
       <c r="I102" s="1"/>
       <c r="J102" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="103" customFormat="1" ht="17" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B103" s="1">
+        <v>302</v>
+      </c>
+      <c r="B103" t="s">
+        <v>303</v>
+      </c>
+      <c r="C103" s="1">
         <v>99</v>
-      </c>
-      <c r="C103" t="s">
-        <v>302</v>
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -4238,18 +4254,18 @@
       </c>
       <c r="I103" s="1"/>
       <c r="J103" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="104" customFormat="1" ht="17" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B104" s="1">
+        <v>305</v>
+      </c>
+      <c r="B104" t="s">
+        <v>306</v>
+      </c>
+      <c r="C104" s="1">
         <v>99</v>
-      </c>
-      <c r="C104" t="s">
-        <v>305</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -4260,18 +4276,18 @@
       </c>
       <c r="I104" s="1"/>
       <c r="J104" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="105" customFormat="1" ht="17" spans="1:10">
       <c r="A105" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B105" s="1">
+        <v>308</v>
+      </c>
+      <c r="B105" t="s">
+        <v>309</v>
+      </c>
+      <c r="C105" s="1">
         <v>99</v>
-      </c>
-      <c r="C105" t="s">
-        <v>308</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -4282,18 +4298,18 @@
       </c>
       <c r="I105" s="1"/>
       <c r="J105" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="106" customFormat="1" ht="17" spans="1:10">
       <c r="A106" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B106" s="1">
+        <v>311</v>
+      </c>
+      <c r="B106" t="s">
+        <v>312</v>
+      </c>
+      <c r="C106" s="1">
         <v>99</v>
-      </c>
-      <c r="C106" t="s">
-        <v>311</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -4304,18 +4320,18 @@
       </c>
       <c r="I106" s="1"/>
       <c r="J106" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="107" customFormat="1" ht="17" spans="1:10">
       <c r="A107" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B107" s="1">
+        <v>314</v>
+      </c>
+      <c r="B107" t="s">
+        <v>315</v>
+      </c>
+      <c r="C107" s="1">
         <v>99</v>
-      </c>
-      <c r="C107" t="s">
-        <v>314</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -4326,18 +4342,18 @@
       </c>
       <c r="I107" s="1"/>
       <c r="J107" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="108" customFormat="1" ht="17" spans="1:10">
       <c r="A108" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B108" s="1">
+        <v>317</v>
+      </c>
+      <c r="B108" t="s">
+        <v>318</v>
+      </c>
+      <c r="C108" s="1">
         <v>99</v>
-      </c>
-      <c r="C108" t="s">
-        <v>317</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -4348,18 +4364,18 @@
       </c>
       <c r="I108" s="1"/>
       <c r="J108" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="109" customFormat="1" ht="17" spans="1:10">
       <c r="A109" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B109" s="1">
+        <v>320</v>
+      </c>
+      <c r="B109" t="s">
+        <v>321</v>
+      </c>
+      <c r="C109" s="1">
         <v>99</v>
-      </c>
-      <c r="C109" t="s">
-        <v>320</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -4370,18 +4386,18 @@
       </c>
       <c r="I109" s="1"/>
       <c r="J109" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="110" ht="17" spans="1:10">
       <c r="A110" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="B110" s="5">
+        <v>323</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="C110" s="5">
         <v>99</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>323</v>
       </c>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
@@ -4392,18 +4408,18 @@
       </c>
       <c r="I110" s="5"/>
       <c r="J110" s="8" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="111" customFormat="1" ht="17" spans="1:10">
       <c r="A111" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="B111" s="5">
+        <v>326</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C111" s="5">
         <v>99</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>269</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
@@ -4414,18 +4430,18 @@
       </c>
       <c r="I111" s="5"/>
       <c r="J111" s="8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="112" customFormat="1" ht="17" spans="1:10">
       <c r="A112" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="B112" s="5">
+        <v>328</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C112" s="5">
         <v>99</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>328</v>
       </c>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
@@ -4436,18 +4452,18 @@
       </c>
       <c r="I112" s="5"/>
       <c r="J112" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="113" customFormat="1" ht="17" spans="1:10">
       <c r="A113" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="B113" s="5">
+        <v>331</v>
+      </c>
+      <c r="B113" t="s">
+        <v>332</v>
+      </c>
+      <c r="C113" s="5">
         <v>99</v>
-      </c>
-      <c r="C113" t="s">
-        <v>331</v>
       </c>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
@@ -4458,18 +4474,18 @@
       </c>
       <c r="I113" s="5"/>
       <c r="J113" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="114" customFormat="1" ht="17" spans="1:10">
       <c r="A114" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="B114" s="5">
+        <v>334</v>
+      </c>
+      <c r="B114" t="s">
+        <v>335</v>
+      </c>
+      <c r="C114" s="5">
         <v>99</v>
-      </c>
-      <c r="C114" t="s">
-        <v>334</v>
       </c>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
@@ -4480,18 +4496,18 @@
       </c>
       <c r="I114" s="5"/>
       <c r="J114" s="8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="115" ht="17" spans="1:10">
       <c r="A115" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="B115" s="5">
+        <v>337</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="C115" s="5">
         <v>99</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>337</v>
       </c>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
@@ -4502,7 +4518,7 @@
       </c>
       <c r="I115" s="5"/>
       <c r="J115" s="8" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>

--- a/DungeonShooting_Godot/excel/ActivityBase.xlsx
+++ b/DungeonShooting_Godot/excel/ActivityBase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="339">
   <si>
     <t>Id</t>
   </si>
@@ -595,9 +595,6 @@
   </si>
   <si>
     <t>子弹数量翻倍, 但是精准度, 击退和伤害降低</t>
-  </si>
-  <si>
-    <t>res://prefab/prop/buff/BuffProp0010.tscn</t>
   </si>
   <si>
     <t>res://resource/sprite/prop/buff/BuffProp0010.png</t>
@@ -2112,11 +2109,11 @@
   <dimension ref="A1:L115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="H36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="I46" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J50" sqref="J50"/>
+      <selection pane="bottomRight" activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -3375,10 +3372,10 @@
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K59" t="s">
         <v>186</v>
-      </c>
-      <c r="K59" t="s">
-        <v>187</v>
       </c>
       <c r="L59" s="2" t="b">
         <v>1</v>
@@ -3386,10 +3383,10 @@
     </row>
     <row r="60" customFormat="1" ht="17" spans="1:12">
       <c r="A60" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="C60" s="1">
         <v>9</v>
@@ -3399,7 +3396,7 @@
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="1" t="b">
@@ -3407,10 +3404,10 @@
       </c>
       <c r="I60" s="1"/>
       <c r="J60" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K60" t="s">
         <v>191</v>
-      </c>
-      <c r="K60" t="s">
-        <v>192</v>
       </c>
       <c r="L60" s="2" t="b">
         <v>1</v>
@@ -3418,10 +3415,10 @@
     </row>
     <row r="61" customFormat="1" ht="17" spans="1:12">
       <c r="A61" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="C61" s="1">
         <v>9</v>
@@ -3431,7 +3428,7 @@
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="1" t="b">
@@ -3439,10 +3436,10 @@
       </c>
       <c r="I61" s="1"/>
       <c r="J61" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K61" t="s">
         <v>196</v>
-      </c>
-      <c r="K61" t="s">
-        <v>197</v>
       </c>
       <c r="L61" s="2" t="b">
         <v>1</v>
@@ -3450,10 +3447,10 @@
     </row>
     <row r="62" customFormat="1" ht="17" spans="1:12">
       <c r="A62" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="C62" s="1">
         <v>9</v>
@@ -3463,7 +3460,7 @@
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="1" t="b">
@@ -3471,10 +3468,10 @@
       </c>
       <c r="I62" s="1"/>
       <c r="J62" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="K62" t="s">
         <v>201</v>
-      </c>
-      <c r="K62" t="s">
-        <v>202</v>
       </c>
       <c r="L62" s="2" t="b">
         <v>1</v>
@@ -3482,10 +3479,10 @@
     </row>
     <row r="63" customFormat="1" ht="17" spans="1:12">
       <c r="A63" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="C63" s="1">
         <v>9</v>
@@ -3495,7 +3492,7 @@
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="1" t="b">
@@ -3503,10 +3500,10 @@
       </c>
       <c r="I63" s="1"/>
       <c r="J63" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="K63" t="s">
         <v>206</v>
-      </c>
-      <c r="K63" t="s">
-        <v>207</v>
       </c>
       <c r="L63" s="2" t="b">
         <v>1</v>
@@ -3553,10 +3550,10 @@
     </row>
     <row r="68" customFormat="1" ht="17" spans="1:12">
       <c r="A68" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="C68" s="1">
         <v>9</v>
@@ -3566,7 +3563,7 @@
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G68" s="2"/>
       <c r="H68" s="1" t="b">
@@ -3574,10 +3571,10 @@
       </c>
       <c r="I68" s="1"/>
       <c r="J68" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="K68" t="s">
         <v>211</v>
-      </c>
-      <c r="K68" t="s">
-        <v>212</v>
       </c>
       <c r="L68" s="2" t="b">
         <v>1</v>
@@ -3585,10 +3582,10 @@
     </row>
     <row r="69" customFormat="1" ht="17" spans="1:12">
       <c r="A69" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="C69" s="1">
         <v>9</v>
@@ -3598,7 +3595,7 @@
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="1" t="b">
@@ -3606,10 +3603,10 @@
       </c>
       <c r="I69" s="1"/>
       <c r="J69" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="K69" t="s">
         <v>216</v>
-      </c>
-      <c r="K69" t="s">
-        <v>217</v>
       </c>
       <c r="L69" s="2" t="b">
         <v>1</v>
@@ -3643,25 +3640,25 @@
     </row>
     <row r="72" ht="17" spans="1:12">
       <c r="A72" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="C72" s="1">
         <v>10</v>
       </c>
       <c r="F72" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H72" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J72" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="H72" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J72" s="3" t="s">
+      <c r="K72" t="s">
         <v>220</v>
-      </c>
-      <c r="K72" t="s">
-        <v>221</v>
       </c>
       <c r="L72" t="b">
         <v>1</v>
@@ -3682,97 +3679,97 @@
     </row>
     <row r="75" ht="17" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1">
         <v>99</v>
       </c>
       <c r="F75" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H75" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J75" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="H75" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J75" s="3" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="76" ht="17" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1">
         <v>99</v>
       </c>
       <c r="F76" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="H76" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J76" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="H76" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="77" ht="17" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1">
         <v>99</v>
       </c>
       <c r="F77" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H77" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J77" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="H77" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J77" s="3" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="78" ht="17" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1">
         <v>99</v>
       </c>
       <c r="F78" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="H78" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J78" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="H78" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J78" s="3" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="80" ht="17" spans="1:12">
       <c r="A80" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>235</v>
       </c>
       <c r="C80" s="1">
         <v>99</v>
       </c>
       <c r="F80" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="H80" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="H80" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" s="3" t="s">
+      <c r="K80" t="s">
         <v>237</v>
-      </c>
-      <c r="K80" t="s">
-        <v>238</v>
       </c>
       <c r="L80" t="b">
         <v>1</v>
@@ -3780,25 +3777,25 @@
     </row>
     <row r="81" ht="17" spans="1:12">
       <c r="A81" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="C81" s="1">
         <v>99</v>
       </c>
       <c r="F81" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="H81" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="H81" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3" t="s">
+      <c r="K81" t="s">
         <v>242</v>
-      </c>
-      <c r="K81" t="s">
-        <v>243</v>
       </c>
       <c r="L81" t="b">
         <v>1</v>
@@ -3806,25 +3803,25 @@
     </row>
     <row r="82" ht="17" spans="1:12">
       <c r="A82" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="C82" s="1">
         <v>99</v>
       </c>
       <c r="F82" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="H82" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J82" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="H82" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J82" s="3" t="s">
+      <c r="K82" t="s">
         <v>247</v>
-      </c>
-      <c r="K82" t="s">
-        <v>248</v>
       </c>
       <c r="L82" t="b">
         <v>1</v>
@@ -3832,10 +3829,10 @@
     </row>
     <row r="84" customFormat="1" ht="17" spans="1:10">
       <c r="A84" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="C84" s="1">
         <v>99</v>
@@ -3849,12 +3846,12 @@
       </c>
       <c r="I84" s="1"/>
       <c r="J84" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="85" customFormat="1" ht="17" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1">
@@ -3869,12 +3866,12 @@
       </c>
       <c r="I85" s="1"/>
       <c r="J85" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="86" customFormat="1" ht="17" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1">
@@ -3889,12 +3886,12 @@
       </c>
       <c r="I86" s="1"/>
       <c r="J86" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="87" customFormat="1" ht="17" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1">
@@ -3909,12 +3906,12 @@
       </c>
       <c r="I87" s="1"/>
       <c r="J87" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="88" customFormat="1" ht="17" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1">
@@ -3929,15 +3926,15 @@
       </c>
       <c r="I88" s="1"/>
       <c r="J88" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="89" customFormat="1" ht="17" spans="1:10">
       <c r="A89" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>261</v>
       </c>
       <c r="C89" s="1">
         <v>99</v>
@@ -3951,15 +3948,15 @@
       </c>
       <c r="I89" s="1"/>
       <c r="J89" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="90" customFormat="1" ht="17" spans="1:10">
       <c r="A90" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="C90" s="1">
         <v>99</v>
@@ -3973,15 +3970,15 @@
       </c>
       <c r="I90" s="1"/>
       <c r="J90" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="91" customFormat="1" ht="17" spans="1:10">
       <c r="A91" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="C91" s="1">
         <v>99</v>
@@ -3995,15 +3992,15 @@
       </c>
       <c r="I91" s="1"/>
       <c r="J91" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="92" customFormat="1" ht="17" spans="1:10">
       <c r="A92" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B92" s="6" t="s">
         <v>269</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>270</v>
       </c>
       <c r="C92" s="5">
         <v>99</v>
@@ -4017,15 +4014,15 @@
       </c>
       <c r="I92" s="5"/>
       <c r="J92" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="93" customFormat="1" ht="17" spans="1:10">
       <c r="A93" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B93" t="s">
         <v>272</v>
-      </c>
-      <c r="B93" t="s">
-        <v>273</v>
       </c>
       <c r="C93" s="5">
         <v>99</v>
@@ -4039,15 +4036,15 @@
       </c>
       <c r="I93" s="5"/>
       <c r="J93" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="94" customFormat="1" ht="17" spans="1:10">
       <c r="A94" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B94" t="s">
         <v>275</v>
-      </c>
-      <c r="B94" t="s">
-        <v>276</v>
       </c>
       <c r="C94" s="5">
         <v>99</v>
@@ -4061,15 +4058,15 @@
       </c>
       <c r="I94" s="5"/>
       <c r="J94" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="95" ht="17" spans="1:10">
       <c r="A95" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>279</v>
       </c>
       <c r="C95" s="1">
         <v>99</v>
@@ -4078,15 +4075,15 @@
         <v>1</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="96" customFormat="1" ht="17" spans="1:10">
       <c r="A96" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>282</v>
       </c>
       <c r="C96" s="1">
         <v>99</v>
@@ -4100,15 +4097,15 @@
       </c>
       <c r="I96" s="1"/>
       <c r="J96" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="97" customFormat="1" ht="17" spans="1:10">
       <c r="A97" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>285</v>
       </c>
       <c r="C97" s="1">
         <v>99</v>
@@ -4122,15 +4119,15 @@
       </c>
       <c r="I97" s="1"/>
       <c r="J97" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="98" customFormat="1" ht="17" spans="1:10">
       <c r="A98" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B98" t="s">
         <v>287</v>
-      </c>
-      <c r="B98" t="s">
-        <v>288</v>
       </c>
       <c r="C98" s="1">
         <v>99</v>
@@ -4144,15 +4141,15 @@
       </c>
       <c r="I98" s="1"/>
       <c r="J98" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="99" customFormat="1" ht="17" spans="1:10">
       <c r="A99" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B99" t="s">
         <v>290</v>
-      </c>
-      <c r="B99" t="s">
-        <v>291</v>
       </c>
       <c r="C99" s="1">
         <v>99</v>
@@ -4166,15 +4163,15 @@
       </c>
       <c r="I99" s="1"/>
       <c r="J99" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="100" customFormat="1" ht="17" spans="1:10">
       <c r="A100" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="C100" s="1">
         <v>99</v>
@@ -4188,15 +4185,15 @@
       </c>
       <c r="I100" s="1"/>
       <c r="J100" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="101" customFormat="1" ht="17" spans="1:10">
       <c r="A101" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B101" t="s">
         <v>296</v>
-      </c>
-      <c r="B101" t="s">
-        <v>297</v>
       </c>
       <c r="C101" s="1">
         <v>99</v>
@@ -4210,15 +4207,15 @@
       </c>
       <c r="I101" s="1"/>
       <c r="J101" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="102" customFormat="1" ht="17" spans="1:10">
       <c r="A102" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B102" t="s">
         <v>299</v>
-      </c>
-      <c r="B102" t="s">
-        <v>300</v>
       </c>
       <c r="C102" s="1">
         <v>99</v>
@@ -4232,15 +4229,15 @@
       </c>
       <c r="I102" s="1"/>
       <c r="J102" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="103" customFormat="1" ht="17" spans="1:10">
       <c r="A103" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B103" t="s">
         <v>302</v>
-      </c>
-      <c r="B103" t="s">
-        <v>303</v>
       </c>
       <c r="C103" s="1">
         <v>99</v>
@@ -4254,15 +4251,15 @@
       </c>
       <c r="I103" s="1"/>
       <c r="J103" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="104" customFormat="1" ht="17" spans="1:10">
       <c r="A104" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B104" t="s">
         <v>305</v>
-      </c>
-      <c r="B104" t="s">
-        <v>306</v>
       </c>
       <c r="C104" s="1">
         <v>99</v>
@@ -4276,15 +4273,15 @@
       </c>
       <c r="I104" s="1"/>
       <c r="J104" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="105" customFormat="1" ht="17" spans="1:10">
       <c r="A105" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B105" t="s">
         <v>308</v>
-      </c>
-      <c r="B105" t="s">
-        <v>309</v>
       </c>
       <c r="C105" s="1">
         <v>99</v>
@@ -4298,15 +4295,15 @@
       </c>
       <c r="I105" s="1"/>
       <c r="J105" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="106" customFormat="1" ht="17" spans="1:10">
       <c r="A106" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B106" t="s">
         <v>311</v>
-      </c>
-      <c r="B106" t="s">
-        <v>312</v>
       </c>
       <c r="C106" s="1">
         <v>99</v>
@@ -4320,15 +4317,15 @@
       </c>
       <c r="I106" s="1"/>
       <c r="J106" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="107" customFormat="1" ht="17" spans="1:10">
       <c r="A107" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B107" t="s">
         <v>314</v>
-      </c>
-      <c r="B107" t="s">
-        <v>315</v>
       </c>
       <c r="C107" s="1">
         <v>99</v>
@@ -4342,15 +4339,15 @@
       </c>
       <c r="I107" s="1"/>
       <c r="J107" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="108" customFormat="1" ht="17" spans="1:10">
       <c r="A108" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B108" t="s">
         <v>317</v>
-      </c>
-      <c r="B108" t="s">
-        <v>318</v>
       </c>
       <c r="C108" s="1">
         <v>99</v>
@@ -4364,15 +4361,15 @@
       </c>
       <c r="I108" s="1"/>
       <c r="J108" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="109" customFormat="1" ht="17" spans="1:10">
       <c r="A109" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B109" t="s">
         <v>320</v>
-      </c>
-      <c r="B109" t="s">
-        <v>321</v>
       </c>
       <c r="C109" s="1">
         <v>99</v>
@@ -4386,15 +4383,15 @@
       </c>
       <c r="I109" s="1"/>
       <c r="J109" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="110" ht="17" spans="1:10">
       <c r="A110" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B110" s="6" t="s">
         <v>323</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>324</v>
       </c>
       <c r="C110" s="5">
         <v>99</v>
@@ -4408,15 +4405,15 @@
       </c>
       <c r="I110" s="5"/>
       <c r="J110" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="111" customFormat="1" ht="17" spans="1:10">
       <c r="A111" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C111" s="5">
         <v>99</v>
@@ -4430,15 +4427,15 @@
       </c>
       <c r="I111" s="5"/>
       <c r="J111" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="112" customFormat="1" ht="17" spans="1:10">
       <c r="A112" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B112" s="6" t="s">
         <v>328</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>329</v>
       </c>
       <c r="C112" s="5">
         <v>99</v>
@@ -4452,15 +4449,15 @@
       </c>
       <c r="I112" s="5"/>
       <c r="J112" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="113" customFormat="1" ht="17" spans="1:10">
       <c r="A113" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B113" t="s">
         <v>331</v>
-      </c>
-      <c r="B113" t="s">
-        <v>332</v>
       </c>
       <c r="C113" s="5">
         <v>99</v>
@@ -4474,15 +4471,15 @@
       </c>
       <c r="I113" s="5"/>
       <c r="J113" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="114" customFormat="1" ht="17" spans="1:10">
       <c r="A114" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B114" t="s">
         <v>334</v>
-      </c>
-      <c r="B114" t="s">
-        <v>335</v>
       </c>
       <c r="C114" s="5">
         <v>99</v>
@@ -4496,15 +4493,15 @@
       </c>
       <c r="I114" s="5"/>
       <c r="J114" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="115" ht="17" spans="1:10">
       <c r="A115" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B115" s="6" t="s">
         <v>337</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>338</v>
       </c>
       <c r="C115" s="5">
         <v>99</v>
@@ -4518,7 +4515,7 @@
       </c>
       <c r="I115" s="5"/>
       <c r="J115" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>

--- a/DungeonShooting_Godot/excel/ActivityBase.xlsx
+++ b/DungeonShooting_Godot/excel/ActivityBase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="327">
   <si>
     <t>Id</t>
   </si>
@@ -477,9 +477,6 @@
     <t>提高血量上限</t>
   </si>
   <si>
-    <t>res://prefab/prop/buff/BuffProp0002.tscn</t>
-  </si>
-  <si>
     <t>res://resource/sprite/prop/buff/BuffProp0002.png</t>
   </si>
   <si>
@@ -492,9 +489,6 @@
     <t>可以抵挡子弹，随时间推移自动恢复</t>
   </si>
   <si>
-    <t>res://prefab/prop/buff/BuffProp0003.tscn</t>
-  </si>
-  <si>
     <t>res://resource/sprite/prop/buff/BuffProp0003.png</t>
   </si>
   <si>
@@ -507,9 +501,6 @@
     <t>提高护盾恢复速度</t>
   </si>
   <si>
-    <t>res://prefab/prop/buff/BuffProp0004.tscn</t>
-  </si>
-  <si>
     <t>res://resource/sprite/prop/buff/BuffProp0004.png</t>
   </si>
   <si>
@@ -522,9 +513,6 @@
     <t>提高子弹伤害</t>
   </si>
   <si>
-    <t>res://prefab/prop/buff/BuffProp0005.tscn</t>
-  </si>
-  <si>
     <t>res://resource/sprite/prop/buff/BuffProp0005.png</t>
   </si>
   <si>
@@ -537,9 +525,6 @@
     <t>受伤后延长无敌时间</t>
   </si>
   <si>
-    <t>res://prefab/prop/buff/BuffProp0006.tscn</t>
-  </si>
-  <si>
     <t>res://resource/sprite/prop/buff/BuffProp0006.png</t>
   </si>
   <si>
@@ -552,9 +537,6 @@
     <t>受伤时有一定概率抵消伤害</t>
   </si>
   <si>
-    <t>res://prefab/prop/buff/BuffProp0007.tscn</t>
-  </si>
-  <si>
     <t>res://resource/sprite/prop/buff/BuffProp0007.png</t>
   </si>
   <si>
@@ -567,9 +549,6 @@
     <t>提高武器精准度</t>
   </si>
   <si>
-    <t>res://prefab/prop/buff/BuffProp0008.tscn</t>
-  </si>
-  <si>
     <t>res://resource/sprite/prop/buff/BuffProp0008.png</t>
   </si>
   <si>
@@ -582,9 +561,6 @@
     <t>提高子弹速度和射程</t>
   </si>
   <si>
-    <t>res://prefab/prop/buff/BuffProp0009.tscn</t>
-  </si>
-  <si>
     <t>res://resource/sprite/prop/buff/BuffProp0009.png</t>
   </si>
   <si>
@@ -609,9 +585,6 @@
     <t>子弹反弹次数+2</t>
   </si>
   <si>
-    <t>res://prefab/prop/buff/BuffProp0011.tscn</t>
-  </si>
-  <si>
     <t>res://resource/sprite/prop/buff/BuffProp0011.png</t>
   </si>
   <si>
@@ -624,9 +597,6 @@
     <t>子弹穿透+1</t>
   </si>
   <si>
-    <t>res://prefab/prop/buff/BuffProp0012.tscn</t>
-  </si>
-  <si>
     <t>res://resource/sprite/prop/buff/BuffProp0012.png</t>
   </si>
   <si>
@@ -639,9 +609,6 @@
     <t>武器容量+1</t>
   </si>
   <si>
-    <t>res://prefab/prop/buff/BuffProp0013.tscn</t>
-  </si>
-  <si>
     <t>res://resource/sprite/prop/buff/BuffProp0013.png</t>
   </si>
   <si>
@@ -652,9 +619,6 @@
   </si>
   <si>
     <t>道具容量+1</t>
-  </si>
-  <si>
-    <t>res://prefab/prop/buff/BuffProp0014.tscn</t>
   </si>
   <si>
     <t>res://resource/sprite/prop/buff/BuffProp0014.png</t>
@@ -2108,12 +2072,12 @@
   <sheetPr/>
   <dimension ref="A1:L115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="I46" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="G51" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J59" sqref="J59"/>
+      <selection pane="bottomRight" activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -3116,10 +3080,10 @@
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K51" t="s">
         <v>146</v>
-      </c>
-      <c r="K51" t="s">
-        <v>147</v>
       </c>
       <c r="L51" s="2" t="b">
         <v>1</v>
@@ -3127,10 +3091,10 @@
     </row>
     <row r="52" customFormat="1" ht="17" spans="1:12">
       <c r="A52" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="C52" s="1">
         <v>9</v>
@@ -3140,7 +3104,7 @@
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="1" t="b">
@@ -3148,10 +3112,10 @@
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="3" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="K52" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L52" s="2" t="b">
         <v>1</v>
@@ -3159,10 +3123,10 @@
     </row>
     <row r="53" customFormat="1" ht="17" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C53" s="1">
         <v>9</v>
@@ -3172,7 +3136,7 @@
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="1" t="b">
@@ -3180,10 +3144,10 @@
       </c>
       <c r="I53" s="1"/>
       <c r="J53" s="3" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="K53" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L53" s="2" t="b">
         <v>1</v>
@@ -3191,10 +3155,10 @@
     </row>
     <row r="54" customFormat="1" ht="17" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C54" s="1">
         <v>9</v>
@@ -3204,7 +3168,7 @@
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="1" t="b">
@@ -3212,10 +3176,10 @@
       </c>
       <c r="I54" s="1"/>
       <c r="J54" s="3" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="K54" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="L54" s="2" t="b">
         <v>1</v>
@@ -3223,10 +3187,10 @@
     </row>
     <row r="55" customFormat="1" ht="17" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C55" s="1">
         <v>9</v>
@@ -3236,7 +3200,7 @@
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="1" t="b">
@@ -3244,10 +3208,10 @@
       </c>
       <c r="I55" s="1"/>
       <c r="J55" s="3" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="K55" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="L55" s="2" t="b">
         <v>1</v>
@@ -3255,10 +3219,10 @@
     </row>
     <row r="56" customFormat="1" ht="17" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C56" s="1">
         <v>9</v>
@@ -3268,7 +3232,7 @@
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="1" t="b">
@@ -3276,10 +3240,10 @@
       </c>
       <c r="I56" s="1"/>
       <c r="J56" s="3" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="K56" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L56" s="2" t="b">
         <v>1</v>
@@ -3287,10 +3251,10 @@
     </row>
     <row r="57" customFormat="1" ht="17" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C57" s="1">
         <v>9</v>
@@ -3300,7 +3264,7 @@
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="1" t="b">
@@ -3308,10 +3272,10 @@
       </c>
       <c r="I57" s="1"/>
       <c r="J57" s="3" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="K57" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="L57" s="2" t="b">
         <v>1</v>
@@ -3319,10 +3283,10 @@
     </row>
     <row r="58" customFormat="1" ht="17" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C58" s="1">
         <v>9</v>
@@ -3332,7 +3296,7 @@
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="2" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="1" t="b">
@@ -3340,10 +3304,10 @@
       </c>
       <c r="I58" s="1"/>
       <c r="J58" s="3" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
       <c r="K58" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L58" s="2" t="b">
         <v>1</v>
@@ -3351,10 +3315,10 @@
     </row>
     <row r="59" customFormat="1" ht="34" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C59" s="1">
         <v>9</v>
@@ -3364,7 +3328,7 @@
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="2" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="1" t="b">
@@ -3375,7 +3339,7 @@
         <v>141</v>
       </c>
       <c r="K59" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="L59" s="2" t="b">
         <v>1</v>
@@ -3383,10 +3347,10 @@
     </row>
     <row r="60" customFormat="1" ht="17" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C60" s="1">
         <v>9</v>
@@ -3396,7 +3360,7 @@
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="2" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="1" t="b">
@@ -3404,10 +3368,10 @@
       </c>
       <c r="I60" s="1"/>
       <c r="J60" s="3" t="s">
-        <v>190</v>
+        <v>141</v>
       </c>
       <c r="K60" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="L60" s="2" t="b">
         <v>1</v>
@@ -3415,10 +3379,10 @@
     </row>
     <row r="61" customFormat="1" ht="17" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C61" s="1">
         <v>9</v>
@@ -3428,7 +3392,7 @@
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="1" t="b">
@@ -3436,10 +3400,10 @@
       </c>
       <c r="I61" s="1"/>
       <c r="J61" s="3" t="s">
-        <v>195</v>
+        <v>141</v>
       </c>
       <c r="K61" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="L61" s="2" t="b">
         <v>1</v>
@@ -3447,10 +3411,10 @@
     </row>
     <row r="62" customFormat="1" ht="17" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C62" s="1">
         <v>9</v>
@@ -3460,7 +3424,7 @@
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="2" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="1" t="b">
@@ -3468,10 +3432,10 @@
       </c>
       <c r="I62" s="1"/>
       <c r="J62" s="3" t="s">
-        <v>200</v>
+        <v>141</v>
       </c>
       <c r="K62" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="L62" s="2" t="b">
         <v>1</v>
@@ -3479,10 +3443,10 @@
     </row>
     <row r="63" customFormat="1" ht="17" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="C63" s="1">
         <v>9</v>
@@ -3492,7 +3456,7 @@
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="2" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="1" t="b">
@@ -3500,10 +3464,10 @@
       </c>
       <c r="I63" s="1"/>
       <c r="J63" s="3" t="s">
-        <v>205</v>
+        <v>141</v>
       </c>
       <c r="K63" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="L63" s="2" t="b">
         <v>1</v>
@@ -3550,10 +3514,10 @@
     </row>
     <row r="68" customFormat="1" ht="17" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C68" s="1">
         <v>9</v>
@@ -3563,7 +3527,7 @@
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="2" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="G68" s="2"/>
       <c r="H68" s="1" t="b">
@@ -3571,10 +3535,10 @@
       </c>
       <c r="I68" s="1"/>
       <c r="J68" s="3" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="K68" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="L68" s="2" t="b">
         <v>1</v>
@@ -3582,10 +3546,10 @@
     </row>
     <row r="69" customFormat="1" ht="17" spans="1:12">
       <c r="A69" s="1" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C69" s="1">
         <v>9</v>
@@ -3595,7 +3559,7 @@
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="2" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="1" t="b">
@@ -3603,10 +3567,10 @@
       </c>
       <c r="I69" s="1"/>
       <c r="J69" s="3" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="K69" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="L69" s="2" t="b">
         <v>1</v>
@@ -3640,25 +3604,25 @@
     </row>
     <row r="72" ht="17" spans="1:12">
       <c r="A72" s="1" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="C72" s="1">
         <v>10</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="H72" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="K72" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="L72" t="b">
         <v>1</v>
@@ -3679,97 +3643,97 @@
     </row>
     <row r="75" ht="17" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1">
         <v>99</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="H75" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
     </row>
     <row r="76" ht="17" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1">
         <v>99</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="H76" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
     </row>
     <row r="77" ht="17" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1">
         <v>99</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="H77" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
     </row>
     <row r="78" ht="17" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1">
         <v>99</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="H78" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="80" ht="17" spans="1:12">
       <c r="A80" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="C80" s="1">
         <v>99</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="H80" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="K80" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="L80" t="b">
         <v>1</v>
@@ -3777,25 +3741,25 @@
     </row>
     <row r="81" ht="17" spans="1:12">
       <c r="A81" s="1" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="C81" s="1">
         <v>99</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="H81" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="K81" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="L81" t="b">
         <v>1</v>
@@ -3803,25 +3767,25 @@
     </row>
     <row r="82" ht="17" spans="1:12">
       <c r="A82" s="1" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="C82" s="1">
         <v>99</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="H82" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="K82" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="L82" t="b">
         <v>1</v>
@@ -3829,10 +3793,10 @@
     </row>
     <row r="84" customFormat="1" ht="17" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="C84" s="1">
         <v>99</v>
@@ -3846,12 +3810,12 @@
       </c>
       <c r="I84" s="1"/>
       <c r="J84" s="3" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
     </row>
     <row r="85" customFormat="1" ht="17" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1">
@@ -3866,12 +3830,12 @@
       </c>
       <c r="I85" s="1"/>
       <c r="J85" s="3" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="86" customFormat="1" ht="17" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1">
@@ -3886,12 +3850,12 @@
       </c>
       <c r="I86" s="1"/>
       <c r="J86" s="3" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="87" customFormat="1" ht="17" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1">
@@ -3906,12 +3870,12 @@
       </c>
       <c r="I87" s="1"/>
       <c r="J87" s="3" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="88" customFormat="1" ht="17" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1">
@@ -3926,15 +3890,15 @@
       </c>
       <c r="I88" s="1"/>
       <c r="J88" s="3" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="89" customFormat="1" ht="17" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="C89" s="1">
         <v>99</v>
@@ -3948,15 +3912,15 @@
       </c>
       <c r="I89" s="1"/>
       <c r="J89" s="3" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
     <row r="90" customFormat="1" ht="17" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C90" s="1">
         <v>99</v>
@@ -3970,15 +3934,15 @@
       </c>
       <c r="I90" s="1"/>
       <c r="J90" s="3" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
     </row>
     <row r="91" customFormat="1" ht="17" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="C91" s="1">
         <v>99</v>
@@ -3992,15 +3956,15 @@
       </c>
       <c r="I91" s="1"/>
       <c r="J91" s="3" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
     </row>
     <row r="92" customFormat="1" ht="17" spans="1:10">
       <c r="A92" s="5" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="C92" s="5">
         <v>99</v>
@@ -4014,15 +3978,15 @@
       </c>
       <c r="I92" s="5"/>
       <c r="J92" s="8" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
     </row>
     <row r="93" customFormat="1" ht="17" spans="1:10">
       <c r="A93" s="5" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="B93" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="C93" s="5">
         <v>99</v>
@@ -4036,15 +4000,15 @@
       </c>
       <c r="I93" s="5"/>
       <c r="J93" s="8" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
     </row>
     <row r="94" customFormat="1" ht="17" spans="1:10">
       <c r="A94" s="5" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="B94" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="C94" s="5">
         <v>99</v>
@@ -4058,15 +4022,15 @@
       </c>
       <c r="I94" s="5"/>
       <c r="J94" s="8" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="95" ht="17" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="C95" s="1">
         <v>99</v>
@@ -4075,15 +4039,15 @@
         <v>1</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="96" customFormat="1" ht="17" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="C96" s="1">
         <v>99</v>
@@ -4097,15 +4061,15 @@
       </c>
       <c r="I96" s="1"/>
       <c r="J96" s="3" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
     </row>
     <row r="97" customFormat="1" ht="17" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="C97" s="1">
         <v>99</v>
@@ -4119,15 +4083,15 @@
       </c>
       <c r="I97" s="1"/>
       <c r="J97" s="3" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
     </row>
     <row r="98" customFormat="1" ht="17" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="B98" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="C98" s="1">
         <v>99</v>
@@ -4141,15 +4105,15 @@
       </c>
       <c r="I98" s="1"/>
       <c r="J98" s="3" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
     </row>
     <row r="99" customFormat="1" ht="17" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="B99" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="C99" s="1">
         <v>99</v>
@@ -4163,15 +4127,15 @@
       </c>
       <c r="I99" s="1"/>
       <c r="J99" s="3" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
     </row>
     <row r="100" customFormat="1" ht="17" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="C100" s="1">
         <v>99</v>
@@ -4185,15 +4149,15 @@
       </c>
       <c r="I100" s="1"/>
       <c r="J100" s="3" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
     </row>
     <row r="101" customFormat="1" ht="17" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="B101" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="C101" s="1">
         <v>99</v>
@@ -4207,15 +4171,15 @@
       </c>
       <c r="I101" s="1"/>
       <c r="J101" s="3" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
     </row>
     <row r="102" customFormat="1" ht="17" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="B102" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="C102" s="1">
         <v>99</v>
@@ -4229,15 +4193,15 @@
       </c>
       <c r="I102" s="1"/>
       <c r="J102" s="3" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="103" customFormat="1" ht="17" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="B103" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="C103" s="1">
         <v>99</v>
@@ -4251,15 +4215,15 @@
       </c>
       <c r="I103" s="1"/>
       <c r="J103" s="3" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
     </row>
     <row r="104" customFormat="1" ht="17" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="B104" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="C104" s="1">
         <v>99</v>
@@ -4273,15 +4237,15 @@
       </c>
       <c r="I104" s="1"/>
       <c r="J104" s="3" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
     </row>
     <row r="105" customFormat="1" ht="17" spans="1:10">
       <c r="A105" s="1" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="B105" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="C105" s="1">
         <v>99</v>
@@ -4295,15 +4259,15 @@
       </c>
       <c r="I105" s="1"/>
       <c r="J105" s="3" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
     </row>
     <row r="106" customFormat="1" ht="17" spans="1:10">
       <c r="A106" s="1" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="B106" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="C106" s="1">
         <v>99</v>
@@ -4317,15 +4281,15 @@
       </c>
       <c r="I106" s="1"/>
       <c r="J106" s="3" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
     </row>
     <row r="107" customFormat="1" ht="17" spans="1:10">
       <c r="A107" s="1" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="B107" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="C107" s="1">
         <v>99</v>
@@ -4339,15 +4303,15 @@
       </c>
       <c r="I107" s="1"/>
       <c r="J107" s="3" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
     </row>
     <row r="108" customFormat="1" ht="17" spans="1:10">
       <c r="A108" s="1" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="B108" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="C108" s="1">
         <v>99</v>
@@ -4361,15 +4325,15 @@
       </c>
       <c r="I108" s="1"/>
       <c r="J108" s="3" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
     </row>
     <row r="109" customFormat="1" ht="17" spans="1:10">
       <c r="A109" s="1" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="B109" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="C109" s="1">
         <v>99</v>
@@ -4383,15 +4347,15 @@
       </c>
       <c r="I109" s="1"/>
       <c r="J109" s="3" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
     </row>
     <row r="110" ht="17" spans="1:10">
       <c r="A110" s="5" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="C110" s="5">
         <v>99</v>
@@ -4405,15 +4369,15 @@
       </c>
       <c r="I110" s="5"/>
       <c r="J110" s="8" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
     </row>
     <row r="111" customFormat="1" ht="17" spans="1:10">
       <c r="A111" s="5" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="C111" s="5">
         <v>99</v>
@@ -4427,15 +4391,15 @@
       </c>
       <c r="I111" s="5"/>
       <c r="J111" s="8" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
     </row>
     <row r="112" customFormat="1" ht="17" spans="1:10">
       <c r="A112" s="5" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="C112" s="5">
         <v>99</v>
@@ -4449,15 +4413,15 @@
       </c>
       <c r="I112" s="5"/>
       <c r="J112" s="8" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="113" customFormat="1" ht="17" spans="1:10">
       <c r="A113" s="5" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="B113" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="C113" s="5">
         <v>99</v>
@@ -4471,15 +4435,15 @@
       </c>
       <c r="I113" s="5"/>
       <c r="J113" s="8" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
     </row>
     <row r="114" customFormat="1" ht="17" spans="1:10">
       <c r="A114" s="5" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="B114" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="C114" s="5">
         <v>99</v>
@@ -4493,15 +4457,15 @@
       </c>
       <c r="I114" s="5"/>
       <c r="J114" s="8" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
     </row>
     <row r="115" ht="17" spans="1:10">
       <c r="A115" s="5" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="C115" s="5">
         <v>99</v>
@@ -4515,7 +4479,7 @@
       </c>
       <c r="I115" s="5"/>
       <c r="J115" s="8" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -4531,7 +4495,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>

--- a/DungeonShooting_Godot/excel/ActivityBase.xlsx
+++ b/DungeonShooting_Godot/excel/ActivityBase.xlsx
@@ -462,7 +462,7 @@
     <t>提高角色的基础移动速度</t>
   </si>
   <si>
-    <t>res://prefab/prop/BuffActivity.tscn</t>
+    <t>res://prefab/prop/BuffProp.tscn</t>
   </si>
   <si>
     <t>res://resource/sprite/prop/buff/BuffProp0001.png</t>
@@ -2073,7 +2073,7 @@
   <dimension ref="A1:L115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="G51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="I54" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -2673,7 +2673,6 @@
       <c r="A27" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B27" s="1"/>
       <c r="C27" s="1">
         <v>6</v>
       </c>
@@ -2691,7 +2690,6 @@
       <c r="A28" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B28" s="1"/>
       <c r="C28" s="1">
         <v>6</v>
       </c>
@@ -2949,7 +2947,6 @@
       <c r="A42" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B42" s="1"/>
       <c r="C42" s="1">
         <v>7</v>
       </c>
@@ -2989,7 +2986,6 @@
       <c r="A47" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B47" s="1"/>
       <c r="C47" s="1">
         <v>8</v>
       </c>
@@ -3645,7 +3641,6 @@
       <c r="A75" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B75" s="1"/>
       <c r="C75" s="1">
         <v>99</v>
       </c>
@@ -3663,7 +3658,6 @@
       <c r="A76" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B76" s="1"/>
       <c r="C76" s="1">
         <v>99</v>
       </c>
@@ -3681,7 +3675,6 @@
       <c r="A77" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B77" s="1"/>
       <c r="C77" s="1">
         <v>99</v>
       </c>
@@ -3699,7 +3692,6 @@
       <c r="A78" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B78" s="1"/>
       <c r="C78" s="1">
         <v>99</v>
       </c>

--- a/DungeonShooting_Godot/excel/ActivityBase.xlsx
+++ b/DungeonShooting_Godot/excel/ActivityBase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="326">
   <si>
     <t>Id</t>
   </si>
@@ -633,7 +633,7 @@
     <t>使用后回复一颗红心</t>
   </si>
   <si>
-    <t>res://prefab/prop/active/ActiveProp5000.tscn</t>
+    <t>res://prefab/prop/ActiveProp.tscn</t>
   </si>
   <si>
     <t>res://resource/sprite/prop/active/ActiveProp5000.png</t>
@@ -646,9 +646,6 @@
   </si>
   <si>
     <t>使用后补充当前武器备用弹药</t>
-  </si>
-  <si>
-    <t>res://prefab/prop/active/ActiveProp5001.tscn</t>
   </si>
   <si>
     <t>res://resource/sprite/prop/active/ActiveProp5001.png</t>
@@ -2073,11 +2070,11 @@
   <dimension ref="A1:L115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="I54" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="I58" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J63" sqref="J63"/>
+      <selection pane="bottomRight" activeCell="J68" sqref="J68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -3563,10 +3560,10 @@
       </c>
       <c r="I69" s="1"/>
       <c r="J69" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="K69" t="s">
         <v>203</v>
-      </c>
-      <c r="K69" t="s">
-        <v>204</v>
       </c>
       <c r="L69" s="2" t="b">
         <v>1</v>
@@ -3600,25 +3597,25 @@
     </row>
     <row r="72" ht="17" spans="1:12">
       <c r="A72" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="C72" s="1">
         <v>10</v>
       </c>
       <c r="F72" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H72" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J72" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="H72" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J72" s="3" t="s">
+      <c r="K72" t="s">
         <v>207</v>
-      </c>
-      <c r="K72" t="s">
-        <v>208</v>
       </c>
       <c r="L72" t="b">
         <v>1</v>
@@ -3639,93 +3636,93 @@
     </row>
     <row r="75" ht="17" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C75" s="1">
         <v>99</v>
       </c>
       <c r="F75" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H75" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J75" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="H75" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J75" s="3" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="76" ht="17" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C76" s="1">
         <v>99</v>
       </c>
       <c r="F76" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="H76" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J76" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="H76" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="77" ht="17" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C77" s="1">
         <v>99</v>
       </c>
       <c r="F77" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H77" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J77" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="H77" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J77" s="3" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="78" ht="17" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C78" s="1">
         <v>99</v>
       </c>
       <c r="F78" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H78" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J78" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="H78" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J78" s="3" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="80" ht="17" spans="1:12">
       <c r="A80" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="C80" s="1">
         <v>99</v>
       </c>
       <c r="F80" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H80" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="H80" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" s="3" t="s">
+      <c r="K80" t="s">
         <v>224</v>
-      </c>
-      <c r="K80" t="s">
-        <v>225</v>
       </c>
       <c r="L80" t="b">
         <v>1</v>
@@ -3733,25 +3730,25 @@
     </row>
     <row r="81" ht="17" spans="1:12">
       <c r="A81" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="C81" s="1">
         <v>99</v>
       </c>
       <c r="F81" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H81" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="H81" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3" t="s">
+      <c r="K81" t="s">
         <v>229</v>
-      </c>
-      <c r="K81" t="s">
-        <v>230</v>
       </c>
       <c r="L81" t="b">
         <v>1</v>
@@ -3759,25 +3756,25 @@
     </row>
     <row r="82" ht="17" spans="1:12">
       <c r="A82" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>232</v>
       </c>
       <c r="C82" s="1">
         <v>99</v>
       </c>
       <c r="F82" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="H82" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J82" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="H82" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J82" s="3" t="s">
+      <c r="K82" t="s">
         <v>234</v>
-      </c>
-      <c r="K82" t="s">
-        <v>235</v>
       </c>
       <c r="L82" t="b">
         <v>1</v>
@@ -3785,10 +3782,10 @@
     </row>
     <row r="84" customFormat="1" ht="17" spans="1:10">
       <c r="A84" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>237</v>
       </c>
       <c r="C84" s="1">
         <v>99</v>
@@ -3802,12 +3799,12 @@
       </c>
       <c r="I84" s="1"/>
       <c r="J84" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="85" customFormat="1" ht="17" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1">
@@ -3822,12 +3819,12 @@
       </c>
       <c r="I85" s="1"/>
       <c r="J85" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="86" customFormat="1" ht="17" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1">
@@ -3842,12 +3839,12 @@
       </c>
       <c r="I86" s="1"/>
       <c r="J86" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="87" customFormat="1" ht="17" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1">
@@ -3862,12 +3859,12 @@
       </c>
       <c r="I87" s="1"/>
       <c r="J87" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="88" customFormat="1" ht="17" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1">
@@ -3882,15 +3879,15 @@
       </c>
       <c r="I88" s="1"/>
       <c r="J88" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="89" customFormat="1" ht="17" spans="1:10">
       <c r="A89" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="C89" s="1">
         <v>99</v>
@@ -3904,15 +3901,15 @@
       </c>
       <c r="I89" s="1"/>
       <c r="J89" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="90" customFormat="1" ht="17" spans="1:10">
       <c r="A90" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>251</v>
       </c>
       <c r="C90" s="1">
         <v>99</v>
@@ -3926,15 +3923,15 @@
       </c>
       <c r="I90" s="1"/>
       <c r="J90" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="91" customFormat="1" ht="17" spans="1:10">
       <c r="A91" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="C91" s="1">
         <v>99</v>
@@ -3948,15 +3945,15 @@
       </c>
       <c r="I91" s="1"/>
       <c r="J91" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="92" customFormat="1" ht="17" spans="1:10">
       <c r="A92" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B92" s="6" t="s">
         <v>256</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>257</v>
       </c>
       <c r="C92" s="5">
         <v>99</v>
@@ -3970,15 +3967,15 @@
       </c>
       <c r="I92" s="5"/>
       <c r="J92" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="93" customFormat="1" ht="17" spans="1:10">
       <c r="A93" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B93" t="s">
         <v>259</v>
-      </c>
-      <c r="B93" t="s">
-        <v>260</v>
       </c>
       <c r="C93" s="5">
         <v>99</v>
@@ -3992,15 +3989,15 @@
       </c>
       <c r="I93" s="5"/>
       <c r="J93" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="94" customFormat="1" ht="17" spans="1:10">
       <c r="A94" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B94" t="s">
         <v>262</v>
-      </c>
-      <c r="B94" t="s">
-        <v>263</v>
       </c>
       <c r="C94" s="5">
         <v>99</v>
@@ -4014,15 +4011,15 @@
       </c>
       <c r="I94" s="5"/>
       <c r="J94" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="95" ht="17" spans="1:10">
       <c r="A95" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="C95" s="1">
         <v>99</v>
@@ -4031,15 +4028,15 @@
         <v>1</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="96" customFormat="1" ht="17" spans="1:10">
       <c r="A96" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="C96" s="1">
         <v>99</v>
@@ -4053,15 +4050,15 @@
       </c>
       <c r="I96" s="1"/>
       <c r="J96" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="97" customFormat="1" ht="17" spans="1:10">
       <c r="A97" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="C97" s="1">
         <v>99</v>
@@ -4075,15 +4072,15 @@
       </c>
       <c r="I97" s="1"/>
       <c r="J97" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="98" customFormat="1" ht="17" spans="1:10">
       <c r="A98" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B98" t="s">
         <v>274</v>
-      </c>
-      <c r="B98" t="s">
-        <v>275</v>
       </c>
       <c r="C98" s="1">
         <v>99</v>
@@ -4097,15 +4094,15 @@
       </c>
       <c r="I98" s="1"/>
       <c r="J98" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="99" customFormat="1" ht="17" spans="1:10">
       <c r="A99" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B99" t="s">
         <v>277</v>
-      </c>
-      <c r="B99" t="s">
-        <v>278</v>
       </c>
       <c r="C99" s="1">
         <v>99</v>
@@ -4119,15 +4116,15 @@
       </c>
       <c r="I99" s="1"/>
       <c r="J99" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="100" customFormat="1" ht="17" spans="1:10">
       <c r="A100" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>281</v>
       </c>
       <c r="C100" s="1">
         <v>99</v>
@@ -4141,15 +4138,15 @@
       </c>
       <c r="I100" s="1"/>
       <c r="J100" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="101" customFormat="1" ht="17" spans="1:10">
       <c r="A101" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B101" t="s">
         <v>283</v>
-      </c>
-      <c r="B101" t="s">
-        <v>284</v>
       </c>
       <c r="C101" s="1">
         <v>99</v>
@@ -4163,15 +4160,15 @@
       </c>
       <c r="I101" s="1"/>
       <c r="J101" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="102" customFormat="1" ht="17" spans="1:10">
       <c r="A102" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B102" t="s">
         <v>286</v>
-      </c>
-      <c r="B102" t="s">
-        <v>287</v>
       </c>
       <c r="C102" s="1">
         <v>99</v>
@@ -4185,15 +4182,15 @@
       </c>
       <c r="I102" s="1"/>
       <c r="J102" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="103" customFormat="1" ht="17" spans="1:10">
       <c r="A103" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B103" t="s">
         <v>289</v>
-      </c>
-      <c r="B103" t="s">
-        <v>290</v>
       </c>
       <c r="C103" s="1">
         <v>99</v>
@@ -4207,15 +4204,15 @@
       </c>
       <c r="I103" s="1"/>
       <c r="J103" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="104" customFormat="1" ht="17" spans="1:10">
       <c r="A104" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B104" t="s">
         <v>292</v>
-      </c>
-      <c r="B104" t="s">
-        <v>293</v>
       </c>
       <c r="C104" s="1">
         <v>99</v>
@@ -4229,15 +4226,15 @@
       </c>
       <c r="I104" s="1"/>
       <c r="J104" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="105" customFormat="1" ht="17" spans="1:10">
       <c r="A105" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B105" t="s">
         <v>295</v>
-      </c>
-      <c r="B105" t="s">
-        <v>296</v>
       </c>
       <c r="C105" s="1">
         <v>99</v>
@@ -4251,15 +4248,15 @@
       </c>
       <c r="I105" s="1"/>
       <c r="J105" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="106" customFormat="1" ht="17" spans="1:10">
       <c r="A106" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B106" t="s">
         <v>298</v>
-      </c>
-      <c r="B106" t="s">
-        <v>299</v>
       </c>
       <c r="C106" s="1">
         <v>99</v>
@@ -4273,15 +4270,15 @@
       </c>
       <c r="I106" s="1"/>
       <c r="J106" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="107" customFormat="1" ht="17" spans="1:10">
       <c r="A107" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B107" t="s">
         <v>301</v>
-      </c>
-      <c r="B107" t="s">
-        <v>302</v>
       </c>
       <c r="C107" s="1">
         <v>99</v>
@@ -4295,15 +4292,15 @@
       </c>
       <c r="I107" s="1"/>
       <c r="J107" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="108" customFormat="1" ht="17" spans="1:10">
       <c r="A108" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B108" t="s">
         <v>304</v>
-      </c>
-      <c r="B108" t="s">
-        <v>305</v>
       </c>
       <c r="C108" s="1">
         <v>99</v>
@@ -4317,15 +4314,15 @@
       </c>
       <c r="I108" s="1"/>
       <c r="J108" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="109" customFormat="1" ht="17" spans="1:10">
       <c r="A109" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B109" t="s">
         <v>307</v>
-      </c>
-      <c r="B109" t="s">
-        <v>308</v>
       </c>
       <c r="C109" s="1">
         <v>99</v>
@@ -4339,15 +4336,15 @@
       </c>
       <c r="I109" s="1"/>
       <c r="J109" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="110" ht="17" spans="1:10">
       <c r="A110" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B110" s="6" t="s">
         <v>310</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>311</v>
       </c>
       <c r="C110" s="5">
         <v>99</v>
@@ -4361,15 +4358,15 @@
       </c>
       <c r="I110" s="5"/>
       <c r="J110" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="111" customFormat="1" ht="17" spans="1:10">
       <c r="A111" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C111" s="5">
         <v>99</v>
@@ -4383,15 +4380,15 @@
       </c>
       <c r="I111" s="5"/>
       <c r="J111" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="112" customFormat="1" ht="17" spans="1:10">
       <c r="A112" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B112" s="6" t="s">
         <v>315</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>316</v>
       </c>
       <c r="C112" s="5">
         <v>99</v>
@@ -4405,15 +4402,15 @@
       </c>
       <c r="I112" s="5"/>
       <c r="J112" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="113" customFormat="1" ht="17" spans="1:10">
       <c r="A113" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B113" t="s">
         <v>318</v>
-      </c>
-      <c r="B113" t="s">
-        <v>319</v>
       </c>
       <c r="C113" s="5">
         <v>99</v>
@@ -4427,15 +4424,15 @@
       </c>
       <c r="I113" s="5"/>
       <c r="J113" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="114" customFormat="1" ht="17" spans="1:10">
       <c r="A114" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B114" t="s">
         <v>321</v>
-      </c>
-      <c r="B114" t="s">
-        <v>322</v>
       </c>
       <c r="C114" s="5">
         <v>99</v>
@@ -4449,15 +4446,15 @@
       </c>
       <c r="I114" s="5"/>
       <c r="J114" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="115" ht="17" spans="1:10">
       <c r="A115" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B115" s="6" t="s">
         <v>324</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>325</v>
       </c>
       <c r="C115" s="5">
         <v>99</v>
@@ -4471,7 +4468,7 @@
       </c>
       <c r="I115" s="5"/>
       <c r="J115" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>

--- a/DungeonShooting_Godot/excel/ActivityBase.xlsx
+++ b/DungeonShooting_Godot/excel/ActivityBase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="330">
   <si>
     <t>Id</t>
   </si>
@@ -649,6 +649,18 @@
   </si>
   <si>
     <t>res://resource/sprite/prop/active/ActiveProp5001.png</t>
+  </si>
+  <si>
+    <t>prop5002</t>
+  </si>
+  <si>
+    <t>猪猪存钱罐</t>
+  </si>
+  <si>
+    <t>拾起该道具后玩家捡到的所有金币将会被存入到存钱罐中, 使用该道具, 会摧毁存钱罐, 并返回双倍的金币,</t>
+  </si>
+  <si>
+    <t>res://resource/sprite/prop/active/ActiveProp5002.png</t>
   </si>
   <si>
     <t>treasure_box0001</t>
@@ -2067,14 +2079,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L115"/>
+  <dimension ref="A1:L116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="I58" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J68" sqref="J68"/>
+      <selection pane="bottomRight" activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -3569,18 +3581,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" customFormat="1" spans="1:12">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
+    <row r="70" customFormat="1" ht="51" spans="1:12">
+      <c r="A70" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C70" s="1">
+        <v>9</v>
+      </c>
+      <c r="D70" s="1">
+        <v>1</v>
+      </c>
       <c r="E70" s="1"/>
       <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="1"/>
+      <c r="G70" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H70" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="I70" s="1"/>
-      <c r="J70" s="3"/>
-      <c r="L70" s="2"/>
+      <c r="J70" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="K70" t="s">
+        <v>207</v>
+      </c>
+      <c r="L70" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="71" customFormat="1" spans="1:12">
       <c r="A71" s="1"/>
@@ -3595,160 +3626,147 @@
       <c r="J71" s="3"/>
       <c r="L71" s="2"/>
     </row>
-    <row r="72" ht="17" spans="1:12">
-      <c r="A72" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C72" s="1">
+    <row r="72" customFormat="1" spans="1:12">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="3"/>
+      <c r="L72" s="2"/>
+    </row>
+    <row r="73" ht="17" spans="1:12">
+      <c r="A73" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C73" s="1">
         <v>10</v>
       </c>
-      <c r="F72" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="H72" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="K72" t="s">
-        <v>207</v>
-      </c>
-      <c r="L72" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" customFormat="1" spans="1:12">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="3"/>
-      <c r="L73" s="2"/>
-    </row>
-    <row r="75" ht="17" spans="1:10">
-      <c r="A75" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C75" s="1">
-        <v>99</v>
-      </c>
-      <c r="F75" s="2" t="s">
+      <c r="F73" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="H75" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J75" s="3" t="s">
+      <c r="H73" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J73" s="3" t="s">
         <v>210</v>
       </c>
+      <c r="K73" t="s">
+        <v>211</v>
+      </c>
+      <c r="L73" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" customFormat="1" spans="1:12">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="3"/>
+      <c r="L74" s="2"/>
     </row>
     <row r="76" ht="17" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C76" s="1">
         <v>99</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H76" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="77" ht="17" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C77" s="1">
         <v>99</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H77" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="78" ht="17" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C78" s="1">
         <v>99</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H78" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="80" ht="17" spans="1:12">
-      <c r="A80" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B80" s="1" t="s">
+    </row>
+    <row r="79" ht="17" spans="1:10">
+      <c r="A79" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C79" s="1">
         <v>99</v>
       </c>
-      <c r="F80" s="2" t="s">
+      <c r="F79" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="H80" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" s="3" t="s">
+      <c r="H79" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="K80" t="s">
-        <v>224</v>
-      </c>
-      <c r="L80" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="81" ht="17" spans="1:12">
       <c r="A81" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="C81" s="1">
         <v>99</v>
       </c>
       <c r="F81" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H81" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="H81" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3" t="s">
+      <c r="K81" t="s">
         <v>228</v>
-      </c>
-      <c r="K81" t="s">
-        <v>229</v>
       </c>
       <c r="L81" t="b">
         <v>1</v>
@@ -3756,57 +3774,63 @@
     </row>
     <row r="82" ht="17" spans="1:12">
       <c r="A82" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="C82" s="1">
         <v>99</v>
       </c>
       <c r="F82" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="H82" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J82" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="H82" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J82" s="3" t="s">
+      <c r="K82" t="s">
         <v>233</v>
       </c>
-      <c r="K82" t="s">
+      <c r="L82" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" ht="17" spans="1:12">
+      <c r="A83" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="L82" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" customFormat="1" ht="17" spans="1:10">
-      <c r="A84" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="C83" s="1">
+        <v>99</v>
+      </c>
+      <c r="F83" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C84" s="1">
-        <v>99</v>
-      </c>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I84" s="1"/>
-      <c r="J84" s="3" t="s">
+      <c r="H83" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3" t="s">
         <v>237</v>
+      </c>
+      <c r="K83" t="s">
+        <v>238</v>
+      </c>
+      <c r="L83" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="85" customFormat="1" ht="17" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B85" s="1"/>
+        <v>239</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>240</v>
+      </c>
       <c r="C85" s="1">
         <v>99</v>
       </c>
@@ -3819,12 +3843,12 @@
       </c>
       <c r="I85" s="1"/>
       <c r="J85" s="3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="86" customFormat="1" ht="17" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1">
@@ -3839,12 +3863,12 @@
       </c>
       <c r="I86" s="1"/>
       <c r="J86" s="3" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="87" customFormat="1" ht="17" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1">
@@ -3859,12 +3883,12 @@
       </c>
       <c r="I87" s="1"/>
       <c r="J87" s="3" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="88" customFormat="1" ht="17" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1">
@@ -3879,16 +3903,14 @@
       </c>
       <c r="I88" s="1"/>
       <c r="J88" s="3" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="89" customFormat="1" ht="17" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>247</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="B89" s="1"/>
       <c r="C89" s="1">
         <v>99</v>
       </c>
@@ -3901,15 +3923,15 @@
       </c>
       <c r="I89" s="1"/>
       <c r="J89" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="90" customFormat="1" ht="17" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C90" s="1">
         <v>99</v>
@@ -3923,15 +3945,15 @@
       </c>
       <c r="I90" s="1"/>
       <c r="J90" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="91" customFormat="1" ht="17" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C91" s="1">
         <v>99</v>
@@ -3945,37 +3967,37 @@
       </c>
       <c r="I91" s="1"/>
       <c r="J91" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="92" customFormat="1" ht="17" spans="1:10">
-      <c r="A92" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="B92" s="6" t="s">
+      <c r="A92" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C92" s="5">
+      <c r="B92" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C92" s="1">
         <v>99</v>
       </c>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" s="5"/>
-      <c r="J92" s="8" t="s">
-        <v>257</v>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I92" s="1"/>
+      <c r="J92" s="3" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="93" customFormat="1" ht="17" spans="1:10">
       <c r="A93" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="B93" t="s">
         <v>259</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>260</v>
       </c>
       <c r="C93" s="5">
         <v>99</v>
@@ -3989,15 +4011,15 @@
       </c>
       <c r="I93" s="5"/>
       <c r="J93" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="94" customFormat="1" ht="17" spans="1:10">
       <c r="A94" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B94" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C94" s="5">
         <v>99</v>
@@ -4011,54 +4033,54 @@
       </c>
       <c r="I94" s="5"/>
       <c r="J94" s="8" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="95" ht="17" spans="1:10">
-      <c r="A95" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B95" s="1" t="s">
+    </row>
+    <row r="95" customFormat="1" ht="17" spans="1:10">
+      <c r="A95" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="C95" s="1">
+      <c r="B95" t="s">
+        <v>266</v>
+      </c>
+      <c r="C95" s="5">
         <v>99</v>
       </c>
-      <c r="H95" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J95" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="96" customFormat="1" ht="17" spans="1:10">
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I95" s="5"/>
+      <c r="J95" s="8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="96" ht="17" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C96" s="1">
         <v>99</v>
       </c>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="2"/>
-      <c r="G96" s="2"/>
       <c r="H96" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I96" s="1"/>
       <c r="J96" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="97" customFormat="1" ht="17" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C97" s="1">
         <v>99</v>
@@ -4072,15 +4094,15 @@
       </c>
       <c r="I97" s="1"/>
       <c r="J97" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="98" customFormat="1" ht="17" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B98" t="s">
         <v>274</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>275</v>
       </c>
       <c r="C98" s="1">
         <v>99</v>
@@ -4094,15 +4116,15 @@
       </c>
       <c r="I98" s="1"/>
       <c r="J98" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="99" customFormat="1" ht="17" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B99" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C99" s="1">
         <v>99</v>
@@ -4116,15 +4138,15 @@
       </c>
       <c r="I99" s="1"/>
       <c r="J99" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="100" customFormat="1" ht="17" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B100" s="1" t="s">
         <v>280</v>
+      </c>
+      <c r="B100" t="s">
+        <v>281</v>
       </c>
       <c r="C100" s="1">
         <v>99</v>
@@ -4138,15 +4160,15 @@
       </c>
       <c r="I100" s="1"/>
       <c r="J100" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="101" customFormat="1" ht="17" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B101" t="s">
         <v>283</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="C101" s="1">
         <v>99</v>
@@ -4160,15 +4182,15 @@
       </c>
       <c r="I101" s="1"/>
       <c r="J101" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="102" customFormat="1" ht="17" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B102" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C102" s="1">
         <v>99</v>
@@ -4182,15 +4204,15 @@
       </c>
       <c r="I102" s="1"/>
       <c r="J102" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="103" customFormat="1" ht="17" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B103" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C103" s="1">
         <v>99</v>
@@ -4204,15 +4226,15 @@
       </c>
       <c r="I103" s="1"/>
       <c r="J103" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="104" customFormat="1" ht="17" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B104" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C104" s="1">
         <v>99</v>
@@ -4226,15 +4248,15 @@
       </c>
       <c r="I104" s="1"/>
       <c r="J104" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="105" customFormat="1" ht="17" spans="1:10">
       <c r="A105" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B105" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C105" s="1">
         <v>99</v>
@@ -4248,15 +4270,15 @@
       </c>
       <c r="I105" s="1"/>
       <c r="J105" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="106" customFormat="1" ht="17" spans="1:10">
       <c r="A106" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B106" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C106" s="1">
         <v>99</v>
@@ -4270,15 +4292,15 @@
       </c>
       <c r="I106" s="1"/>
       <c r="J106" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="107" customFormat="1" ht="17" spans="1:10">
       <c r="A107" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B107" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C107" s="1">
         <v>99</v>
@@ -4292,15 +4314,15 @@
       </c>
       <c r="I107" s="1"/>
       <c r="J107" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="108" customFormat="1" ht="17" spans="1:10">
       <c r="A108" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B108" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C108" s="1">
         <v>99</v>
@@ -4314,15 +4336,15 @@
       </c>
       <c r="I108" s="1"/>
       <c r="J108" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="109" customFormat="1" ht="17" spans="1:10">
       <c r="A109" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B109" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C109" s="1">
         <v>99</v>
@@ -4336,37 +4358,37 @@
       </c>
       <c r="I109" s="1"/>
       <c r="J109" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="110" ht="17" spans="1:10">
-      <c r="A110" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="B110" s="6" t="s">
+    </row>
+    <row r="110" customFormat="1" ht="17" spans="1:10">
+      <c r="A110" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C110" s="5">
+      <c r="B110" t="s">
+        <v>311</v>
+      </c>
+      <c r="C110" s="1">
         <v>99</v>
       </c>
-      <c r="D110" s="5"/>
-      <c r="E110" s="5"/>
-      <c r="F110" s="7"/>
-      <c r="G110" s="7"/>
-      <c r="H110" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I110" s="5"/>
-      <c r="J110" s="8" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="111" customFormat="1" ht="17" spans="1:10">
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I110" s="1"/>
+      <c r="J110" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="111" ht="17" spans="1:10">
       <c r="A111" s="5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>256</v>
+        <v>314</v>
       </c>
       <c r="C111" s="5">
         <v>99</v>
@@ -4380,15 +4402,15 @@
       </c>
       <c r="I111" s="5"/>
       <c r="J111" s="8" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="112" customFormat="1" ht="17" spans="1:10">
       <c r="A112" s="5" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>315</v>
+        <v>260</v>
       </c>
       <c r="C112" s="5">
         <v>99</v>
@@ -4402,15 +4424,15 @@
       </c>
       <c r="I112" s="5"/>
       <c r="J112" s="8" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="113" customFormat="1" ht="17" spans="1:10">
       <c r="A113" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B113" t="s">
         <v>318</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>319</v>
       </c>
       <c r="C113" s="5">
         <v>99</v>
@@ -4424,15 +4446,15 @@
       </c>
       <c r="I113" s="5"/>
       <c r="J113" s="8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="114" customFormat="1" ht="17" spans="1:10">
       <c r="A114" s="5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B114" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C114" s="5">
         <v>99</v>
@@ -4446,15 +4468,15 @@
       </c>
       <c r="I114" s="5"/>
       <c r="J114" s="8" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="115" ht="17" spans="1:10">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="115" customFormat="1" ht="17" spans="1:10">
       <c r="A115" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="B115" s="6" t="s">
         <v>324</v>
+      </c>
+      <c r="B115" t="s">
+        <v>325</v>
       </c>
       <c r="C115" s="5">
         <v>99</v>
@@ -4468,7 +4490,29 @@
       </c>
       <c r="I115" s="5"/>
       <c r="J115" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
+      </c>
+    </row>
+    <row r="116" ht="17" spans="1:10">
+      <c r="A116" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C116" s="5">
+        <v>99</v>
+      </c>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="7"/>
+      <c r="G116" s="7"/>
+      <c r="H116" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I116" s="5"/>
+      <c r="J116" s="8" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>

--- a/DungeonShooting_Godot/excel/ActivityBase.xlsx
+++ b/DungeonShooting_Godot/excel/ActivityBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29400" windowHeight="14040"/>
+    <workbookView windowHeight="17040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="334">
   <si>
     <t>Id</t>
   </si>
@@ -657,10 +657,22 @@
     <t>猪猪存钱罐</t>
   </si>
   <si>
-    <t>拾起该道具后玩家捡到的所有金币将会被存入到存钱罐中, 使用该道具, 会摧毁存钱罐, 并返回双倍的金币,</t>
+    <t>拾起该道具后玩家捡到的所有金币将会被存入到存钱罐中, 使用该道具, 会摧毁存钱罐, 并返回双倍的金币</t>
   </si>
   <si>
     <t>res://resource/sprite/prop/active/ActiveProp5002.png</t>
+  </si>
+  <si>
+    <t>prop5003</t>
+  </si>
+  <si>
+    <t>红外遥控器</t>
+  </si>
+  <si>
+    <t>使用后会触发附近地上的武器开火</t>
+  </si>
+  <si>
+    <t>res://resource/sprite/prop/active/ActiveProp5003.png</t>
   </si>
   <si>
     <t>treasure_box0001</t>
@@ -2079,14 +2091,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L116"/>
+  <dimension ref="A1:L117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="D59" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F70" sqref="F70"/>
+      <selection pane="bottomRight" activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -3595,10 +3607,10 @@
         <v>1</v>
       </c>
       <c r="E70" s="1"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2" t="s">
+      <c r="F70" s="2" t="s">
         <v>206</v>
       </c>
+      <c r="G70" s="2"/>
       <c r="H70" s="1" t="b">
         <v>0</v>
       </c>
@@ -3613,18 +3625,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" customFormat="1" spans="1:12">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
+    <row r="71" customFormat="1" ht="17" spans="1:12">
+      <c r="A71" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C71" s="1">
+        <v>9</v>
+      </c>
+      <c r="D71" s="1">
+        <v>1</v>
+      </c>
       <c r="E71" s="1"/>
-      <c r="F71" s="2"/>
+      <c r="F71" s="2" t="s">
+        <v>210</v>
+      </c>
       <c r="G71" s="2"/>
-      <c r="H71" s="1"/>
+      <c r="H71" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="I71" s="1"/>
-      <c r="J71" s="3"/>
-      <c r="L71" s="2"/>
+      <c r="J71" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="K71" t="s">
+        <v>211</v>
+      </c>
+      <c r="L71" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="72" customFormat="1" spans="1:12">
       <c r="A72" s="1"/>
@@ -3639,160 +3670,147 @@
       <c r="J72" s="3"/>
       <c r="L72" s="2"/>
     </row>
-    <row r="73" ht="17" spans="1:12">
-      <c r="A73" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C73" s="1">
+    <row r="73" customFormat="1" spans="1:12">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="3"/>
+      <c r="L73" s="2"/>
+    </row>
+    <row r="74" ht="17" spans="1:12">
+      <c r="A74" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C74" s="1">
         <v>10</v>
       </c>
-      <c r="F73" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="H73" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J73" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="K73" t="s">
-        <v>211</v>
-      </c>
-      <c r="L73" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" customFormat="1" spans="1:12">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="3"/>
-      <c r="L74" s="2"/>
-    </row>
-    <row r="76" ht="17" spans="1:10">
-      <c r="A76" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C76" s="1">
-        <v>99</v>
-      </c>
-      <c r="F76" s="2" t="s">
+      <c r="F74" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="H76" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J76" s="3" t="s">
+      <c r="H74" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J74" s="3" t="s">
         <v>214</v>
       </c>
+      <c r="K74" t="s">
+        <v>215</v>
+      </c>
+      <c r="L74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" customFormat="1" spans="1:12">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="3"/>
+      <c r="L75" s="2"/>
     </row>
     <row r="77" ht="17" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C77" s="1">
         <v>99</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H77" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="78" ht="17" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C78" s="1">
         <v>99</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H78" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="79" ht="17" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C79" s="1">
         <v>99</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H79" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="81" ht="17" spans="1:12">
-      <c r="A81" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B81" s="1" t="s">
+    </row>
+    <row r="80" ht="17" spans="1:10">
+      <c r="A80" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C80" s="1">
         <v>99</v>
       </c>
-      <c r="F81" s="2" t="s">
+      <c r="F80" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="H81" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3" t="s">
+      <c r="H80" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="K81" t="s">
-        <v>228</v>
-      </c>
-      <c r="L81" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="82" ht="17" spans="1:12">
       <c r="A82" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="C82" s="1">
         <v>99</v>
       </c>
       <c r="F82" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H82" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J82" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="H82" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J82" s="3" t="s">
+      <c r="K82" t="s">
         <v>232</v>
-      </c>
-      <c r="K82" t="s">
-        <v>233</v>
       </c>
       <c r="L82" t="b">
         <v>1</v>
@@ -3800,57 +3818,63 @@
     </row>
     <row r="83" ht="17" spans="1:12">
       <c r="A83" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>235</v>
       </c>
       <c r="C83" s="1">
         <v>99</v>
       </c>
       <c r="F83" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="H83" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="H83" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3" t="s">
+      <c r="K83" t="s">
         <v>237</v>
       </c>
-      <c r="K83" t="s">
+      <c r="L83" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" ht="17" spans="1:12">
+      <c r="A84" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="L83" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" customFormat="1" ht="17" spans="1:10">
-      <c r="A85" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="C84" s="1">
+        <v>99</v>
+      </c>
+      <c r="F84" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C85" s="1">
-        <v>99</v>
-      </c>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" s="1"/>
-      <c r="J85" s="3" t="s">
+      <c r="H84" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J84" s="3" t="s">
         <v>241</v>
+      </c>
+      <c r="K84" t="s">
+        <v>242</v>
+      </c>
+      <c r="L84" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="86" customFormat="1" ht="17" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B86" s="1"/>
+        <v>243</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>244</v>
+      </c>
       <c r="C86" s="1">
         <v>99</v>
       </c>
@@ -3863,12 +3887,12 @@
       </c>
       <c r="I86" s="1"/>
       <c r="J86" s="3" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="87" customFormat="1" ht="17" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1">
@@ -3883,12 +3907,12 @@
       </c>
       <c r="I87" s="1"/>
       <c r="J87" s="3" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="88" customFormat="1" ht="17" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1">
@@ -3903,12 +3927,12 @@
       </c>
       <c r="I88" s="1"/>
       <c r="J88" s="3" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="89" customFormat="1" ht="17" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1">
@@ -3923,16 +3947,14 @@
       </c>
       <c r="I89" s="1"/>
       <c r="J89" s="3" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="90" customFormat="1" ht="17" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>251</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="B90" s="1"/>
       <c r="C90" s="1">
         <v>99</v>
       </c>
@@ -3945,15 +3967,15 @@
       </c>
       <c r="I90" s="1"/>
       <c r="J90" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="91" customFormat="1" ht="17" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C91" s="1">
         <v>99</v>
@@ -3967,15 +3989,15 @@
       </c>
       <c r="I91" s="1"/>
       <c r="J91" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="92" customFormat="1" ht="17" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C92" s="1">
         <v>99</v>
@@ -3989,37 +4011,37 @@
       </c>
       <c r="I92" s="1"/>
       <c r="J92" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="93" customFormat="1" ht="17" spans="1:10">
-      <c r="A93" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="B93" s="6" t="s">
+      <c r="A93" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C93" s="5">
+      <c r="B93" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C93" s="1">
         <v>99</v>
       </c>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" s="5"/>
-      <c r="J93" s="8" t="s">
-        <v>261</v>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I93" s="1"/>
+      <c r="J93" s="3" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="94" customFormat="1" ht="17" spans="1:10">
       <c r="A94" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="B94" t="s">
         <v>263</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>264</v>
       </c>
       <c r="C94" s="5">
         <v>99</v>
@@ -4033,15 +4055,15 @@
       </c>
       <c r="I94" s="5"/>
       <c r="J94" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="95" customFormat="1" ht="17" spans="1:10">
       <c r="A95" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B95" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C95" s="5">
         <v>99</v>
@@ -4055,54 +4077,54 @@
       </c>
       <c r="I95" s="5"/>
       <c r="J95" s="8" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="96" ht="17" spans="1:10">
-      <c r="A96" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B96" s="1" t="s">
+    </row>
+    <row r="96" customFormat="1" ht="17" spans="1:10">
+      <c r="A96" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="C96" s="1">
+      <c r="B96" t="s">
+        <v>270</v>
+      </c>
+      <c r="C96" s="5">
         <v>99</v>
       </c>
-      <c r="H96" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J96" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="97" customFormat="1" ht="17" spans="1:10">
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I96" s="5"/>
+      <c r="J96" s="8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="97" ht="17" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C97" s="1">
         <v>99</v>
       </c>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="2"/>
-      <c r="G97" s="2"/>
       <c r="H97" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I97" s="1"/>
       <c r="J97" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="98" customFormat="1" ht="17" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C98" s="1">
         <v>99</v>
@@ -4116,15 +4138,15 @@
       </c>
       <c r="I98" s="1"/>
       <c r="J98" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="99" customFormat="1" ht="17" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B99" t="s">
         <v>278</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>279</v>
       </c>
       <c r="C99" s="1">
         <v>99</v>
@@ -4138,15 +4160,15 @@
       </c>
       <c r="I99" s="1"/>
       <c r="J99" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="100" customFormat="1" ht="17" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B100" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C100" s="1">
         <v>99</v>
@@ -4160,15 +4182,15 @@
       </c>
       <c r="I100" s="1"/>
       <c r="J100" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="101" customFormat="1" ht="17" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B101" s="1" t="s">
         <v>284</v>
+      </c>
+      <c r="B101" t="s">
+        <v>285</v>
       </c>
       <c r="C101" s="1">
         <v>99</v>
@@ -4182,15 +4204,15 @@
       </c>
       <c r="I101" s="1"/>
       <c r="J101" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="102" customFormat="1" ht="17" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B102" t="s">
         <v>287</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>288</v>
       </c>
       <c r="C102" s="1">
         <v>99</v>
@@ -4204,15 +4226,15 @@
       </c>
       <c r="I102" s="1"/>
       <c r="J102" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="103" customFormat="1" ht="17" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B103" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C103" s="1">
         <v>99</v>
@@ -4226,15 +4248,15 @@
       </c>
       <c r="I103" s="1"/>
       <c r="J103" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="104" customFormat="1" ht="17" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B104" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C104" s="1">
         <v>99</v>
@@ -4248,15 +4270,15 @@
       </c>
       <c r="I104" s="1"/>
       <c r="J104" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="105" customFormat="1" ht="17" spans="1:10">
       <c r="A105" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B105" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C105" s="1">
         <v>99</v>
@@ -4270,15 +4292,15 @@
       </c>
       <c r="I105" s="1"/>
       <c r="J105" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="106" customFormat="1" ht="17" spans="1:10">
       <c r="A106" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B106" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C106" s="1">
         <v>99</v>
@@ -4292,15 +4314,15 @@
       </c>
       <c r="I106" s="1"/>
       <c r="J106" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="107" customFormat="1" ht="17" spans="1:10">
       <c r="A107" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B107" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C107" s="1">
         <v>99</v>
@@ -4314,15 +4336,15 @@
       </c>
       <c r="I107" s="1"/>
       <c r="J107" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="108" customFormat="1" ht="17" spans="1:10">
       <c r="A108" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B108" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C108" s="1">
         <v>99</v>
@@ -4336,15 +4358,15 @@
       </c>
       <c r="I108" s="1"/>
       <c r="J108" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="109" customFormat="1" ht="17" spans="1:10">
       <c r="A109" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B109" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C109" s="1">
         <v>99</v>
@@ -4358,15 +4380,15 @@
       </c>
       <c r="I109" s="1"/>
       <c r="J109" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="110" customFormat="1" ht="17" spans="1:10">
       <c r="A110" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B110" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C110" s="1">
         <v>99</v>
@@ -4380,37 +4402,37 @@
       </c>
       <c r="I110" s="1"/>
       <c r="J110" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="111" ht="17" spans="1:10">
-      <c r="A111" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="B111" s="6" t="s">
+    </row>
+    <row r="111" customFormat="1" ht="17" spans="1:10">
+      <c r="A111" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="C111" s="5">
+      <c r="B111" t="s">
+        <v>315</v>
+      </c>
+      <c r="C111" s="1">
         <v>99</v>
       </c>
-      <c r="D111" s="5"/>
-      <c r="E111" s="5"/>
-      <c r="F111" s="7"/>
-      <c r="G111" s="7"/>
-      <c r="H111" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I111" s="5"/>
-      <c r="J111" s="8" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="112" customFormat="1" ht="17" spans="1:10">
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I111" s="1"/>
+      <c r="J111" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="112" ht="17" spans="1:10">
       <c r="A112" s="5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>260</v>
+        <v>318</v>
       </c>
       <c r="C112" s="5">
         <v>99</v>
@@ -4424,15 +4446,15 @@
       </c>
       <c r="I112" s="5"/>
       <c r="J112" s="8" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="113" customFormat="1" ht="17" spans="1:10">
       <c r="A113" s="5" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>319</v>
+        <v>264</v>
       </c>
       <c r="C113" s="5">
         <v>99</v>
@@ -4446,15 +4468,15 @@
       </c>
       <c r="I113" s="5"/>
       <c r="J113" s="8" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="114" customFormat="1" ht="17" spans="1:10">
       <c r="A114" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="B114" t="s">
         <v>322</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>323</v>
       </c>
       <c r="C114" s="5">
         <v>99</v>
@@ -4468,15 +4490,15 @@
       </c>
       <c r="I114" s="5"/>
       <c r="J114" s="8" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="115" customFormat="1" ht="17" spans="1:10">
       <c r="A115" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B115" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C115" s="5">
         <v>99</v>
@@ -4490,15 +4512,15 @@
       </c>
       <c r="I115" s="5"/>
       <c r="J115" s="8" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="116" ht="17" spans="1:10">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="116" customFormat="1" ht="17" spans="1:10">
       <c r="A116" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="B116" s="6" t="s">
         <v>328</v>
+      </c>
+      <c r="B116" t="s">
+        <v>329</v>
       </c>
       <c r="C116" s="5">
         <v>99</v>
@@ -4512,7 +4534,29 @@
       </c>
       <c r="I116" s="5"/>
       <c r="J116" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="117" ht="17" spans="1:10">
+      <c r="A117" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="C117" s="5">
+        <v>99</v>
+      </c>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="7"/>
+      <c r="G117" s="7"/>
+      <c r="H117" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I117" s="5"/>
+      <c r="J117" s="8" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>

--- a/DungeonShooting_Godot/excel/ActivityBase.xlsx
+++ b/DungeonShooting_Godot/excel/ActivityBase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="346">
   <si>
     <t>Id</t>
   </si>
@@ -673,6 +673,42 @@
   </si>
   <si>
     <t>res://resource/sprite/prop/active/ActiveProp5003.png</t>
+  </si>
+  <si>
+    <t>prop5004</t>
+  </si>
+  <si>
+    <t>魔术棒</t>
+  </si>
+  <si>
+    <t>随机选择房间内的一个手持武器的敌人, 交换你们手中的武器</t>
+  </si>
+  <si>
+    <t>res://resource/sprite/prop/active/ActiveProp5004.png</t>
+  </si>
+  <si>
+    <t>prop5005</t>
+  </si>
+  <si>
+    <t>便携式供血器</t>
+  </si>
+  <si>
+    <t>使用金币换取血量</t>
+  </si>
+  <si>
+    <t>res://resource/sprite/prop/active/ActiveProp5005.png</t>
+  </si>
+  <si>
+    <t>prop5006</t>
+  </si>
+  <si>
+    <t>便携式献血器</t>
+  </si>
+  <si>
+    <t>使用血量换取金币</t>
+  </si>
+  <si>
+    <t>res://resource/sprite/prop/active/ActiveProp5006.png</t>
   </si>
   <si>
     <t>treasure_box0001</t>
@@ -2091,14 +2127,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L117"/>
+  <dimension ref="A1:L120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="D59" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F71" sqref="F71"/>
+      <selection pane="bottomRight" activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -3657,55 +3693,99 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" customFormat="1" spans="1:12">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
+    <row r="72" customFormat="1" ht="34" spans="1:12">
+      <c r="A72" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C72" s="1">
+        <v>9</v>
+      </c>
+      <c r="D72" s="1">
+        <v>1</v>
+      </c>
       <c r="E72" s="1"/>
-      <c r="F72" s="2"/>
+      <c r="F72" s="2" t="s">
+        <v>214</v>
+      </c>
       <c r="G72" s="2"/>
-      <c r="H72" s="1"/>
+      <c r="H72" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="I72" s="1"/>
-      <c r="J72" s="3"/>
-      <c r="L72" s="2"/>
-    </row>
-    <row r="73" customFormat="1" spans="1:12">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
+      <c r="J72" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="K72" t="s">
+        <v>215</v>
+      </c>
+      <c r="L72" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" customFormat="1" ht="17" spans="1:12">
+      <c r="A73" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C73" s="1">
+        <v>9</v>
+      </c>
+      <c r="D73" s="1">
+        <v>1</v>
+      </c>
       <c r="E73" s="1"/>
-      <c r="F73" s="2"/>
+      <c r="F73" s="2" t="s">
+        <v>218</v>
+      </c>
       <c r="G73" s="2"/>
-      <c r="H73" s="1"/>
+      <c r="H73" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="I73" s="1"/>
-      <c r="J73" s="3"/>
-      <c r="L73" s="2"/>
-    </row>
-    <row r="74" ht="17" spans="1:12">
+      <c r="J73" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="K73" t="s">
+        <v>219</v>
+      </c>
+      <c r="L73" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" customFormat="1" ht="17" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>213</v>
+        <v>220</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>221</v>
       </c>
       <c r="C74" s="1">
-        <v>10</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D74" s="1">
+        <v>1</v>
+      </c>
+      <c r="E74" s="1"/>
       <c r="F74" s="2" t="s">
-        <v>213</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G74" s="2"/>
       <c r="H74" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="I74" s="1"/>
       <c r="J74" s="3" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="K74" t="s">
-        <v>215</v>
-      </c>
-      <c r="L74" t="b">
+        <v>223</v>
+      </c>
+      <c r="L74" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3722,219 +3802,211 @@
       <c r="J75" s="3"/>
       <c r="L75" s="2"/>
     </row>
-    <row r="77" ht="17" spans="1:10">
+    <row r="76" customFormat="1" spans="1:12">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="3"/>
+      <c r="L76" s="2"/>
+    </row>
+    <row r="77" ht="17" spans="1:12">
       <c r="A77" s="1" t="s">
-        <v>216</v>
+        <v>224</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="C77" s="1">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="H77" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="78" ht="17" spans="1:10">
-      <c r="A78" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C78" s="1">
-        <v>99</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="H78" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J78" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="79" ht="17" spans="1:10">
-      <c r="A79" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C79" s="1">
-        <v>99</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H79" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J79" s="3" t="s">
-        <v>224</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="K77" t="s">
+        <v>227</v>
+      </c>
+      <c r="L77" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" customFormat="1" spans="1:12">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="3"/>
+      <c r="L78" s="2"/>
     </row>
     <row r="80" ht="17" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C80" s="1">
         <v>99</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="H80" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="82" ht="17" spans="1:12">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="81" ht="17" spans="1:10">
+      <c r="A81" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C81" s="1">
+        <v>99</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="H81" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="82" ht="17" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C82" s="1">
         <v>99</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="H82" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="K82" t="s">
-        <v>232</v>
-      </c>
-      <c r="L82" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" ht="17" spans="1:12">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="83" ht="17" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C83" s="1">
         <v>99</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="H83" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="K83" t="s">
-        <v>237</v>
-      </c>
-      <c r="L83" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" ht="17" spans="1:12">
-      <c r="A84" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B84" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C84" s="1">
+    </row>
+    <row r="85" ht="17" spans="1:12">
+      <c r="A85" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C85" s="1">
         <v>99</v>
       </c>
-      <c r="F84" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="H84" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J84" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="K84" t="s">
+      <c r="F85" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="L84" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" customFormat="1" ht="17" spans="1:10">
+      <c r="H85" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="K85" t="s">
+        <v>244</v>
+      </c>
+      <c r="L85" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" ht="17" spans="1:12">
       <c r="A86" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C86" s="1">
         <v>99</v>
       </c>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
+      <c r="F86" s="2" t="s">
+        <v>247</v>
+      </c>
       <c r="H86" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I86" s="1"/>
+        <v>0</v>
+      </c>
       <c r="J86" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="87" customFormat="1" ht="17" spans="1:10">
+        <v>248</v>
+      </c>
+      <c r="K86" t="s">
+        <v>249</v>
+      </c>
+      <c r="L86" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" ht="17" spans="1:12">
       <c r="A87" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B87" s="1"/>
+        <v>250</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>251</v>
+      </c>
       <c r="C87" s="1">
         <v>99</v>
       </c>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
+      <c r="F87" s="2" t="s">
+        <v>252</v>
+      </c>
       <c r="H87" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I87" s="1"/>
+        <v>0</v>
+      </c>
       <c r="J87" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="88" customFormat="1" ht="17" spans="1:10">
-      <c r="A88" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1">
-        <v>99</v>
-      </c>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" s="1"/>
-      <c r="J88" s="3" t="s">
-        <v>249</v>
+        <v>253</v>
+      </c>
+      <c r="K87" t="s">
+        <v>254</v>
+      </c>
+      <c r="L87" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="89" customFormat="1" ht="17" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B89" s="1"/>
+        <v>255</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>256</v>
+      </c>
       <c r="C89" s="1">
         <v>99</v>
       </c>
@@ -3947,12 +4019,12 @@
       </c>
       <c r="I89" s="1"/>
       <c r="J89" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="90" customFormat="1" ht="17" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1">
@@ -3967,16 +4039,14 @@
       </c>
       <c r="I90" s="1"/>
       <c r="J90" s="3" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="91" customFormat="1" ht="17" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>255</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="B91" s="1"/>
       <c r="C91" s="1">
         <v>99</v>
       </c>
@@ -3989,16 +4059,14 @@
       </c>
       <c r="I91" s="1"/>
       <c r="J91" s="3" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="92" customFormat="1" ht="17" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>258</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="B92" s="1"/>
       <c r="C92" s="1">
         <v>99</v>
       </c>
@@ -4011,16 +4079,14 @@
       </c>
       <c r="I92" s="1"/>
       <c r="J92" s="3" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="93" customFormat="1" ht="17" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>261</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="B93" s="1"/>
       <c r="C93" s="1">
         <v>99</v>
       </c>
@@ -4033,164 +4099,164 @@
       </c>
       <c r="I93" s="1"/>
       <c r="J93" s="3" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="94" customFormat="1" ht="17" spans="1:10">
-      <c r="A94" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="C94" s="5">
+      <c r="A94" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C94" s="1">
         <v>99</v>
       </c>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I94" s="5"/>
-      <c r="J94" s="8" t="s">
-        <v>265</v>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I94" s="1"/>
+      <c r="J94" s="3" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="95" customFormat="1" ht="17" spans="1:10">
-      <c r="A95" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="B95" t="s">
-        <v>267</v>
-      </c>
-      <c r="C95" s="5">
+      <c r="A95" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C95" s="1">
         <v>99</v>
       </c>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" s="5"/>
-      <c r="J95" s="8" t="s">
-        <v>268</v>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I95" s="1"/>
+      <c r="J95" s="3" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="96" customFormat="1" ht="17" spans="1:10">
-      <c r="A96" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="B96" t="s">
-        <v>270</v>
-      </c>
-      <c r="C96" s="5">
+      <c r="A96" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C96" s="1">
         <v>99</v>
       </c>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="7"/>
-      <c r="H96" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I96" s="5"/>
-      <c r="J96" s="8" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="97" ht="17" spans="1:10">
-      <c r="A97" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C97" s="1">
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I96" s="1"/>
+      <c r="J96" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="97" customFormat="1" ht="17" spans="1:10">
+      <c r="A97" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C97" s="5">
         <v>99</v>
       </c>
-      <c r="H97" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J97" s="3" t="s">
-        <v>274</v>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I97" s="5"/>
+      <c r="J97" s="8" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="98" customFormat="1" ht="17" spans="1:10">
-      <c r="A98" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C98" s="1">
+      <c r="A98" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B98" t="s">
+        <v>279</v>
+      </c>
+      <c r="C98" s="5">
         <v>99</v>
       </c>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="2"/>
-      <c r="G98" s="2"/>
-      <c r="H98" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" s="1"/>
-      <c r="J98" s="3" t="s">
-        <v>277</v>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I98" s="5"/>
+      <c r="J98" s="8" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="99" customFormat="1" ht="17" spans="1:10">
-      <c r="A99" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C99" s="1">
+      <c r="A99" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B99" t="s">
+        <v>282</v>
+      </c>
+      <c r="C99" s="5">
         <v>99</v>
       </c>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="2"/>
-      <c r="G99" s="2"/>
-      <c r="H99" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" s="1"/>
-      <c r="J99" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="100" customFormat="1" ht="17" spans="1:10">
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I99" s="5"/>
+      <c r="J99" s="8" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="100" ht="17" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B100" t="s">
-        <v>282</v>
+        <v>284</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>285</v>
       </c>
       <c r="C100" s="1">
         <v>99</v>
       </c>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
       <c r="H100" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I100" s="1"/>
       <c r="J100" s="3" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="101" customFormat="1" ht="17" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B101" t="s">
-        <v>285</v>
+        <v>287</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>288</v>
       </c>
       <c r="C101" s="1">
         <v>99</v>
@@ -4204,15 +4270,15 @@
       </c>
       <c r="I101" s="1"/>
       <c r="J101" s="3" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="102" customFormat="1" ht="17" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C102" s="1">
         <v>99</v>
@@ -4226,15 +4292,15 @@
       </c>
       <c r="I102" s="1"/>
       <c r="J102" s="3" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="103" customFormat="1" ht="17" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B103" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C103" s="1">
         <v>99</v>
@@ -4248,15 +4314,15 @@
       </c>
       <c r="I103" s="1"/>
       <c r="J103" s="3" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="104" customFormat="1" ht="17" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B104" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C104" s="1">
         <v>99</v>
@@ -4270,15 +4336,15 @@
       </c>
       <c r="I104" s="1"/>
       <c r="J104" s="3" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="105" customFormat="1" ht="17" spans="1:10">
       <c r="A105" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B105" t="s">
-        <v>297</v>
+        <v>299</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="C105" s="1">
         <v>99</v>
@@ -4292,15 +4358,15 @@
       </c>
       <c r="I105" s="1"/>
       <c r="J105" s="3" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="106" customFormat="1" ht="17" spans="1:10">
       <c r="A106" s="1" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B106" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C106" s="1">
         <v>99</v>
@@ -4314,15 +4380,15 @@
       </c>
       <c r="I106" s="1"/>
       <c r="J106" s="3" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="107" customFormat="1" ht="17" spans="1:10">
       <c r="A107" s="1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B107" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C107" s="1">
         <v>99</v>
@@ -4336,15 +4402,15 @@
       </c>
       <c r="I107" s="1"/>
       <c r="J107" s="3" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="108" customFormat="1" ht="17" spans="1:10">
       <c r="A108" s="1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B108" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C108" s="1">
         <v>99</v>
@@ -4358,15 +4424,15 @@
       </c>
       <c r="I108" s="1"/>
       <c r="J108" s="3" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="109" customFormat="1" ht="17" spans="1:10">
       <c r="A109" s="1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B109" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C109" s="1">
         <v>99</v>
@@ -4380,15 +4446,15 @@
       </c>
       <c r="I109" s="1"/>
       <c r="J109" s="3" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="110" customFormat="1" ht="17" spans="1:10">
       <c r="A110" s="1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B110" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C110" s="1">
         <v>99</v>
@@ -4402,15 +4468,15 @@
       </c>
       <c r="I110" s="1"/>
       <c r="J110" s="3" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="111" customFormat="1" ht="17" spans="1:10">
       <c r="A111" s="1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B111" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C111" s="1">
         <v>99</v>
@@ -4424,81 +4490,81 @@
       </c>
       <c r="I111" s="1"/>
       <c r="J111" s="3" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="112" ht="17" spans="1:10">
-      <c r="A112" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="C112" s="5">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="112" customFormat="1" ht="17" spans="1:10">
+      <c r="A112" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B112" t="s">
+        <v>321</v>
+      </c>
+      <c r="C112" s="1">
         <v>99</v>
       </c>
-      <c r="D112" s="5"/>
-      <c r="E112" s="5"/>
-      <c r="F112" s="7"/>
-      <c r="G112" s="7"/>
-      <c r="H112" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I112" s="5"/>
-      <c r="J112" s="8" t="s">
-        <v>319</v>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I112" s="1"/>
+      <c r="J112" s="3" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="113" customFormat="1" ht="17" spans="1:10">
-      <c r="A113" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="C113" s="5">
+      <c r="A113" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B113" t="s">
+        <v>324</v>
+      </c>
+      <c r="C113" s="1">
         <v>99</v>
       </c>
-      <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
-      <c r="F113" s="7"/>
-      <c r="G113" s="7"/>
-      <c r="H113" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I113" s="5"/>
-      <c r="J113" s="8" t="s">
-        <v>321</v>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I113" s="1"/>
+      <c r="J113" s="3" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="114" customFormat="1" ht="17" spans="1:10">
-      <c r="A114" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="C114" s="5">
+      <c r="A114" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B114" t="s">
+        <v>327</v>
+      </c>
+      <c r="C114" s="1">
         <v>99</v>
       </c>
-      <c r="D114" s="5"/>
-      <c r="E114" s="5"/>
-      <c r="F114" s="7"/>
-      <c r="G114" s="7"/>
-      <c r="H114" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I114" s="5"/>
-      <c r="J114" s="8" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="115" customFormat="1" ht="17" spans="1:10">
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I114" s="1"/>
+      <c r="J114" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="115" ht="17" spans="1:10">
       <c r="A115" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="B115" t="s">
-        <v>326</v>
+        <v>329</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="C115" s="5">
         <v>99</v>
@@ -4512,15 +4578,15 @@
       </c>
       <c r="I115" s="5"/>
       <c r="J115" s="8" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="116" customFormat="1" ht="17" spans="1:10">
       <c r="A116" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="B116" t="s">
-        <v>329</v>
+        <v>332</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>276</v>
       </c>
       <c r="C116" s="5">
         <v>99</v>
@@ -4534,15 +4600,15 @@
       </c>
       <c r="I116" s="5"/>
       <c r="J116" s="8" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="117" ht="17" spans="1:10">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="117" customFormat="1" ht="17" spans="1:10">
       <c r="A117" s="5" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C117" s="5">
         <v>99</v>
@@ -4556,7 +4622,73 @@
       </c>
       <c r="I117" s="5"/>
       <c r="J117" s="8" t="s">
-        <v>333</v>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="118" customFormat="1" ht="17" spans="1:10">
+      <c r="A118" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="B118" t="s">
+        <v>338</v>
+      </c>
+      <c r="C118" s="5">
+        <v>99</v>
+      </c>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="7"/>
+      <c r="H118" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I118" s="5"/>
+      <c r="J118" s="8" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="119" customFormat="1" ht="17" spans="1:10">
+      <c r="A119" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="B119" t="s">
+        <v>341</v>
+      </c>
+      <c r="C119" s="5">
+        <v>99</v>
+      </c>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="7"/>
+      <c r="G119" s="7"/>
+      <c r="H119" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I119" s="5"/>
+      <c r="J119" s="8" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="120" ht="17" spans="1:10">
+      <c r="A120" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="C120" s="5">
+        <v>99</v>
+      </c>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="7"/>
+      <c r="G120" s="7"/>
+      <c r="H120" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I120" s="5"/>
+      <c r="J120" s="8" t="s">
+        <v>345</v>
       </c>
     </row>
   </sheetData>

--- a/DungeonShooting_Godot/excel/ActivityBase.xlsx
+++ b/DungeonShooting_Godot/excel/ActivityBase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="350">
   <si>
     <t>Id</t>
   </si>
@@ -147,7 +147,7 @@
     <t>敌人</t>
   </si>
   <si>
-    <t>res://prefab/role/Enemy0001.tscn</t>
+    <t>res://prefab/role/enemy/Enemy0001.tscn</t>
   </si>
   <si>
     <t>res://resource/sprite/role/enemy0001/enemy0001_Icon.png</t>
@@ -159,10 +159,22 @@
     <t>敌人2</t>
   </si>
   <si>
-    <t>res://prefab/role/Enemy0002.tscn</t>
+    <t>res://prefab/role/enemy/Enemy0002.tscn</t>
   </si>
   <si>
     <t>res://resource/sprite/role/enemy0002/Enemy0002.png</t>
+  </si>
+  <si>
+    <t>shopBoss0001</t>
+  </si>
+  <si>
+    <t>商店老板</t>
+  </si>
+  <si>
+    <t>res://prefab/role/shopBoss/ShopBoss0001.tscn</t>
+  </si>
+  <si>
+    <t>res://resource/sprite/role/shopBoss0001/ShopBoss0001.png</t>
   </si>
   <si>
     <t>weapon0001</t>
@@ -2130,11 +2142,11 @@
   <dimension ref="A1:L120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="D59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F74" sqref="F74"/>
+      <selection pane="bottomRight" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -2353,9 +2365,31 @@
       <c r="J9" s="1"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" ht="28" customHeight="1" spans="10:12">
-      <c r="J10" s="1"/>
-      <c r="L10" s="2"/>
+    <row r="10" ht="28" customHeight="1" spans="1:12">
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" ht="28" customHeight="1" spans="10:12">
       <c r="J11" s="1"/>
@@ -2363,10 +2397,10 @@
     </row>
     <row r="12" ht="24" customHeight="1" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C12" s="1">
         <v>5</v>
@@ -2378,10 +2412,10 @@
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K12" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="L12" s="2" t="b">
         <v>1</v>
@@ -2389,10 +2423,10 @@
     </row>
     <row r="13" ht="24" customHeight="1" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C13" s="1">
         <v>5</v>
@@ -2404,10 +2438,10 @@
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="L13" s="2" t="b">
         <v>1</v>
@@ -2415,10 +2449,10 @@
     </row>
     <row r="14" ht="24" customHeight="1" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C14" s="1">
         <v>5</v>
@@ -2430,10 +2464,10 @@
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K14" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L14" s="2" t="b">
         <v>1</v>
@@ -2441,10 +2475,10 @@
     </row>
     <row r="15" ht="24" customHeight="1" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C15" s="1">
         <v>5</v>
@@ -2456,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K15" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="L15" s="2" t="b">
         <v>1</v>
@@ -2467,10 +2501,10 @@
     </row>
     <row r="16" ht="24" customHeight="1" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C16" s="1">
         <v>5</v>
@@ -2482,10 +2516,10 @@
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K16" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L16" s="2" t="b">
         <v>1</v>
@@ -2493,10 +2527,10 @@
     </row>
     <row r="17" ht="24" customHeight="1" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C17" s="1">
         <v>5</v>
@@ -2508,10 +2542,10 @@
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K17" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="L17" s="2" t="b">
         <v>1</v>
@@ -2519,10 +2553,10 @@
     </row>
     <row r="18" ht="24" customHeight="1" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C18" s="1">
         <v>5</v>
@@ -2534,10 +2568,10 @@
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K18" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L18" s="2" t="b">
         <v>1</v>
@@ -2545,10 +2579,10 @@
     </row>
     <row r="19" ht="24" customHeight="1" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C19" s="1">
         <v>5</v>
@@ -2560,10 +2594,10 @@
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K19" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L19" s="2" t="b">
         <v>1</v>
@@ -2571,10 +2605,10 @@
     </row>
     <row r="20" ht="24" customHeight="1" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C20" s="1">
         <v>5</v>
@@ -2586,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K20" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L20" s="2" t="b">
         <v>1</v>
@@ -2597,10 +2631,10 @@
     </row>
     <row r="21" ht="24" customHeight="1" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C21" s="1">
         <v>5</v>
@@ -2612,10 +2646,10 @@
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K21" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L21" s="2" t="b">
         <v>1</v>
@@ -2623,10 +2657,10 @@
     </row>
     <row r="22" ht="24" customHeight="1" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C22" s="1">
         <v>5</v>
@@ -2638,10 +2672,10 @@
         <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K22" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L22" s="2" t="b">
         <v>1</v>
@@ -2649,10 +2683,10 @@
     </row>
     <row r="23" ht="24" customHeight="1" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C23" s="1">
         <v>5</v>
@@ -2664,10 +2698,10 @@
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K23" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="L23" s="2" t="b">
         <v>1</v>
@@ -2675,10 +2709,10 @@
     </row>
     <row r="24" ht="24" customHeight="1" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C24" s="1">
         <v>5</v>
@@ -2690,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K24" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="L24" s="2" t="b">
         <v>1</v>
@@ -2701,10 +2735,10 @@
     </row>
     <row r="25" ht="24" customHeight="1" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C25" s="1">
         <v>5</v>
@@ -2716,10 +2750,10 @@
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K25" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="L25" s="2" t="b">
         <v>1</v>
@@ -2728,7 +2762,7 @@
     <row r="26" ht="39" customHeight="1"/>
     <row r="27" ht="17" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C27" s="1">
         <v>6</v>
@@ -2737,15 +2771,15 @@
         <v>0</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" ht="17" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C28" s="1">
         <v>6</v>
@@ -2754,15 +2788,15 @@
         <v>0</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" customFormat="1" ht="17" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1">
@@ -2776,18 +2810,18 @@
         <v>0</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" customFormat="1" ht="17" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C30" s="1">
         <v>6</v>
@@ -2800,18 +2834,18 @@
         <v>0</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" customFormat="1" ht="17" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C31" s="1">
         <v>6</v>
@@ -2824,18 +2858,18 @@
         <v>0</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" customFormat="1" ht="17" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C32" s="1">
         <v>6</v>
@@ -2848,15 +2882,15 @@
         <v>0</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" customFormat="1" ht="17" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1">
@@ -2870,15 +2904,15 @@
         <v>0</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" customFormat="1" ht="17" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1">
@@ -2892,18 +2926,18 @@
         <v>0</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" customFormat="1" ht="17" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C35" s="1">
         <v>6</v>
@@ -2917,7 +2951,7 @@
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" customFormat="1" spans="1:10">
@@ -2958,7 +2992,7 @@
     </row>
     <row r="40" customFormat="1" ht="17" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1">
@@ -2972,15 +3006,15 @@
         <v>0</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" customFormat="1" ht="17" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1">
@@ -2994,15 +3028,15 @@
         <v>0</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" ht="17" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C42" s="1">
         <v>7</v>
@@ -3011,15 +3045,15 @@
         <v>0</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" customFormat="1" ht="17" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1">
@@ -3033,32 +3067,32 @@
         <v>0</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" ht="17" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C47" s="1">
         <v>8</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H47" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" customFormat="1" ht="17" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1">
@@ -3067,7 +3101,7 @@
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="1" t="b">
@@ -3075,15 +3109,15 @@
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="3" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" ht="17" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C50" s="1">
         <v>9</v>
@@ -3092,19 +3126,19 @@
         <v>4</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H50" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="K50" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="L50" s="2" t="b">
         <v>1</v>
@@ -3112,10 +3146,10 @@
     </row>
     <row r="51" customFormat="1" ht="17" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C51" s="1">
         <v>9</v>
@@ -3125,7 +3159,7 @@
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="1" t="b">
@@ -3133,10 +3167,10 @@
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="3" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="K51" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="L51" s="2" t="b">
         <v>1</v>
@@ -3144,10 +3178,10 @@
     </row>
     <row r="52" customFormat="1" ht="17" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C52" s="1">
         <v>9</v>
@@ -3157,7 +3191,7 @@
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="1" t="b">
@@ -3165,10 +3199,10 @@
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="3" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="K52" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L52" s="2" t="b">
         <v>1</v>
@@ -3176,10 +3210,10 @@
     </row>
     <row r="53" customFormat="1" ht="17" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C53" s="1">
         <v>9</v>
@@ -3189,7 +3223,7 @@
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="1" t="b">
@@ -3197,10 +3231,10 @@
       </c>
       <c r="I53" s="1"/>
       <c r="J53" s="3" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="K53" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L53" s="2" t="b">
         <v>1</v>
@@ -3208,10 +3242,10 @@
     </row>
     <row r="54" customFormat="1" ht="17" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C54" s="1">
         <v>9</v>
@@ -3221,7 +3255,7 @@
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="1" t="b">
@@ -3229,10 +3263,10 @@
       </c>
       <c r="I54" s="1"/>
       <c r="J54" s="3" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="K54" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="L54" s="2" t="b">
         <v>1</v>
@@ -3240,10 +3274,10 @@
     </row>
     <row r="55" customFormat="1" ht="17" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C55" s="1">
         <v>9</v>
@@ -3253,7 +3287,7 @@
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="1" t="b">
@@ -3261,10 +3295,10 @@
       </c>
       <c r="I55" s="1"/>
       <c r="J55" s="3" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="K55" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="L55" s="2" t="b">
         <v>1</v>
@@ -3272,10 +3306,10 @@
     </row>
     <row r="56" customFormat="1" ht="17" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C56" s="1">
         <v>9</v>
@@ -3285,7 +3319,7 @@
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="1" t="b">
@@ -3293,10 +3327,10 @@
       </c>
       <c r="I56" s="1"/>
       <c r="J56" s="3" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="K56" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="L56" s="2" t="b">
         <v>1</v>
@@ -3304,10 +3338,10 @@
     </row>
     <row r="57" customFormat="1" ht="17" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C57" s="1">
         <v>9</v>
@@ -3317,7 +3351,7 @@
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="1" t="b">
@@ -3325,10 +3359,10 @@
       </c>
       <c r="I57" s="1"/>
       <c r="J57" s="3" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="K57" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="L57" s="2" t="b">
         <v>1</v>
@@ -3336,10 +3370,10 @@
     </row>
     <row r="58" customFormat="1" ht="17" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C58" s="1">
         <v>9</v>
@@ -3349,7 +3383,7 @@
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="1" t="b">
@@ -3357,10 +3391,10 @@
       </c>
       <c r="I58" s="1"/>
       <c r="J58" s="3" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="K58" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="L58" s="2" t="b">
         <v>1</v>
@@ -3368,10 +3402,10 @@
     </row>
     <row r="59" customFormat="1" ht="34" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C59" s="1">
         <v>9</v>
@@ -3381,7 +3415,7 @@
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="1" t="b">
@@ -3389,10 +3423,10 @@
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="3" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="K59" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="L59" s="2" t="b">
         <v>1</v>
@@ -3400,10 +3434,10 @@
     </row>
     <row r="60" customFormat="1" ht="17" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C60" s="1">
         <v>9</v>
@@ -3413,7 +3447,7 @@
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="1" t="b">
@@ -3421,10 +3455,10 @@
       </c>
       <c r="I60" s="1"/>
       <c r="J60" s="3" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="K60" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="L60" s="2" t="b">
         <v>1</v>
@@ -3432,10 +3466,10 @@
     </row>
     <row r="61" customFormat="1" ht="17" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C61" s="1">
         <v>9</v>
@@ -3445,7 +3479,7 @@
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="1" t="b">
@@ -3453,10 +3487,10 @@
       </c>
       <c r="I61" s="1"/>
       <c r="J61" s="3" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="K61" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="L61" s="2" t="b">
         <v>1</v>
@@ -3464,10 +3498,10 @@
     </row>
     <row r="62" customFormat="1" ht="17" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C62" s="1">
         <v>9</v>
@@ -3477,7 +3511,7 @@
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="1" t="b">
@@ -3485,10 +3519,10 @@
       </c>
       <c r="I62" s="1"/>
       <c r="J62" s="3" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="K62" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="L62" s="2" t="b">
         <v>1</v>
@@ -3496,10 +3530,10 @@
     </row>
     <row r="63" customFormat="1" ht="17" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C63" s="1">
         <v>9</v>
@@ -3509,7 +3543,7 @@
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="1" t="b">
@@ -3517,10 +3551,10 @@
       </c>
       <c r="I63" s="1"/>
       <c r="J63" s="3" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="K63" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="L63" s="2" t="b">
         <v>1</v>
@@ -3567,10 +3601,10 @@
     </row>
     <row r="68" customFormat="1" ht="17" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C68" s="1">
         <v>9</v>
@@ -3580,7 +3614,7 @@
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G68" s="2"/>
       <c r="H68" s="1" t="b">
@@ -3588,10 +3622,10 @@
       </c>
       <c r="I68" s="1"/>
       <c r="J68" s="3" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="K68" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L68" s="2" t="b">
         <v>1</v>
@@ -3599,10 +3633,10 @@
     </row>
     <row r="69" customFormat="1" ht="17" spans="1:12">
       <c r="A69" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C69" s="1">
         <v>9</v>
@@ -3612,7 +3646,7 @@
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="1" t="b">
@@ -3620,10 +3654,10 @@
       </c>
       <c r="I69" s="1"/>
       <c r="J69" s="3" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="K69" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L69" s="2" t="b">
         <v>1</v>
@@ -3631,10 +3665,10 @@
     </row>
     <row r="70" customFormat="1" ht="51" spans="1:12">
       <c r="A70" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C70" s="1">
         <v>9</v>
@@ -3644,7 +3678,7 @@
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G70" s="2"/>
       <c r="H70" s="1" t="b">
@@ -3652,10 +3686,10 @@
       </c>
       <c r="I70" s="1"/>
       <c r="J70" s="3" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="K70" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L70" s="2" t="b">
         <v>1</v>
@@ -3663,10 +3697,10 @@
     </row>
     <row r="71" customFormat="1" ht="17" spans="1:12">
       <c r="A71" s="1" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C71" s="1">
         <v>9</v>
@@ -3676,7 +3710,7 @@
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G71" s="2"/>
       <c r="H71" s="1" t="b">
@@ -3684,10 +3718,10 @@
       </c>
       <c r="I71" s="1"/>
       <c r="J71" s="3" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="K71" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="L71" s="2" t="b">
         <v>1</v>
@@ -3695,10 +3729,10 @@
     </row>
     <row r="72" customFormat="1" ht="34" spans="1:12">
       <c r="A72" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C72" s="1">
         <v>9</v>
@@ -3708,7 +3742,7 @@
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G72" s="2"/>
       <c r="H72" s="1" t="b">
@@ -3716,10 +3750,10 @@
       </c>
       <c r="I72" s="1"/>
       <c r="J72" s="3" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="K72" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="L72" s="2" t="b">
         <v>1</v>
@@ -3727,10 +3761,10 @@
     </row>
     <row r="73" customFormat="1" ht="17" spans="1:12">
       <c r="A73" s="1" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C73" s="1">
         <v>9</v>
@@ -3740,7 +3774,7 @@
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="G73" s="2"/>
       <c r="H73" s="1" t="b">
@@ -3748,10 +3782,10 @@
       </c>
       <c r="I73" s="1"/>
       <c r="J73" s="3" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="K73" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L73" s="2" t="b">
         <v>1</v>
@@ -3759,10 +3793,10 @@
     </row>
     <row r="74" customFormat="1" ht="17" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C74" s="1">
         <v>9</v>
@@ -3772,7 +3806,7 @@
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G74" s="2"/>
       <c r="H74" s="1" t="b">
@@ -3780,10 +3814,10 @@
       </c>
       <c r="I74" s="1"/>
       <c r="J74" s="3" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="K74" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="L74" s="2" t="b">
         <v>1</v>
@@ -3817,25 +3851,25 @@
     </row>
     <row r="77" ht="17" spans="1:12">
       <c r="A77" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C77" s="1">
         <v>10</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="H77" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K77" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="L77" t="b">
         <v>1</v>
@@ -3856,93 +3890,93 @@
     </row>
     <row r="80" ht="17" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C80" s="1">
         <v>99</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H80" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="81" ht="17" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C81" s="1">
         <v>99</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="H81" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="82" ht="17" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C82" s="1">
         <v>99</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="H82" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="83" ht="17" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C83" s="1">
         <v>99</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H83" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="85" ht="17" spans="1:12">
       <c r="A85" s="1" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C85" s="1">
         <v>99</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="H85" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="K85" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="L85" t="b">
         <v>1</v>
@@ -3950,25 +3984,25 @@
     </row>
     <row r="86" ht="17" spans="1:12">
       <c r="A86" s="1" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C86" s="1">
         <v>99</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="H86" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="K86" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="L86" t="b">
         <v>1</v>
@@ -3976,25 +4010,25 @@
     </row>
     <row r="87" ht="17" spans="1:12">
       <c r="A87" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C87" s="1">
         <v>99</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="H87" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="K87" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L87" t="b">
         <v>1</v>
@@ -4002,10 +4036,10 @@
     </row>
     <row r="89" customFormat="1" ht="17" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C89" s="1">
         <v>99</v>
@@ -4019,12 +4053,12 @@
       </c>
       <c r="I89" s="1"/>
       <c r="J89" s="3" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="90" customFormat="1" ht="17" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1">
@@ -4039,12 +4073,12 @@
       </c>
       <c r="I90" s="1"/>
       <c r="J90" s="3" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="91" customFormat="1" ht="17" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1">
@@ -4059,12 +4093,12 @@
       </c>
       <c r="I91" s="1"/>
       <c r="J91" s="3" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="92" customFormat="1" ht="17" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1">
@@ -4079,12 +4113,12 @@
       </c>
       <c r="I92" s="1"/>
       <c r="J92" s="3" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="93" customFormat="1" ht="17" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1">
@@ -4099,15 +4133,15 @@
       </c>
       <c r="I93" s="1"/>
       <c r="J93" s="3" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="94" customFormat="1" ht="17" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C94" s="1">
         <v>99</v>
@@ -4121,15 +4155,15 @@
       </c>
       <c r="I94" s="1"/>
       <c r="J94" s="3" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="95" customFormat="1" ht="17" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C95" s="1">
         <v>99</v>
@@ -4143,15 +4177,15 @@
       </c>
       <c r="I95" s="1"/>
       <c r="J95" s="3" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="96" customFormat="1" ht="17" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C96" s="1">
         <v>99</v>
@@ -4165,15 +4199,15 @@
       </c>
       <c r="I96" s="1"/>
       <c r="J96" s="3" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="97" customFormat="1" ht="17" spans="1:10">
       <c r="A97" s="5" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C97" s="5">
         <v>99</v>
@@ -4187,15 +4221,15 @@
       </c>
       <c r="I97" s="5"/>
       <c r="J97" s="8" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="98" customFormat="1" ht="17" spans="1:10">
       <c r="A98" s="5" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B98" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C98" s="5">
         <v>99</v>
@@ -4209,15 +4243,15 @@
       </c>
       <c r="I98" s="5"/>
       <c r="J98" s="8" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="99" customFormat="1" ht="17" spans="1:10">
       <c r="A99" s="5" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B99" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C99" s="5">
         <v>99</v>
@@ -4231,15 +4265,15 @@
       </c>
       <c r="I99" s="5"/>
       <c r="J99" s="8" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="100" ht="17" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C100" s="1">
         <v>99</v>
@@ -4248,15 +4282,15 @@
         <v>1</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="101" customFormat="1" ht="17" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C101" s="1">
         <v>99</v>
@@ -4270,15 +4304,15 @@
       </c>
       <c r="I101" s="1"/>
       <c r="J101" s="3" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="102" customFormat="1" ht="17" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C102" s="1">
         <v>99</v>
@@ -4292,15 +4326,15 @@
       </c>
       <c r="I102" s="1"/>
       <c r="J102" s="3" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="103" customFormat="1" ht="17" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B103" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C103" s="1">
         <v>99</v>
@@ -4314,15 +4348,15 @@
       </c>
       <c r="I103" s="1"/>
       <c r="J103" s="3" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="104" customFormat="1" ht="17" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B104" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C104" s="1">
         <v>99</v>
@@ -4336,15 +4370,15 @@
       </c>
       <c r="I104" s="1"/>
       <c r="J104" s="3" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="105" customFormat="1" ht="17" spans="1:10">
       <c r="A105" s="1" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C105" s="1">
         <v>99</v>
@@ -4358,15 +4392,15 @@
       </c>
       <c r="I105" s="1"/>
       <c r="J105" s="3" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="106" customFormat="1" ht="17" spans="1:10">
       <c r="A106" s="1" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B106" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C106" s="1">
         <v>99</v>
@@ -4380,15 +4414,15 @@
       </c>
       <c r="I106" s="1"/>
       <c r="J106" s="3" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="107" customFormat="1" ht="17" spans="1:10">
       <c r="A107" s="1" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B107" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C107" s="1">
         <v>99</v>
@@ -4402,15 +4436,15 @@
       </c>
       <c r="I107" s="1"/>
       <c r="J107" s="3" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="108" customFormat="1" ht="17" spans="1:10">
       <c r="A108" s="1" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B108" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C108" s="1">
         <v>99</v>
@@ -4424,15 +4458,15 @@
       </c>
       <c r="I108" s="1"/>
       <c r="J108" s="3" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="109" customFormat="1" ht="17" spans="1:10">
       <c r="A109" s="1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B109" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C109" s="1">
         <v>99</v>
@@ -4446,15 +4480,15 @@
       </c>
       <c r="I109" s="1"/>
       <c r="J109" s="3" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="110" customFormat="1" ht="17" spans="1:10">
       <c r="A110" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B110" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C110" s="1">
         <v>99</v>
@@ -4468,15 +4502,15 @@
       </c>
       <c r="I110" s="1"/>
       <c r="J110" s="3" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="111" customFormat="1" ht="17" spans="1:10">
       <c r="A111" s="1" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B111" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C111" s="1">
         <v>99</v>
@@ -4490,15 +4524,15 @@
       </c>
       <c r="I111" s="1"/>
       <c r="J111" s="3" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="112" customFormat="1" ht="17" spans="1:10">
       <c r="A112" s="1" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B112" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C112" s="1">
         <v>99</v>
@@ -4512,15 +4546,15 @@
       </c>
       <c r="I112" s="1"/>
       <c r="J112" s="3" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="113" customFormat="1" ht="17" spans="1:10">
       <c r="A113" s="1" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B113" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C113" s="1">
         <v>99</v>
@@ -4534,15 +4568,15 @@
       </c>
       <c r="I113" s="1"/>
       <c r="J113" s="3" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="114" customFormat="1" ht="17" spans="1:10">
       <c r="A114" s="1" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B114" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C114" s="1">
         <v>99</v>
@@ -4556,15 +4590,15 @@
       </c>
       <c r="I114" s="1"/>
       <c r="J114" s="3" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="115" ht="17" spans="1:10">
       <c r="A115" s="5" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C115" s="5">
         <v>99</v>
@@ -4578,15 +4612,15 @@
       </c>
       <c r="I115" s="5"/>
       <c r="J115" s="8" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="116" customFormat="1" ht="17" spans="1:10">
       <c r="A116" s="5" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C116" s="5">
         <v>99</v>
@@ -4600,15 +4634,15 @@
       </c>
       <c r="I116" s="5"/>
       <c r="J116" s="8" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="117" customFormat="1" ht="17" spans="1:10">
       <c r="A117" s="5" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C117" s="5">
         <v>99</v>
@@ -4622,15 +4656,15 @@
       </c>
       <c r="I117" s="5"/>
       <c r="J117" s="8" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="118" customFormat="1" ht="17" spans="1:10">
       <c r="A118" s="5" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B118" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C118" s="5">
         <v>99</v>
@@ -4644,15 +4678,15 @@
       </c>
       <c r="I118" s="5"/>
       <c r="J118" s="8" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="119" customFormat="1" ht="17" spans="1:10">
       <c r="A119" s="5" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B119" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C119" s="5">
         <v>99</v>
@@ -4666,15 +4700,15 @@
       </c>
       <c r="I119" s="5"/>
       <c r="J119" s="8" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="120" ht="17" spans="1:10">
       <c r="A120" s="5" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C120" s="5">
         <v>99</v>
@@ -4688,7 +4722,7 @@
       </c>
       <c r="I120" s="5"/>
       <c r="J120" s="8" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>

--- a/DungeonShooting_Godot/excel/ActivityBase.xlsx
+++ b/DungeonShooting_Godot/excel/ActivityBase.xlsx
@@ -70,6 +70,7 @@
 Effect(特效): 8
 Prop(道具): 9
 Treasure(宝箱): 10
+Npc: 11
 Other(其它类型): 99</t>
   </si>
   <si>
@@ -2142,11 +2143,11 @@
   <dimension ref="A1:L120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L11" sqref="L11"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -2373,7 +2374,7 @@
         <v>43</v>
       </c>
       <c r="C10" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>43</v>

--- a/DungeonShooting_Godot/excel/ActivityBase.xlsx
+++ b/DungeonShooting_Godot/excel/ActivityBase.xlsx
@@ -4,19 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17040"/>
+    <workbookView windowWidth="24750" windowHeight="12200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="362">
   <si>
     <t>Id</t>
   </si>
@@ -164,6 +177,42 @@
   </si>
   <si>
     <t>res://resource/sprite/role/enemy0002/Enemy0002.png</t>
+  </si>
+  <si>
+    <t>enemy0003</t>
+  </si>
+  <si>
+    <t>敌人3</t>
+  </si>
+  <si>
+    <t>res://prefab/role/enemy/Enemy0003.tscn</t>
+  </si>
+  <si>
+    <t>res://resource/sprite/role/enemy0003/enemy0003_Icon.png</t>
+  </si>
+  <si>
+    <t>enemy0004</t>
+  </si>
+  <si>
+    <t>敌人4</t>
+  </si>
+  <si>
+    <t>res://prefab/role/enemy/Enemy0004.tscn</t>
+  </si>
+  <si>
+    <t>res://resource/sprite/role/enemy0004/enemy0004_Icon.png</t>
+  </si>
+  <si>
+    <t>enemy0005</t>
+  </si>
+  <si>
+    <t>敌人5</t>
+  </si>
+  <si>
+    <t>res://prefab/role/enemy/Enemy0005.tscn</t>
+  </si>
+  <si>
+    <t>res://resource/sprite/role/enemy0005/enemy0005_Icon.png</t>
   </si>
   <si>
     <t>shopBoss0001</t>
@@ -2140,28 +2189,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L120"/>
+  <dimension ref="A1:L124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="22.4230769230769" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.4326923076923" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5961538461538" style="1" customWidth="1"/>
-    <col min="4" max="5" width="27.375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="35.5576923076923" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18.8173076923077" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="63.3653846153846" style="3" customWidth="1"/>
-    <col min="11" max="11" width="61.9134615384615" customWidth="1"/>
-    <col min="12" max="12" width="32.4230769230769" customWidth="1"/>
+    <col min="1" max="1" width="22.4272727272727" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.4363636363636" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6" style="1" customWidth="1"/>
+    <col min="4" max="5" width="27.3727272727273" style="1" customWidth="1"/>
+    <col min="6" max="7" width="35.5545454545455" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.8181818181818" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.1272727272727" style="1" customWidth="1"/>
+    <col min="10" max="10" width="63.3636363636364" style="3" customWidth="1"/>
+    <col min="11" max="11" width="61.9090909090909" customWidth="1"/>
+    <col min="12" max="12" width="32.4272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:12">
@@ -2362,93 +2411,93 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="28" customHeight="1" spans="10:12">
-      <c r="J9" s="1"/>
-      <c r="L9" s="2"/>
+    <row r="9" ht="28" customHeight="1" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" ht="28" customHeight="1" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="1">
-        <v>11</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="H10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="28" customHeight="1" spans="1:12">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K10" t="s">
-        <v>45</v>
-      </c>
-      <c r="L10" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" ht="28" customHeight="1" spans="10:12">
-      <c r="J11" s="1"/>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" ht="24" customHeight="1" spans="1:12">
-      <c r="A12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="1">
-        <v>5</v>
-      </c>
-      <c r="D12" s="1">
-        <v>3</v>
-      </c>
-      <c r="H12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K12" t="s">
-        <v>49</v>
-      </c>
-      <c r="L12" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" ht="24" customHeight="1" spans="1:12">
-      <c r="A13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="1">
-        <v>5</v>
-      </c>
-      <c r="D13" s="1">
-        <v>3</v>
-      </c>
-      <c r="H13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1" t="s">
+      <c r="H11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K11" t="s">
         <v>53</v>
       </c>
-      <c r="L13" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" ht="24" customHeight="1" spans="1:12">
+      <c r="L11" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="28" customHeight="1" spans="10:12">
+      <c r="J12" s="1"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" ht="28" customHeight="1" spans="10:12">
+      <c r="J13" s="1"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" ht="28" customHeight="1" spans="1:12">
       <c r="A14" s="1" t="s">
         <v>54</v>
       </c>
@@ -2456,10 +2505,10 @@
         <v>55</v>
       </c>
       <c r="C14" s="1">
-        <v>5</v>
-      </c>
-      <c r="D14" s="1">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="H14" s="1" t="b">
         <v>0</v>
@@ -2474,53 +2523,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" ht="24" customHeight="1" spans="1:12">
-      <c r="A15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="1">
-        <v>5</v>
-      </c>
-      <c r="D15" s="1">
-        <v>4</v>
-      </c>
-      <c r="H15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K15" t="s">
-        <v>61</v>
-      </c>
-      <c r="L15" s="2" t="b">
-        <v>1</v>
-      </c>
+    <row r="15" ht="28" customHeight="1" spans="10:12">
+      <c r="J15" s="1"/>
+      <c r="L15" s="2"/>
     </row>
     <row r="16" ht="24" customHeight="1" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C16" s="1">
         <v>5</v>
       </c>
       <c r="D16" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H16" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K16" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L16" s="2" t="b">
         <v>1</v>
@@ -2528,25 +2555,25 @@
     </row>
     <row r="17" ht="24" customHeight="1" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C17" s="1">
         <v>5</v>
       </c>
       <c r="D17" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H17" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L17" s="2" t="b">
         <v>1</v>
@@ -2554,25 +2581,25 @@
     </row>
     <row r="18" ht="24" customHeight="1" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C18" s="1">
         <v>5</v>
       </c>
       <c r="D18" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H18" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K18" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L18" s="2" t="b">
         <v>1</v>
@@ -2580,25 +2607,25 @@
     </row>
     <row r="19" ht="24" customHeight="1" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C19" s="1">
         <v>5</v>
       </c>
       <c r="D19" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H19" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L19" s="2" t="b">
         <v>1</v>
@@ -2606,10 +2633,10 @@
     </row>
     <row r="20" ht="24" customHeight="1" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C20" s="1">
         <v>5</v>
@@ -2621,10 +2648,10 @@
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L20" s="2" t="b">
         <v>1</v>
@@ -2632,25 +2659,25 @@
     </row>
     <row r="21" ht="24" customHeight="1" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C21" s="1">
         <v>5</v>
       </c>
       <c r="D21" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H21" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K21" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L21" s="2" t="b">
         <v>1</v>
@@ -2658,25 +2685,25 @@
     </row>
     <row r="22" ht="24" customHeight="1" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C22" s="1">
         <v>5</v>
       </c>
       <c r="D22" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H22" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K22" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L22" s="2" t="b">
         <v>1</v>
@@ -2684,25 +2711,25 @@
     </row>
     <row r="23" ht="24" customHeight="1" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C23" s="1">
         <v>5</v>
       </c>
       <c r="D23" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H23" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K23" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L23" s="2" t="b">
         <v>1</v>
@@ -2710,25 +2737,25 @@
     </row>
     <row r="24" ht="24" customHeight="1" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C24" s="1">
         <v>5</v>
       </c>
       <c r="D24" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H24" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K24" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L24" s="2" t="b">
         <v>1</v>
@@ -2736,125 +2763,142 @@
     </row>
     <row r="25" ht="24" customHeight="1" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C25" s="1">
         <v>5</v>
       </c>
       <c r="D25" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H25" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K25" t="s">
+        <v>97</v>
+      </c>
+      <c r="L25" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" ht="24" customHeight="1" spans="1:12">
+      <c r="A26" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="1">
+        <v>5</v>
+      </c>
+      <c r="D26" s="1">
+        <v>5</v>
+      </c>
+      <c r="H26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K26" t="s">
         <v>100</v>
       </c>
-      <c r="L25" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" ht="39" customHeight="1"/>
-    <row r="27" ht="17" spans="1:10">
+      <c r="L26" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" ht="24" customHeight="1" spans="1:12">
       <c r="A27" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="B27" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="C27" s="1">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="D27" s="1">
+        <v>4</v>
       </c>
       <c r="H27" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I27" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="J27" s="3" t="s">
+      <c r="J27" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="28" ht="17" spans="1:10">
+      <c r="K27" t="s">
+        <v>104</v>
+      </c>
+      <c r="L27" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" ht="24" customHeight="1" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="C28" s="1">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2</v>
       </c>
       <c r="H28" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I28" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" customFormat="1" ht="17" spans="1:10">
+      <c r="J28" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K28" t="s">
+        <v>108</v>
+      </c>
+      <c r="L28" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" ht="24" customHeight="1" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B29" s="1"/>
+        <v>109</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="C29" s="1">
-        <v>6</v>
-      </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2</v>
+      </c>
       <c r="H29" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I29" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="30" customFormat="1" ht="17" spans="1:10">
-      <c r="A30" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C30" s="1">
-        <v>6</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="J30" s="3" t="s">
+      <c r="J29" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="31" customFormat="1" ht="17" spans="1:10">
+      <c r="K29" t="s">
+        <v>112</v>
+      </c>
+      <c r="L29" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" ht="39" customHeight="1"/>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B31" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C31" s="1">
         <v>6</v>
       </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
       <c r="H31" s="1" t="b">
         <v>0</v>
       </c>
@@ -2865,33 +2909,26 @@
         <v>115</v>
       </c>
     </row>
-    <row r="32" customFormat="1" ht="17" spans="1:10">
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="C32" s="1">
         <v>6</v>
       </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
       <c r="H32" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="J32" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" spans="1:10">
+      <c r="A33" s="1" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="33" customFormat="1" ht="17" spans="1:10">
-      <c r="A33" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1">
@@ -2905,17 +2942,19 @@
         <v>0</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="J33" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" spans="1:10">
+      <c r="A34" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="34" customFormat="1" ht="17" spans="1:10">
-      <c r="A34" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B34" s="1"/>
       <c r="C34" s="1">
         <v>6</v>
       </c>
@@ -2927,18 +2966,18 @@
         <v>0</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="35" customFormat="1" ht="17" spans="1:10">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C35" s="1">
         <v>6</v>
@@ -2950,249 +2989,251 @@
       <c r="H35" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I35" s="4"/>
+      <c r="I35" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="J35" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" customFormat="1" spans="1:10">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
+      <c r="A36" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" s="1">
+        <v>6</v>
+      </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="3"/>
+      <c r="H36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="37" customFormat="1" spans="1:10">
-      <c r="A37" s="1"/>
+      <c r="A37" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
+      <c r="C37" s="1">
+        <v>6</v>
+      </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="3"/>
+      <c r="H37" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="38" customFormat="1" spans="1:10">
-      <c r="A38" s="1"/>
+      <c r="A38" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
+      <c r="C38" s="1">
+        <v>6</v>
+      </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="3"/>
-    </row>
-    <row r="40" customFormat="1" ht="17" spans="1:10">
-      <c r="A40" s="1" t="s">
-        <v>126</v>
-      </c>
+      <c r="H38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" spans="1:10">
+      <c r="A39" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C39" s="1">
+        <v>6</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" s="4"/>
+      <c r="J39" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" spans="1:10">
+      <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="1">
-        <v>7</v>
-      </c>
+      <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-      <c r="H40" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="41" customFormat="1" ht="17" spans="1:10">
-      <c r="A41" s="1" t="s">
-        <v>129</v>
-      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="3"/>
+    </row>
+    <row r="41" customFormat="1" spans="1:10">
+      <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="1">
-        <v>7</v>
-      </c>
+      <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="42" ht="17" spans="1:10">
-      <c r="A42" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C42" s="1">
+      <c r="H41" s="1"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" customFormat="1" spans="1:10">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="3"/>
+    </row>
+    <row r="44" customFormat="1" spans="1:10">
+      <c r="A44" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1">
         <v>7</v>
       </c>
-      <c r="H42" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="43" customFormat="1" ht="17" spans="1:10">
-      <c r="A43" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1">
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" customFormat="1" spans="1:10">
+      <c r="A45" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1">
         <v>7</v>
       </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="47" ht="17" spans="1:10">
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C46" s="1">
+        <v>7</v>
+      </c>
+      <c r="H46" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="47" customFormat="1" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>135</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="B47" s="1"/>
       <c r="C47" s="1">
-        <v>8</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>136</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
       <c r="H47" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="I47" s="4" t="s">
+        <v>139</v>
+      </c>
       <c r="J47" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="48" customFormat="1" ht="17" spans="1:10">
-      <c r="A48" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1">
-        <v>8</v>
-      </c>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G48" s="2"/>
-      <c r="H48" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" s="1"/>
-      <c r="J48" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="50" ht="17" spans="1:12">
-      <c r="A50" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C50" s="1">
-        <v>9</v>
-      </c>
-      <c r="D50" s="1">
-        <v>4</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H50" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="K50" t="s">
         <v>146</v>
       </c>
-      <c r="L50" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" customFormat="1" ht="17" spans="1:12">
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="C51" s="1">
+        <v>8</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C51" s="1">
-        <v>9</v>
-      </c>
-      <c r="D51" s="1">
-        <v>3</v>
-      </c>
-      <c r="E51" s="1"/>
-      <c r="F51" s="2" t="s">
+      <c r="H51" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="G51" s="2"/>
-      <c r="H51" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" s="1"/>
-      <c r="J51" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="K51" t="s">
+    </row>
+    <row r="52" customFormat="1" spans="1:10">
+      <c r="A52" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="L51" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" customFormat="1" ht="17" spans="1:12">
-      <c r="A52" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>152</v>
-      </c>
+      <c r="B52" s="1"/>
       <c r="C52" s="1">
-        <v>9</v>
-      </c>
-      <c r="D52" s="1">
-        <v>3</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="1" t="b">
@@ -3200,53 +3241,15 @@
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="K52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="L52" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" customFormat="1" ht="17" spans="1:12">
-      <c r="A53" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C53" s="1">
-        <v>9</v>
-      </c>
-      <c r="D53" s="1">
-        <v>4</v>
-      </c>
-      <c r="E53" s="1"/>
-      <c r="F53" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G53" s="2"/>
-      <c r="H53" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" s="1"/>
-      <c r="J53" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="K53" t="s">
-        <v>158</v>
-      </c>
-      <c r="L53" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" customFormat="1" ht="17" spans="1:12">
-      <c r="A54" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="C54" s="1">
         <v>9</v>
@@ -3254,41 +3257,41 @@
       <c r="D54" s="1">
         <v>4</v>
       </c>
-      <c r="E54" s="1"/>
       <c r="F54" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G54" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="H54" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I54" s="1"/>
       <c r="J54" s="3" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="K54" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="L54" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="55" customFormat="1" ht="17" spans="1:12">
+    <row r="55" customFormat="1" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C55" s="1">
         <v>9</v>
       </c>
       <c r="D55" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="1" t="b">
@@ -3296,21 +3299,21 @@
       </c>
       <c r="I55" s="1"/>
       <c r="J55" s="3" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="K55" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L55" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="56" customFormat="1" ht="17" spans="1:12">
+    <row r="56" customFormat="1" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C56" s="1">
         <v>9</v>
@@ -3320,7 +3323,7 @@
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="1" t="b">
@@ -3328,31 +3331,31 @@
       </c>
       <c r="I56" s="1"/>
       <c r="J56" s="3" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="K56" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="L56" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="57" customFormat="1" ht="17" spans="1:12">
+    <row r="57" customFormat="1" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C57" s="1">
         <v>9</v>
       </c>
       <c r="D57" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="1" t="b">
@@ -3360,31 +3363,31 @@
       </c>
       <c r="I57" s="1"/>
       <c r="J57" s="3" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="K57" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="L57" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="58" customFormat="1" ht="17" spans="1:12">
+    <row r="58" customFormat="1" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C58" s="1">
         <v>9</v>
       </c>
       <c r="D58" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="1" t="b">
@@ -3392,21 +3395,21 @@
       </c>
       <c r="I58" s="1"/>
       <c r="J58" s="3" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="K58" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L58" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="59" customFormat="1" ht="34" spans="1:12">
+    <row r="59" customFormat="1" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C59" s="1">
         <v>9</v>
@@ -3416,7 +3419,7 @@
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="1" t="b">
@@ -3424,31 +3427,31 @@
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="3" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="K59" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L59" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="60" customFormat="1" ht="17" spans="1:12">
+    <row r="60" customFormat="1" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C60" s="1">
         <v>9</v>
       </c>
       <c r="D60" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="1" t="b">
@@ -3456,31 +3459,31 @@
       </c>
       <c r="I60" s="1"/>
       <c r="J60" s="3" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="K60" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L60" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="61" customFormat="1" ht="17" spans="1:12">
+    <row r="61" customFormat="1" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C61" s="1">
         <v>9</v>
       </c>
       <c r="D61" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="1" t="b">
@@ -3488,31 +3491,31 @@
       </c>
       <c r="I61" s="1"/>
       <c r="J61" s="3" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="K61" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L61" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="62" customFormat="1" ht="17" spans="1:12">
+    <row r="62" customFormat="1" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C62" s="1">
         <v>9</v>
       </c>
       <c r="D62" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="1" t="b">
@@ -3520,31 +3523,31 @@
       </c>
       <c r="I62" s="1"/>
       <c r="J62" s="3" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="K62" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="L62" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="63" customFormat="1" ht="17" spans="1:12">
+    <row r="63" customFormat="1" ht="28" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C63" s="1">
         <v>9</v>
       </c>
       <c r="D63" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="1" t="b">
@@ -3552,188 +3555,188 @@
       </c>
       <c r="I63" s="1"/>
       <c r="J63" s="3" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="K63" t="s">
+        <v>194</v>
+      </c>
+      <c r="L63" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" customFormat="1" spans="1:12">
+      <c r="A64" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C64" s="1">
+        <v>9</v>
+      </c>
+      <c r="D64" s="1">
+        <v>4</v>
+      </c>
+      <c r="E64" s="1"/>
+      <c r="F64" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G64" s="2"/>
+      <c r="H64" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" s="1"/>
+      <c r="J64" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="K64" t="s">
         <v>198</v>
       </c>
-      <c r="L63" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" customFormat="1" spans="1:12">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="3"/>
-      <c r="L64" s="2"/>
+      <c r="L64" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="65" customFormat="1" spans="1:12">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
+      <c r="A65" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C65" s="1">
+        <v>9</v>
+      </c>
+      <c r="D65" s="1">
+        <v>4</v>
+      </c>
       <c r="E65" s="1"/>
-      <c r="F65" s="2"/>
+      <c r="F65" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="G65" s="2"/>
-      <c r="H65" s="1"/>
+      <c r="H65" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="I65" s="1"/>
-      <c r="J65" s="3"/>
-      <c r="L65" s="2"/>
+      <c r="J65" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="K65" t="s">
+        <v>202</v>
+      </c>
+      <c r="L65" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="66" customFormat="1" spans="1:12">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
+      <c r="A66" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C66" s="1">
+        <v>9</v>
+      </c>
+      <c r="D66" s="1">
+        <v>2</v>
+      </c>
       <c r="E66" s="1"/>
-      <c r="F66" s="2"/>
+      <c r="F66" s="2" t="s">
+        <v>205</v>
+      </c>
       <c r="G66" s="2"/>
-      <c r="H66" s="1"/>
+      <c r="H66" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="I66" s="1"/>
-      <c r="J66" s="3"/>
-      <c r="L66" s="2"/>
-    </row>
-    <row r="68" customFormat="1" ht="17" spans="1:12">
-      <c r="A68" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C68" s="1">
+      <c r="J66" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="K66" t="s">
+        <v>206</v>
+      </c>
+      <c r="L66" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" customFormat="1" spans="1:12">
+      <c r="A67" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C67" s="1">
         <v>9</v>
       </c>
-      <c r="D68" s="1">
-        <v>1</v>
-      </c>
+      <c r="D67" s="1">
+        <v>2</v>
+      </c>
+      <c r="E67" s="1"/>
+      <c r="F67" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G67" s="2"/>
+      <c r="H67" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" s="1"/>
+      <c r="J67" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="K67" t="s">
+        <v>210</v>
+      </c>
+      <c r="L67" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" customFormat="1" spans="1:12">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
       <c r="E68" s="1"/>
-      <c r="F68" s="2" t="s">
-        <v>201</v>
-      </c>
+      <c r="F68" s="2"/>
       <c r="G68" s="2"/>
-      <c r="H68" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-      <c r="J68" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="K68" t="s">
-        <v>203</v>
-      </c>
-      <c r="L68" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" customFormat="1" ht="17" spans="1:12">
-      <c r="A69" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C69" s="1">
-        <v>9</v>
-      </c>
-      <c r="D69" s="1">
-        <v>1</v>
-      </c>
+      <c r="J68" s="3"/>
+      <c r="L68" s="2"/>
+    </row>
+    <row r="69" customFormat="1" spans="1:12">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
       <c r="E69" s="1"/>
-      <c r="F69" s="2" t="s">
-        <v>206</v>
-      </c>
+      <c r="F69" s="2"/>
       <c r="G69" s="2"/>
-      <c r="H69" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-      <c r="J69" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="K69" t="s">
-        <v>207</v>
-      </c>
-      <c r="L69" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" customFormat="1" ht="51" spans="1:12">
-      <c r="A70" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C70" s="1">
-        <v>9</v>
-      </c>
-      <c r="D70" s="1">
-        <v>1</v>
-      </c>
+      <c r="J69" s="3"/>
+      <c r="L69" s="2"/>
+    </row>
+    <row r="70" customFormat="1" spans="1:12">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="2" t="s">
-        <v>210</v>
-      </c>
+      <c r="F70" s="2"/>
       <c r="G70" s="2"/>
-      <c r="H70" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-      <c r="J70" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="K70" t="s">
+      <c r="J70" s="3"/>
+      <c r="L70" s="2"/>
+    </row>
+    <row r="72" customFormat="1" spans="1:12">
+      <c r="A72" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L70" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" customFormat="1" ht="17" spans="1:12">
-      <c r="A71" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C71" s="1">
-        <v>9</v>
-      </c>
-      <c r="D71" s="1">
-        <v>1</v>
-      </c>
-      <c r="E71" s="1"/>
-      <c r="F71" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="G71" s="2"/>
-      <c r="H71" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" s="1"/>
-      <c r="J71" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="K71" t="s">
-        <v>215</v>
-      </c>
-      <c r="L71" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" customFormat="1" ht="34" spans="1:12">
-      <c r="A72" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="C72" s="1">
         <v>9</v>
@@ -3743,7 +3746,7 @@
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G72" s="2"/>
       <c r="H72" s="1" t="b">
@@ -3751,21 +3754,21 @@
       </c>
       <c r="I72" s="1"/>
       <c r="J72" s="3" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="K72" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L72" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="73" customFormat="1" ht="17" spans="1:12">
+    <row r="73" customFormat="1" spans="1:12">
       <c r="A73" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="C73" s="1">
         <v>9</v>
@@ -3775,7 +3778,7 @@
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G73" s="2"/>
       <c r="H73" s="1" t="b">
@@ -3783,21 +3786,21 @@
       </c>
       <c r="I73" s="1"/>
       <c r="J73" s="3" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="K73" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="L73" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="74" customFormat="1" ht="17" spans="1:12">
+    <row r="74" customFormat="1" ht="42" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>221</v>
       </c>
       <c r="C74" s="1">
         <v>9</v>
@@ -3807,7 +3810,7 @@
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G74" s="2"/>
       <c r="H74" s="1" t="b">
@@ -3815,179 +3818,244 @@
       </c>
       <c r="I74" s="1"/>
       <c r="J74" s="3" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="K74" t="s">
+        <v>223</v>
+      </c>
+      <c r="L74" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" customFormat="1" spans="1:12">
+      <c r="A75" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C75" s="1">
+        <v>9</v>
+      </c>
+      <c r="D75" s="1">
+        <v>1</v>
+      </c>
+      <c r="E75" s="1"/>
+      <c r="F75" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G75" s="2"/>
+      <c r="H75" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" s="1"/>
+      <c r="J75" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="K75" t="s">
         <v>227</v>
       </c>
-      <c r="L74" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" customFormat="1" spans="1:12">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="3"/>
-      <c r="L75" s="2"/>
-    </row>
-    <row r="76" customFormat="1" spans="1:12">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
+      <c r="L75" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" customFormat="1" ht="28" spans="1:12">
+      <c r="A76" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C76" s="1">
+        <v>9</v>
+      </c>
+      <c r="D76" s="1">
+        <v>1</v>
+      </c>
       <c r="E76" s="1"/>
-      <c r="F76" s="2"/>
+      <c r="F76" s="2" t="s">
+        <v>230</v>
+      </c>
       <c r="G76" s="2"/>
-      <c r="H76" s="1"/>
+      <c r="H76" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="I76" s="1"/>
-      <c r="J76" s="3"/>
-      <c r="L76" s="2"/>
-    </row>
-    <row r="77" ht="17" spans="1:12">
+      <c r="J76" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="K76" t="s">
+        <v>231</v>
+      </c>
+      <c r="L76" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" customFormat="1" spans="1:12">
       <c r="A77" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>233</v>
       </c>
       <c r="C77" s="1">
+        <v>9</v>
+      </c>
+      <c r="D77" s="1">
+        <v>1</v>
+      </c>
+      <c r="E77" s="1"/>
+      <c r="F77" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G77" s="2"/>
+      <c r="H77" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" s="1"/>
+      <c r="J77" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="K77" t="s">
+        <v>235</v>
+      </c>
+      <c r="L77" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" customFormat="1" spans="1:12">
+      <c r="A78" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C78" s="1">
+        <v>9</v>
+      </c>
+      <c r="D78" s="1">
+        <v>1</v>
+      </c>
+      <c r="E78" s="1"/>
+      <c r="F78" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G78" s="2"/>
+      <c r="H78" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" s="1"/>
+      <c r="J78" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="K78" t="s">
+        <v>239</v>
+      </c>
+      <c r="L78" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" customFormat="1" spans="1:12">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="3"/>
+      <c r="L79" s="2"/>
+    </row>
+    <row r="80" customFormat="1" spans="1:12">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="3"/>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C81" s="1">
         <v>10</v>
       </c>
-      <c r="F77" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H77" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J77" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="K77" t="s">
-        <v>231</v>
-      </c>
-      <c r="L77" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" customFormat="1" spans="1:12">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="3"/>
-      <c r="L78" s="2"/>
-    </row>
-    <row r="80" ht="17" spans="1:10">
-      <c r="A80" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C80" s="1">
+      <c r="F81" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H81" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="K81" t="s">
+        <v>243</v>
+      </c>
+      <c r="L81" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" customFormat="1" spans="1:12">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="3"/>
+      <c r="L82" s="2"/>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C84" s="1">
         <v>99</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="H80" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J80" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="81" ht="17" spans="1:10">
-      <c r="A81" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C81" s="1">
-        <v>99</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="H81" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="82" ht="17" spans="1:10">
-      <c r="A82" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C82" s="1">
-        <v>99</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="H82" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J82" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="83" ht="17" spans="1:10">
-      <c r="A83" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C83" s="1">
-        <v>99</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="H83" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="85" ht="17" spans="1:12">
+      <c r="F84" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="H84" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C85" s="1">
         <v>99</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H85" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="K85" t="s">
-        <v>248</v>
-      </c>
-      <c r="L85" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" ht="17" spans="1:12">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B86" s="1" t="s">
         <v>250</v>
       </c>
       <c r="C86" s="1">
@@ -3997,131 +4065,114 @@
         <v>251</v>
       </c>
       <c r="H86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="K86" t="s">
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="L86" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" ht="17" spans="1:12">
-      <c r="A87" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="C87" s="1">
         <v>99</v>
       </c>
       <c r="F87" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="H87" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="H87" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J87" s="3" t="s">
+      <c r="B89" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="K87" t="s">
-        <v>258</v>
-      </c>
-      <c r="L87" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" customFormat="1" ht="17" spans="1:10">
-      <c r="A89" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="C89" s="1">
         <v>99</v>
       </c>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
+      <c r="F89" s="2" t="s">
+        <v>258</v>
+      </c>
       <c r="H89" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" s="1"/>
+        <v>0</v>
+      </c>
       <c r="J89" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="K89" t="s">
+        <v>260</v>
+      </c>
+      <c r="L89" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" s="1" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="90" customFormat="1" ht="17" spans="1:10">
-      <c r="A90" s="1" t="s">
+      <c r="B90" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B90" s="1"/>
       <c r="C90" s="1">
         <v>99</v>
       </c>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
+      <c r="F90" s="2" t="s">
+        <v>263</v>
+      </c>
       <c r="H90" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I90" s="1"/>
+        <v>0</v>
+      </c>
       <c r="J90" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="91" customFormat="1" ht="17" spans="1:10">
+        <v>264</v>
+      </c>
+      <c r="K90" t="s">
+        <v>265</v>
+      </c>
+      <c r="L90" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B91" s="1"/>
+        <v>266</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="C91" s="1">
         <v>99</v>
       </c>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
+      <c r="F91" s="2" t="s">
+        <v>268</v>
+      </c>
       <c r="H91" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I91" s="1"/>
+        <v>0</v>
+      </c>
       <c r="J91" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="92" customFormat="1" ht="17" spans="1:10">
-      <c r="A92" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1">
-        <v>99</v>
-      </c>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
-      <c r="H92" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" s="1"/>
-      <c r="J92" s="3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="93" customFormat="1" ht="17" spans="1:10">
+        <v>269</v>
+      </c>
+      <c r="K91" t="s">
+        <v>270</v>
+      </c>
+      <c r="L91" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" customFormat="1" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B93" s="1"/>
+        <v>271</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>272</v>
+      </c>
       <c r="C93" s="1">
         <v>99</v>
       </c>
@@ -4134,16 +4185,14 @@
       </c>
       <c r="I93" s="1"/>
       <c r="J93" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="94" customFormat="1" ht="17" spans="1:10">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="94" customFormat="1" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>271</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="B94" s="1"/>
       <c r="C94" s="1">
         <v>99</v>
       </c>
@@ -4156,16 +4205,14 @@
       </c>
       <c r="I94" s="1"/>
       <c r="J94" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="95" customFormat="1" ht="17" spans="1:10">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="95" customFormat="1" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>274</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="B95" s="1"/>
       <c r="C95" s="1">
         <v>99</v>
       </c>
@@ -4178,16 +4225,14 @@
       </c>
       <c r="I95" s="1"/>
       <c r="J95" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="96" customFormat="1" ht="17" spans="1:10">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="96" customFormat="1" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>277</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="B96" s="1"/>
       <c r="C96" s="1">
         <v>99</v>
       </c>
@@ -4200,76 +4245,74 @@
       </c>
       <c r="I96" s="1"/>
       <c r="J96" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="97" customFormat="1" ht="17" spans="1:10">
-      <c r="A97" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="B97" s="6" t="s">
+    </row>
+    <row r="97" customFormat="1" spans="1:10">
+      <c r="A97" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C97" s="5">
+      <c r="B97" s="1"/>
+      <c r="C97" s="1">
         <v>99</v>
       </c>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="7"/>
-      <c r="H97" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" s="5"/>
-      <c r="J97" s="8" t="s">
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I97" s="1"/>
+      <c r="J97" s="3" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="98" customFormat="1" ht="17" spans="1:10">
-      <c r="A98" s="5" t="s">
+    <row r="98" customFormat="1" spans="1:10">
+      <c r="A98" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C98" s="5">
+      <c r="C98" s="1">
         <v>99</v>
       </c>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="7"/>
-      <c r="H98" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" s="5"/>
-      <c r="J98" s="8" t="s">
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I98" s="1"/>
+      <c r="J98" s="3" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="99" customFormat="1" ht="17" spans="1:10">
-      <c r="A99" s="5" t="s">
+    <row r="99" customFormat="1" spans="1:10">
+      <c r="A99" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C99" s="5">
+      <c r="C99" s="1">
         <v>99</v>
       </c>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="7"/>
-      <c r="G99" s="7"/>
-      <c r="H99" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" s="5"/>
-      <c r="J99" s="8" t="s">
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I99" s="1"/>
+      <c r="J99" s="3" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="100" ht="17" spans="1:10">
+    <row r="100" customFormat="1" spans="1:10">
       <c r="A100" s="1" t="s">
         <v>288</v>
       </c>
@@ -4279,102 +4322,102 @@
       <c r="C100" s="1">
         <v>99</v>
       </c>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
       <c r="H100" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="I100" s="1"/>
       <c r="J100" s="3" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="101" customFormat="1" ht="17" spans="1:10">
-      <c r="A101" s="1" t="s">
+    <row r="101" customFormat="1" spans="1:10">
+      <c r="A101" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="C101" s="1">
+      <c r="C101" s="5">
         <v>99</v>
       </c>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" s="1"/>
-      <c r="J101" s="3" t="s">
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I101" s="5"/>
+      <c r="J101" s="8" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="102" customFormat="1" ht="17" spans="1:10">
-      <c r="A102" s="1" t="s">
+    <row r="102" customFormat="1" spans="1:10">
+      <c r="A102" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" t="s">
         <v>295</v>
       </c>
-      <c r="C102" s="1">
+      <c r="C102" s="5">
         <v>99</v>
       </c>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="2"/>
-      <c r="G102" s="2"/>
-      <c r="H102" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I102" s="1"/>
-      <c r="J102" s="3" t="s">
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I102" s="5"/>
+      <c r="J102" s="8" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="103" customFormat="1" ht="17" spans="1:10">
-      <c r="A103" s="1" t="s">
+    <row r="103" customFormat="1" spans="1:10">
+      <c r="A103" s="5" t="s">
         <v>297</v>
       </c>
       <c r="B103" t="s">
         <v>298</v>
       </c>
-      <c r="C103" s="1">
+      <c r="C103" s="5">
         <v>99</v>
       </c>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
-      <c r="H103" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I103" s="1"/>
-      <c r="J103" s="3" t="s">
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I103" s="5"/>
+      <c r="J103" s="8" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="104" customFormat="1" ht="17" spans="1:10">
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="1" t="s">
         <v>301</v>
       </c>
       <c r="C104" s="1">
         <v>99</v>
       </c>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="2"/>
-      <c r="G104" s="2"/>
       <c r="H104" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I104" s="1"/>
       <c r="J104" s="3" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="105" customFormat="1" ht="17" spans="1:10">
+    <row r="105" customFormat="1" spans="1:10">
       <c r="A105" s="1" t="s">
         <v>303</v>
       </c>
@@ -4396,11 +4439,11 @@
         <v>305</v>
       </c>
     </row>
-    <row r="106" customFormat="1" ht="17" spans="1:10">
+    <row r="106" customFormat="1" spans="1:10">
       <c r="A106" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="1" t="s">
         <v>307</v>
       </c>
       <c r="C106" s="1">
@@ -4418,7 +4461,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="107" customFormat="1" ht="17" spans="1:10">
+    <row r="107" customFormat="1" spans="1:10">
       <c r="A107" s="1" t="s">
         <v>309</v>
       </c>
@@ -4440,7 +4483,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="108" customFormat="1" ht="17" spans="1:10">
+    <row r="108" customFormat="1" spans="1:10">
       <c r="A108" s="1" t="s">
         <v>312</v>
       </c>
@@ -4462,11 +4505,11 @@
         <v>314</v>
       </c>
     </row>
-    <row r="109" customFormat="1" ht="17" spans="1:10">
+    <row r="109" customFormat="1" spans="1:10">
       <c r="A109" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="1" t="s">
         <v>316</v>
       </c>
       <c r="C109" s="1">
@@ -4484,7 +4527,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="110" customFormat="1" ht="17" spans="1:10">
+    <row r="110" customFormat="1" spans="1:10">
       <c r="A110" s="1" t="s">
         <v>318</v>
       </c>
@@ -4506,7 +4549,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="111" customFormat="1" ht="17" spans="1:10">
+    <row r="111" customFormat="1" spans="1:10">
       <c r="A111" s="1" t="s">
         <v>321</v>
       </c>
@@ -4528,7 +4571,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="112" customFormat="1" ht="17" spans="1:10">
+    <row r="112" customFormat="1" spans="1:10">
       <c r="A112" s="1" t="s">
         <v>324</v>
       </c>
@@ -4550,7 +4593,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="113" customFormat="1" ht="17" spans="1:10">
+    <row r="113" customFormat="1" spans="1:10">
       <c r="A113" s="1" t="s">
         <v>327</v>
       </c>
@@ -4572,7 +4615,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="114" customFormat="1" ht="17" spans="1:10">
+    <row r="114" customFormat="1" spans="1:10">
       <c r="A114" s="1" t="s">
         <v>330</v>
       </c>
@@ -4594,100 +4637,100 @@
         <v>332</v>
       </c>
     </row>
-    <row r="115" ht="17" spans="1:10">
-      <c r="A115" s="5" t="s">
+    <row r="115" customFormat="1" spans="1:10">
+      <c r="A115" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B115" s="6" t="s">
+      <c r="B115" t="s">
         <v>334</v>
       </c>
-      <c r="C115" s="5">
+      <c r="C115" s="1">
         <v>99</v>
       </c>
-      <c r="D115" s="5"/>
-      <c r="E115" s="5"/>
-      <c r="F115" s="7"/>
-      <c r="G115" s="7"/>
-      <c r="H115" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I115" s="5"/>
-      <c r="J115" s="8" t="s">
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I115" s="1"/>
+      <c r="J115" s="3" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="116" customFormat="1" ht="17" spans="1:10">
-      <c r="A116" s="5" t="s">
+    <row r="116" customFormat="1" spans="1:10">
+      <c r="A116" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B116" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="C116" s="5">
+      <c r="B116" t="s">
+        <v>337</v>
+      </c>
+      <c r="C116" s="1">
         <v>99</v>
       </c>
-      <c r="D116" s="5"/>
-      <c r="E116" s="5"/>
-      <c r="F116" s="7"/>
-      <c r="G116" s="7"/>
-      <c r="H116" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I116" s="5"/>
-      <c r="J116" s="8" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="117" customFormat="1" ht="17" spans="1:10">
-      <c r="A117" s="5" t="s">
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I116" s="1"/>
+      <c r="J116" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="B117" s="6" t="s">
+    </row>
+    <row r="117" customFormat="1" spans="1:10">
+      <c r="A117" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C117" s="5">
+      <c r="B117" t="s">
+        <v>340</v>
+      </c>
+      <c r="C117" s="1">
         <v>99</v>
       </c>
-      <c r="D117" s="5"/>
-      <c r="E117" s="5"/>
-      <c r="F117" s="7"/>
-      <c r="G117" s="7"/>
-      <c r="H117" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I117" s="5"/>
-      <c r="J117" s="8" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="118" customFormat="1" ht="17" spans="1:10">
-      <c r="A118" s="5" t="s">
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I117" s="1"/>
+      <c r="J117" s="3" t="s">
         <v>341</v>
       </c>
+    </row>
+    <row r="118" customFormat="1" spans="1:10">
+      <c r="A118" s="1" t="s">
+        <v>342</v>
+      </c>
       <c r="B118" t="s">
-        <v>342</v>
-      </c>
-      <c r="C118" s="5">
+        <v>343</v>
+      </c>
+      <c r="C118" s="1">
         <v>99</v>
       </c>
-      <c r="D118" s="5"/>
-      <c r="E118" s="5"/>
-      <c r="F118" s="7"/>
-      <c r="G118" s="7"/>
-      <c r="H118" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I118" s="5"/>
-      <c r="J118" s="8" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="119" customFormat="1" ht="17" spans="1:10">
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I118" s="1"/>
+      <c r="J118" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="B119" t="s">
         <v>345</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>346</v>
       </c>
       <c r="C119" s="5">
         <v>99</v>
@@ -4701,15 +4744,15 @@
       </c>
       <c r="I119" s="5"/>
       <c r="J119" s="8" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="120" ht="17" spans="1:10">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="120" customFormat="1" spans="1:10">
       <c r="A120" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>348</v>
+        <v>292</v>
       </c>
       <c r="C120" s="5">
         <v>99</v>
@@ -4724,6 +4767,94 @@
       <c r="I120" s="5"/>
       <c r="J120" s="8" t="s">
         <v>349</v>
+      </c>
+    </row>
+    <row r="121" customFormat="1" spans="1:10">
+      <c r="A121" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="C121" s="5">
+        <v>99</v>
+      </c>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="7"/>
+      <c r="G121" s="7"/>
+      <c r="H121" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I121" s="5"/>
+      <c r="J121" s="8" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="122" customFormat="1" spans="1:10">
+      <c r="A122" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B122" t="s">
+        <v>354</v>
+      </c>
+      <c r="C122" s="5">
+        <v>99</v>
+      </c>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="7"/>
+      <c r="G122" s="7"/>
+      <c r="H122" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I122" s="5"/>
+      <c r="J122" s="8" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="123" customFormat="1" spans="1:10">
+      <c r="A123" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="B123" t="s">
+        <v>357</v>
+      </c>
+      <c r="C123" s="5">
+        <v>99</v>
+      </c>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="7"/>
+      <c r="G123" s="7"/>
+      <c r="H123" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I123" s="5"/>
+      <c r="J123" s="8" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="C124" s="5">
+        <v>99</v>
+      </c>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="7"/>
+      <c r="G124" s="7"/>
+      <c r="H124" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I124" s="5"/>
+      <c r="J124" s="8" t="s">
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -4742,7 +4873,7 @@
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4759,7 +4890,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
